--- a/Initial presentation/Codi/PGD/Map_V.xlsx
+++ b/Initial presentation/Codi/PGD/Map_V.xlsx
@@ -26,1819 +26,1819 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
-    <t>(0.9443038664864039+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886069724756291+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780298467841282+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685911018589575+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603032544430856+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531775848550613+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472239468154998+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424507368800295+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388647612007704+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364712108644068+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352735448843663+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442994461240969+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885989061958719+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780218747267299+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685832760049318+0j)</t>
-  </si>
-  <si>
-    <t>(0.860295988595166+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531706694249338+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472177956208066+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424460292910846+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388612108365242+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364686910346392+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352713629867788+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442932159931472+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885848649018837+0j)</t>
-  </si>
-  <si>
-    <t>(0.878005880890589+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685656289123327+0j)</t>
-  </si>
-  <si>
-    <t>(0.8602767635146373+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531504004113145+0j)</t>
-  </si>
-  <si>
-    <t>(0.8471964873877693+0j)</t>
-  </si>
-  <si>
-    <t>(0.842423353932523+0j)</t>
-  </si>
-  <si>
-    <t>(0.838837592068502+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364442743112254+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352467719289164+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442956858176728+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885893546866455+0j)</t>
-  </si>
-  <si>
-    <t>(0.878010805196215+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685712555858522+0j)</t>
-  </si>
-  <si>
-    <t>(0.8602832144002621+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531578321254716+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472048416242484+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424324144294955+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388472685350861+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364543512209524+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352571183315696+0j)</t>
-  </si>
-  <si>
-    <t>(0.944310572072269+0j)</t>
-  </si>
-  <si>
-    <t>(0.88861939169214+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780441666585258+0j)</t>
-  </si>
-  <si>
-    <t>(0.8686080215595912+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603234750671944+0j)</t>
-  </si>
-  <si>
-    <t>(0.8532014011993783+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472515934256403+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424821594073622+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388994387284208+0j)</t>
-  </si>
-  <si>
-    <t>(0.8365082831016853+0j)</t>
-  </si>
-  <si>
-    <t>(0.8353119329205443+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443028228180023+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886053415538844+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780286182316259+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685909159258011+0j)</t>
-  </si>
-  <si>
-    <t>(0.860304648894786+0j)</t>
-  </si>
-  <si>
-    <t>(0.853180852541538+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472292428528732+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424580126146856+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388737395282803+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364814328346168+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352844408981501+0j)</t>
-  </si>
-  <si>
-    <t>(0.9524701725804919+0j)</t>
-  </si>
-  <si>
-    <t>(0.9040910272358398+0j)</t>
-  </si>
-  <si>
-    <t>(0.8949050040407602+0j)</t>
-  </si>
-  <si>
-    <t>(0.8867790498359123+0j)</t>
-  </si>
-  <si>
-    <t>(0.8796953275241077+0j)</t>
-  </si>
-  <si>
-    <t>(0.8736798458991071+0j)</t>
-  </si>
-  <si>
-    <t>(0.8686861062297146+0j)</t>
-  </si>
-  <si>
-    <t>(0.8646761769125979+0j)</t>
-  </si>
-  <si>
-    <t>(0.8616929026421383+0j)</t>
-  </si>
-  <si>
-    <t>(0.859700000837449+0j)</t>
-  </si>
-  <si>
-    <t>(0.8587263560978314+0j)</t>
-  </si>
-  <si>
-    <t>(0.9602270075593612+0j)</t>
-  </si>
-  <si>
-    <t>(0.9187714912185644+0j)</t>
-  </si>
-  <si>
-    <t>(0.9109002927666842+0j)</t>
-  </si>
-  <si>
-    <t>(0.9040139354743413+0j)</t>
-  </si>
-  <si>
-    <t>(0.8980660867062905+0j)</t>
-  </si>
-  <si>
-    <t>(0.8930973792544611+0j)</t>
-  </si>
-  <si>
-    <t>(0.8890080746944095+0j)</t>
-  </si>
-  <si>
-    <t>(0.8857166081854458+0j)</t>
-  </si>
-  <si>
-    <t>(0.8833005581777473+0j)</t>
-  </si>
-  <si>
-    <t>(0.8816845148208989+0j)</t>
-  </si>
-  <si>
-    <t>(0.8809217658320219+0j)</t>
-  </si>
-  <si>
-    <t>(0.967628032760071+0j)</t>
-  </si>
-  <si>
-    <t>(0.932753503364121+0j)</t>
-  </si>
-  <si>
-    <t>(0.9261309289894513+0j)</t>
-  </si>
-  <si>
-    <t>(0.9204213105300284+0j)</t>
-  </si>
-  <si>
-    <t>(0.9155511763757787+0j)</t>
-  </si>
-  <si>
-    <t>(0.9115757397468023+0j)</t>
-  </si>
-  <si>
-    <t>(0.908344297429029+0j)</t>
-  </si>
-  <si>
-    <t>(0.9057336666189718+0j)</t>
-  </si>
-  <si>
-    <t>(0.903855199970308+0j)</t>
-  </si>
-  <si>
-    <t>(0.9025961417265085+0j)</t>
-  </si>
-  <si>
-    <t>(0.9020334054882251+0j)</t>
-  </si>
-  <si>
-    <t>(0.9747144547679775+0j)</t>
-  </si>
-  <si>
-    <t>(0.9461175449532299+0j)</t>
-  </si>
-  <si>
-    <t>(0.9406849156911159+0j)</t>
-  </si>
-  <si>
-    <t>(0.9360962654657464+0j)</t>
-  </si>
-  <si>
-    <t>(0.9322521696098522+0j)</t>
-  </si>
-  <si>
-    <t>(0.9292224065536422+0j)</t>
-  </si>
-  <si>
-    <t>(0.9268073279940391+0j)</t>
-  </si>
-  <si>
-    <t>(0.9248439528721004+0j)</t>
-  </si>
-  <si>
-    <t>(0.9234765797185714+0j)</t>
-  </si>
-  <si>
-    <t>(0.9225567297779985+0j)</t>
-  </si>
-  <si>
-    <t>(0.922184256379333+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442985226154597+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885971984587755+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780197746767785+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685814671760793+0j)</t>
-  </si>
-  <si>
-    <t>(0.8602946756712581+0j)</t>
-  </si>
-  <si>
-    <t>(0.853170419911659+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472184118338366+0j)</t>
-  </si>
-  <si>
-    <t>(0.842446849355758+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388623087371931+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364698168536495+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352727212565872+0j)</t>
-  </si>
-  <si>
-    <t>(0.9602225996423127+0j)</t>
-  </si>
-  <si>
-    <t>(0.918763375820596+0j)</t>
-  </si>
-  <si>
-    <t>(0.9108912982933339+0j)</t>
-  </si>
-  <si>
-    <t>(0.9040043248130244+0j)</t>
-  </si>
-  <si>
-    <t>(0.8980559466846418+0j)</t>
-  </si>
-  <si>
-    <t>(0.8930869721200183+0j)</t>
-  </si>
-  <si>
-    <t>(0.8889973775591612+0j)</t>
-  </si>
-  <si>
-    <t>(0.8857054482326236+0j)</t>
-  </si>
-  <si>
-    <t>(0.8832890669970821+0j)</t>
-  </si>
-  <si>
-    <t>(0.8816727304263788+0j)</t>
-  </si>
-  <si>
-    <t>(0.8809099032198742+0j)</t>
-  </si>
-  <si>
-    <t>(0.974719860494367+0j)</t>
-  </si>
-  <si>
-    <t>(0.9461271208717255+0j)</t>
-  </si>
-  <si>
-    <t>(0.9406956039475908+0j)</t>
-  </si>
-  <si>
-    <t>(0.936108493029223+0j)</t>
-  </si>
-  <si>
-    <t>(0.9322659330596799+0j)</t>
-  </si>
-  <si>
-    <t>(0.9292374084334808+0j)</t>
-  </si>
-  <si>
-    <t>(0.9268232133289569+0j)</t>
-  </si>
-  <si>
-    <t>(0.9248605409714332+0j)</t>
-  </si>
-  <si>
-    <t>(0.9234934316044812+0j)</t>
-  </si>
-  <si>
-    <t>(0.9225737467473298+0j)</t>
-  </si>
-  <si>
-    <t>(0.9222011070597333+0j)</t>
-  </si>
-  <si>
-    <t>(0.9881269065190452+0j)</t>
-  </si>
-  <si>
-    <t>(0.9713535775189319+0j)</t>
-  </si>
-  <si>
-    <t>(0.968160892119288+0j)</t>
-  </si>
-  <si>
-    <t>(0.9656822548732125+0j)</t>
-  </si>
-  <si>
-    <t>(0.9637685278893755+0j)</t>
-  </si>
-  <si>
-    <t>(0.9625172467538029+0j)</t>
-  </si>
-  <si>
-    <t>(0.9616363300253635+0j)</t>
-  </si>
-  <si>
-    <t>(0.9608883761839675+0j)</t>
-  </si>
-  <si>
-    <t>(0.9604800504722536+0j)</t>
-  </si>
-  <si>
-    <t>(0.9601964235630993+0j)</t>
-  </si>
-  <si>
-    <t>(0.9601804962002123+0j)</t>
-  </si>
-  <si>
-    <t>(1.0006731635774748+0j)</t>
-  </si>
-  <si>
-    <t>(0.9948953677436322+0j)</t>
-  </si>
-  <si>
-    <t>(0.9937827672331724+0j)</t>
-  </si>
-  <si>
-    <t>(0.9932619486327596+0j)</t>
-  </si>
-  <si>
-    <t>(0.9931376890288018+0j)</t>
-  </si>
-  <si>
-    <t>(0.9935351045167237+0j)</t>
-  </si>
-  <si>
-    <t>(0.9940754808531386+0j)</t>
-  </si>
-  <si>
-    <t>(0.9944519404892315+0j)</t>
-  </si>
-  <si>
-    <t>(0.9949310369762608+0j)</t>
-  </si>
-  <si>
-    <t>(0.9952356633881937+0j)</t>
-  </si>
-  <si>
-    <t>(0.9955500424709912+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442975328650964+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885955094503735+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780179166585673+0j)</t>
-  </si>
-  <si>
-    <t>(0.868579395039294+0j)</t>
-  </si>
-  <si>
-    <t>(0.8602923398571389+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531677866981109+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472154596298752+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424435855058179+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388587689703957+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364660737203734+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352688614515194+0j)</t>
-  </si>
-  <si>
-    <t>(0.9676226516670311+0j)</t>
-  </si>
-  <si>
-    <t>(0.9327431969656084+0j)</t>
-  </si>
-  <si>
-    <t>(0.9261196052205729+0j)</t>
-  </si>
-  <si>
-    <t>(0.9204093477480219+0j)</t>
-  </si>
-  <si>
-    <t>(0.9155386850138406+0j)</t>
-  </si>
-  <si>
-    <t>(0.9115629120988207+0j)</t>
-  </si>
-  <si>
-    <t>(0.9083310634141476+0j)</t>
-  </si>
-  <si>
-    <t>(0.9057198815390163+0j)</t>
-  </si>
-  <si>
-    <t>(0.9038409275146178+0j)</t>
-  </si>
-  <si>
-    <t>(0.9025814699691483+0j)</t>
-  </si>
-  <si>
-    <t>(0.9020185200754396+0j)</t>
-  </si>
-  <si>
-    <t>(0.9881244030877837+0j)</t>
-  </si>
-  <si>
-    <t>(0.9713479353483838+0j)</t>
-  </si>
-  <si>
-    <t>(0.9681546341365366+0j)</t>
-  </si>
-  <si>
-    <t>(0.9656756108838579+0j)</t>
-  </si>
-  <si>
-    <t>(0.9637615756388992+0j)</t>
-  </si>
-  <si>
-    <t>(0.9625100819209602+0j)</t>
-  </si>
-  <si>
-    <t>(0.9616289253691807+0j)</t>
-  </si>
-  <si>
-    <t>(0.9608806817618919+0j)</t>
-  </si>
-  <si>
-    <t>(0.9604720910834291+0j)</t>
-  </si>
-  <si>
-    <t>(0.9601882550630962+0j)</t>
-  </si>
-  <si>
-    <t>(0.960172201516241+0j)</t>
-  </si>
-  <si>
-    <t>(1.0066703461132478+0j)</t>
-  </si>
-  <si>
-    <t>(1.0061253977810993+0j)</t>
-  </si>
-  <si>
-    <t>(1.0060025846724505+0j)</t>
-  </si>
-  <si>
-    <t>(1.0064137221193243+0j)</t>
-  </si>
-  <si>
-    <t>(1.0071412648689253+0j)</t>
-  </si>
-  <si>
-    <t>(1.0083233547894666+0j)</t>
-  </si>
-  <si>
-    <t>(1.0095399691751061+0j)</t>
-  </si>
-  <si>
-    <t>(1.0104513487397921+0j)</t>
-  </si>
-  <si>
-    <t>(1.0113523889429137+0j)</t>
-  </si>
-  <si>
-    <t>(1.0119366962105236+0j)</t>
-  </si>
-  <si>
-    <t>(1.012407916613218+0j)</t>
-  </si>
-  <si>
-    <t>(1.023758849775665+0j)</t>
-  </si>
-  <si>
-    <t>(1.038059025510746+0j)</t>
-  </si>
-  <si>
-    <t>(1.0407403174544354+0j)</t>
-  </si>
-  <si>
-    <t>(1.0437890993225496+0j)</t>
-  </si>
-  <si>
-    <t>(1.046925029099972+0j)</t>
-  </si>
-  <si>
-    <t>(1.0503255370921372+0j)</t>
-  </si>
-  <si>
-    <t>(1.0534527672198186+0j)</t>
-  </si>
-  <si>
-    <t>(1.0558733786015841+0j)</t>
-  </si>
-  <si>
-    <t>(1.0579651723506291+0j)</t>
-  </si>
-  <si>
-    <t>(1.0593381452531951+0j)</t>
-  </si>
-  <si>
-    <t>(1.0602525527329796+0j)</t>
-  </si>
-  <si>
-    <t>(0.9442994518180986+0j)</t>
-  </si>
-  <si>
-    <t>(0.8885994498901341+0j)</t>
-  </si>
-  <si>
-    <t>(0.878022229399807+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685840215728539+0j)</t>
-  </si>
-  <si>
-    <t>(0.8602972102815323+0j)</t>
-  </si>
-  <si>
-    <t>(0.853172836629394+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472206251018721+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424488138494213+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388640243488631+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364713369101608+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352741223680058+0j)</t>
-  </si>
-  <si>
-    <t>(0.9747170900491494+0j)</t>
-  </si>
-  <si>
-    <t>(0.9461225313791667+0j)</t>
-  </si>
-  <si>
-    <t>(0.9406906473983121+0j)</t>
-  </si>
-  <si>
-    <t>(0.9361032138933758+0j)</t>
-  </si>
-  <si>
-    <t>(0.9322604132981951+0j)</t>
-  </si>
-  <si>
-    <t>(0.9292317964876291+0j)</t>
-  </si>
-  <si>
-    <t>(0.926817584467161+0j)</t>
-  </si>
-  <si>
-    <t>(0.9248548712348551+0j)</t>
-  </si>
-  <si>
-    <t>(0.9234878074374944+0j)</t>
-  </si>
-  <si>
-    <t>(0.9225681432513649+0j)</t>
-  </si>
-  <si>
-    <t>(0.9221955885616925+0j)</t>
-  </si>
-  <si>
-    <t>(1.0006672738916655+0j)</t>
-  </si>
-  <si>
-    <t>(0.9948818047225256+0j)</t>
-  </si>
-  <si>
-    <t>(0.9937680857892098+0j)</t>
-  </si>
-  <si>
-    <t>(0.9932467658239156+0j)</t>
-  </si>
-  <si>
-    <t>(0.9931223416835887+0j)</t>
-  </si>
-  <si>
-    <t>(0.9935196600509407+0j)</t>
-  </si>
-  <si>
-    <t>(0.9940599813355003+0j)</t>
-  </si>
-  <si>
-    <t>(0.9944365199866002+0j)</t>
-  </si>
-  <si>
-    <t>(0.9949155563783033+0j)</t>
-  </si>
-  <si>
-    <t>(0.9952201759721285+0j)</t>
-  </si>
-  <si>
-    <t>(0.9955343910116958+0j)</t>
-  </si>
-  <si>
-    <t>(1.0237532963587106+0j)</t>
-  </si>
-  <si>
-    <t>(1.0380460014973427+0j)</t>
-  </si>
-  <si>
-    <t>(1.0407261972066668+0j)</t>
-  </si>
-  <si>
-    <t>(1.043774376239125+0j)</t>
-  </si>
-  <si>
-    <t>(1.0469100621865077+0j)</t>
-  </si>
-  <si>
-    <t>(1.050310439623194+0j)</t>
-  </si>
-  <si>
-    <t>(1.0534376915753243+0j)</t>
-  </si>
-  <si>
-    <t>(1.055858535973079+0j)</t>
-  </si>
-  <si>
-    <t>(1.0579504782182+0j)</t>
-  </si>
-  <si>
-    <t>(1.0593236160652904+0j)</t>
-  </si>
-  <si>
-    <t>(1.060238003066627+0j)</t>
-  </si>
-  <si>
-    <t>(1.0447890328704919+0j)</t>
-  </si>
-  <si>
-    <t>(1.0772198876000854+0j)</t>
-  </si>
-  <si>
-    <t>(1.083322017236486+0j)</t>
-  </si>
-  <si>
-    <t>(1.089587428650527+0j)</t>
-  </si>
-  <si>
-    <t>(1.0956583941358862+0j)</t>
-  </si>
-  <si>
-    <t>(1.1017621218983877+0j)</t>
-  </si>
-  <si>
-    <t>(1.1072159666362802+0j)</t>
-  </si>
-  <si>
-    <t>(1.1114724785822148+0j)</t>
-  </si>
-  <si>
-    <t>(1.1150124212094743+0j)</t>
-  </si>
-  <si>
-    <t>(1.1173439947595083+0j)</t>
-  </si>
-  <si>
-    <t>(1.1187973304168752+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443028139851529+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886061102740165+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780295395381121+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685919523111887+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603057128126069+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531818523160722+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472300810572597+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424586268800314+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388741110621816+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364816073084687+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352844875364738+0j)</t>
-  </si>
-  <si>
-    <t>(0.9815423551537871+0j)</t>
-  </si>
-  <si>
-    <t>(0.9589735961896028+0j)</t>
-  </si>
-  <si>
-    <t>(0.9546835371320379+0j)</t>
-  </si>
-  <si>
-    <t>(0.9511716287319467+0j)</t>
-  </si>
-  <si>
-    <t>(0.9483129557905496+0j)</t>
-  </si>
-  <si>
-    <t>(0.9461911271587338+0j)</t>
-  </si>
-  <si>
-    <t>(0.9445593849523539+0j)</t>
-  </si>
-  <si>
-    <t>(0.943216821104713+0j)</t>
-  </si>
-  <si>
-    <t>(0.9423392422933932+0j)</t>
-  </si>
-  <si>
-    <t>(0.9417443750803168+0j)</t>
-  </si>
-  <si>
-    <t>(0.9415538957204281+0j)</t>
-  </si>
-  <si>
-    <t>(1.012504655827235+0j)</t>
-  </si>
-  <si>
-    <t>(1.0170373111896078+0j)</t>
-  </si>
-  <si>
-    <t>(1.017874005239478+0j)</t>
-  </si>
-  <si>
-    <t>(1.0191880273724818+0j)</t>
-  </si>
-  <si>
-    <t>(1.0207402941595902+0j)</t>
-  </si>
-  <si>
-    <t>(1.0226822086545773+0j)</t>
-  </si>
-  <si>
-    <t>(1.024553403967046+0j)</t>
-  </si>
-  <si>
-    <t>(1.0259820297951752+0j)</t>
-  </si>
-  <si>
-    <t>(1.027291207510723+0j)</t>
-  </si>
-  <si>
-    <t>(1.0281458846542944+0j)</t>
-  </si>
-  <si>
-    <t>(1.0287690118228+0j)</t>
-  </si>
-  <si>
-    <t>(1.0396890578516786+0j)</t>
-  </si>
-  <si>
-    <t>(1.0677329531652702+0j)</t>
-  </si>
-  <si>
-    <t>(1.0730079945755109+0j)</t>
-  </si>
-  <si>
-    <t>(1.078496212673326+0j)</t>
-  </si>
-  <si>
-    <t>(1.08385852486522+0j)</t>
-  </si>
-  <si>
-    <t>(1.089309754727899+0j)</t>
-  </si>
-  <si>
-    <t>(1.094202311218455+0j)</t>
-  </si>
-  <si>
-    <t>(1.0980162965544373+0j)</t>
-  </si>
-  <si>
-    <t>(1.1012072171592908+0j)</t>
-  </si>
-  <si>
-    <t>(1.103307868857632+0j)</t>
-  </si>
-  <si>
-    <t>(1.104631285424255+0j)</t>
-  </si>
-  <si>
-    <t>(1.0642527627229736+0j)</t>
-  </si>
-  <si>
-    <t>(1.1133398413343452+0j)</t>
-  </si>
-  <si>
-    <t>(1.1225807786374837+0j)</t>
-  </si>
-  <si>
-    <t>(1.1317961746769252+0j)</t>
-  </si>
-  <si>
-    <t>(1.140556846433643+0j)</t>
-  </si>
-  <si>
-    <t>(1.1491376284350165+0j)</t>
-  </si>
-  <si>
-    <t>(1.156722054215808+0j)</t>
-  </si>
-  <si>
-    <t>(1.1626578887954095+0j)</t>
-  </si>
-  <si>
-    <t>(1.1675223225835083+0j)</t>
-  </si>
-  <si>
-    <t>(1.1707301102072283+0j)</t>
-  </si>
-  <si>
-    <t>(1.1726764682030173+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443062641191287+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886128094623902+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780369047567654+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685999968572918+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603144248712974+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531911986358895+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472400037129995+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424690421275518+0j)</t>
-  </si>
-  <si>
-    <t>(0.838884920786692+0j)</t>
-  </si>
-  <si>
-    <t>(0.8364926901356471+0j)</t>
-  </si>
-  <si>
-    <t>(0.835295715921925+0j)</t>
-  </si>
-  <si>
-    <t>(0.9881279520220243+0j)</t>
-  </si>
-  <si>
-    <t>(0.9713549812701622+0j)</t>
-  </si>
-  <si>
-    <t>(0.9681624813029971+0j)</t>
-  </si>
-  <si>
-    <t>(0.9656841473601133+0j)</t>
-  </si>
-  <si>
-    <t>(0.9637708281680604+0j)</t>
-  </si>
-  <si>
-    <t>(0.9625200087845127+0j)</t>
-  </si>
-  <si>
-    <t>(0.9616395726305178+0j)</t>
-  </si>
-  <si>
-    <t>(0.9608920650393978+0j)</t>
-  </si>
-  <si>
-    <t>(0.9604841191407018+0j)</t>
-  </si>
-  <si>
-    <t>(0.9602007618178247+0j)</t>
-  </si>
-  <si>
-    <t>(0.9601849855183562+0j)</t>
-  </si>
-  <si>
-    <t>(1.0237497902061479+0j)</t>
-  </si>
-  <si>
-    <t>(1.038038043707694+0j)</t>
-  </si>
-  <si>
-    <t>(1.0407172902078148+0j)</t>
-  </si>
-  <si>
-    <t>(1.043764542958187+0j)</t>
-  </si>
-  <si>
-    <t>(1.0468993478390587+0j)</t>
-  </si>
-  <si>
-    <t>(1.0502989740895026+0j)</t>
-  </si>
-  <si>
-    <t>(1.0534255636438914+0j)</t>
-  </si>
-  <si>
-    <t>(1.0558457981405984+0j)</t>
-  </si>
-  <si>
-    <t>(1.05793729619612+0j)</t>
-  </si>
-  <si>
-    <t>(1.0593101127647109+0j)</t>
-  </si>
-  <si>
-    <t>(1.0602243778043279+0j)</t>
-  </si>
-  <si>
-    <t>(1.0546914210002951+0j)</t>
-  </si>
-  <si>
-    <t>(1.095607053390798+0j)</t>
-  </si>
-  <si>
-    <t>(1.1033086621533852+0j)</t>
-  </si>
-  <si>
-    <t>(1.1110777656015614+0j)</t>
-  </si>
-  <si>
-    <t>(1.1185202044937224+0j)</t>
-  </si>
-  <si>
-    <t>(1.1258871806144222+0j)</t>
-  </si>
-  <si>
-    <t>(1.1324278791222013+0j)</t>
-  </si>
-  <si>
-    <t>(1.1375413763830229+0j)</t>
-  </si>
-  <si>
-    <t>(1.1417573044380487+0j)</t>
-  </si>
-  <si>
-    <t>(1.1445361721960992+0j)</t>
-  </si>
-  <si>
-    <t>(1.146241143225113+0j)</t>
-  </si>
-  <si>
-    <t>(1.0824701004826305+0j)</t>
-  </si>
-  <si>
-    <t>(1.1470471521810397+0j)</t>
-  </si>
-  <si>
-    <t>(1.1592041142264369+0j)</t>
-  </si>
-  <si>
-    <t>(1.1711590073282392+0j)</t>
-  </si>
-  <si>
-    <t>(1.1824159254759703+0j)</t>
-  </si>
-  <si>
-    <t>(1.1932954782070542+0j)</t>
-  </si>
-  <si>
-    <t>(1.2028561094102865+0j)</t>
-  </si>
-  <si>
-    <t>(1.2103481474626538+0j)</t>
-  </si>
-  <si>
-    <t>(1.2164398791623523+0j)</t>
-  </si>
-  <si>
-    <t>(1.2204591806727718+0j)</t>
-  </si>
-  <si>
-    <t>(1.2228624876619503+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443087557920032+0j)</t>
-  </si>
-  <si>
-    <t>(0.88861748108255+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780420523996302+0j)</t>
-  </si>
-  <si>
-    <t>(0.8686056781579143+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603206704046751+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531980109590205+0j)</t>
-  </si>
-  <si>
-    <t>(0.847247356144734+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424768746788515+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388931489512943+0j)</t>
-  </si>
-  <si>
-    <t>(0.836501197761557+0j)</t>
-  </si>
-  <si>
-    <t>(0.835304374773099+0j)</t>
-  </si>
-  <si>
-    <t>(0.9944982883996067+0j)</t>
-  </si>
-  <si>
-    <t>(0.9833151591351325+0j)</t>
-  </si>
-  <si>
-    <t>(0.9811806035183075+0j)</t>
-  </si>
-  <si>
-    <t>(0.9796983118188738+0j)</t>
-  </si>
-  <si>
-    <t>(0.9786956687880053+0j)</t>
-  </si>
-  <si>
-    <t>(0.9782838632309044+0j)</t>
-  </si>
-  <si>
-    <t>(0.9781268729022127+0j)</t>
-  </si>
-  <si>
-    <t>(0.9779519982199407+0j)</t>
-  </si>
-  <si>
-    <t>(0.9779959466333871+0j)</t>
-  </si>
-  <si>
-    <t>(0.9780122294001341+0j)</t>
-  </si>
-  <si>
-    <t>(0.9781645683989759+0j)</t>
-  </si>
-  <si>
-    <t>(1.0344880080887098+0j)</t>
-  </si>
-  <si>
-    <t>(1.0580523300698204+0j)</t>
-  </si>
-  <si>
-    <t>(1.0624822788990733+0j)</t>
-  </si>
-  <si>
-    <t>(1.0671758540907814+0j)</t>
-  </si>
-  <si>
-    <t>(1.0718131231874337+0j)</t>
-  </si>
-  <si>
-    <t>(1.0765965774899942+0j)</t>
-  </si>
-  <si>
-    <t>(1.0809144193892812+0j)</t>
-  </si>
-  <si>
-    <t>(1.0842749311821482+0j)</t>
-  </si>
-  <si>
-    <t>(1.0871081657300847+0j)</t>
-  </si>
-  <si>
-    <t>(1.088972052565303+0j)</t>
-  </si>
-  <si>
-    <t>(1.0901623659706023+0j)</t>
-  </si>
-  <si>
-    <t>(1.068914240796854+0j)</t>
-  </si>
-  <si>
-    <t>(1.121970692918563+0j)</t>
-  </si>
-  <si>
-    <t>(1.1319591758804806+0j)</t>
-  </si>
-  <si>
-    <t>(1.1418771231052782+0j)</t>
-  </si>
-  <si>
-    <t>(1.1512782511188977+0j)</t>
-  </si>
-  <si>
-    <t>(1.160449002047741+0j)</t>
-  </si>
-  <si>
-    <t>(1.1685408209689914+0j)</t>
-  </si>
-  <si>
-    <t>(1.1748764016513007+0j)</t>
-  </si>
-  <si>
-    <t>(1.1800561787691084+0j)</t>
-  </si>
-  <si>
-    <t>(1.1834725347751975+0j)</t>
-  </si>
-  <si>
-    <t>(1.1855363407359412+0j)</t>
-  </si>
-  <si>
-    <t>(1.0996641101103242+0j)</t>
-  </si>
-  <si>
-    <t>(1.1787788639979477+0j)</t>
-  </si>
-  <si>
-    <t>(1.193670151438726+0j)</t>
-  </si>
-  <si>
-    <t>(1.2081929739530382+0j)</t>
-  </si>
-  <si>
-    <t>(1.221788591326175+0j)</t>
-  </si>
-  <si>
-    <t>(1.2348217736726834+0j)</t>
-  </si>
-  <si>
-    <t>(1.2462330386159186+0j)</t>
-  </si>
-  <si>
-    <t>(1.2551812571505787+0j)</t>
-  </si>
-  <si>
-    <t>(1.2624213538470397+0j)</t>
-  </si>
-  <si>
-    <t>(1.2671996609539733+0j)</t>
-  </si>
-  <si>
-    <t>(1.2700306267415384+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443095309731933+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886186300440626+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780433361710633+0j)</t>
-  </si>
-  <si>
-    <t>(0.8686071963520943+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603224968306084+0j)</t>
-  </si>
-  <si>
-    <t>(0.8532001891666177+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472499015322879+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424797693342497+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388963436727466+0j)</t>
-  </si>
-  <si>
-    <t>(0.8365046109336994+0j)</t>
-  </si>
-  <si>
-    <t>(0.8353079078468759+0j)</t>
-  </si>
-  <si>
-    <t>(1.0006738617622764+0j)</t>
-  </si>
-  <si>
-    <t>(0.9948948084530554+0j)</t>
-  </si>
-  <si>
-    <t>(0.9937824836428453+0j)</t>
-  </si>
-  <si>
-    <t>(0.9932624032522381+0j)</t>
-  </si>
-  <si>
-    <t>(0.9931391889388109+0j)</t>
-  </si>
-  <si>
-    <t>(0.9935375673145761+0j)</t>
-  </si>
-  <si>
-    <t>(0.9940789275722228+0j)</t>
-  </si>
-  <si>
-    <t>(0.9944564998222427+0j)</t>
-  </si>
-  <si>
-    <t>(0.994936375347287+0j)</t>
-  </si>
-  <si>
-    <t>(0.9952416171983828+0j)</t>
-  </si>
-  <si>
-    <t>(0.9955561413423529+0j)</t>
-  </si>
-  <si>
-    <t>(1.0447855800951573+0j)</t>
-  </si>
-  <si>
-    <t>(1.0772107623991631+0j)</t>
-  </si>
-  <si>
-    <t>(1.083311959619303+0j)</t>
-  </si>
-  <si>
-    <t>(1.0895767125593965+0j)</t>
-  </si>
-  <si>
-    <t>(1.095647257240741+0j)</t>
-  </si>
-  <si>
-    <t>(1.1017507058723988+0j)</t>
-  </si>
-  <si>
-    <t>(1.1072044174667406+0j)</t>
-  </si>
-  <si>
-    <t>(1.1114609341020605+0j)</t>
-  </si>
-  <si>
-    <t>(1.1150009060876152+0j)</t>
-  </si>
-  <si>
-    <t>(1.1173325335716098+0j)</t>
-  </si>
-  <si>
-    <t>(1.1187858787157734+0j)</t>
-  </si>
-  <si>
-    <t>(1.0824727406732395+0j)</t>
-  </si>
-  <si>
-    <t>(1.14705000816676+0j)</t>
-  </si>
-  <si>
-    <t>(1.1592069947177996+0j)</t>
-  </si>
-  <si>
-    <t>(1.1711619575361687+0j)</t>
-  </si>
-  <si>
-    <t>(1.1824190067378109+0j)</t>
-  </si>
-  <si>
-    <t>(1.1932987918574816+0j)</t>
-  </si>
-  <si>
-    <t>(1.2028596984462976+0j)</t>
-  </si>
-  <si>
-    <t>(1.2103519739644089+0j)</t>
-  </si>
-  <si>
-    <t>(1.2164439615230045+0j)</t>
-  </si>
-  <si>
-    <t>(1.2204634405444064+0j)</t>
-  </si>
-  <si>
-    <t>(1.2228668957297977+0j)</t>
-  </si>
-  <si>
-    <t>(1.1159976703731556+0j)</t>
-  </si>
-  <si>
-    <t>(1.2088535300641206+0j)</t>
-  </si>
-  <si>
-    <t>(1.2263273004967488+0j)</t>
-  </si>
-  <si>
-    <t>(1.243274754621666+0j)</t>
-  </si>
-  <si>
-    <t>(1.2590775866402786+0j)</t>
-  </si>
-  <si>
-    <t>(1.274143302628855+0j)</t>
-  </si>
-  <si>
-    <t>(1.2873005081714197+0j)</t>
-  </si>
-  <si>
-    <t>(1.2976216020606202+0j)</t>
-  </si>
-  <si>
-    <t>(1.3059443432947826+0j)</t>
-  </si>
-  <si>
-    <t>(1.3114379622639554+0j)</t>
-  </si>
-  <si>
-    <t>(1.3146722036946024+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443080594419291+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886152114020046+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780396044706739+0j)</t>
-  </si>
-  <si>
-    <t>(0.8686032893829112+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603185304821667+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531962501169338+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472460542921552+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424760514052446+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388927569156728+0j)</t>
-  </si>
-  <si>
-    <t>(0.8365011304061021+0j)</t>
-  </si>
-  <si>
-    <t>(0.8353044874920019+0j)</t>
-  </si>
-  <si>
-    <t>(1.0066720928909212+0j)</t>
-  </si>
-  <si>
-    <t>(1.006128466555881+0j)</t>
-  </si>
-  <si>
-    <t>(1.0060059674094324+0j)</t>
-  </si>
-  <si>
-    <t>(1.0064174039065947+0j)</t>
-  </si>
-  <si>
-    <t>(1.0071452766748266+0j)</t>
-  </si>
-  <si>
-    <t>(1.0083276895102826+0j)</t>
-  </si>
-  <si>
-    <t>(1.009544646571711+0j)</t>
-  </si>
-  <si>
-    <t>(1.0104563753156766+0j)</t>
-  </si>
-  <si>
-    <t>(1.0113577115862722+0j)</t>
-  </si>
-  <si>
-    <t>(1.0119422390303054+0j)</t>
-  </si>
-  <si>
-    <t>(1.0124135753898584+0j)</t>
-  </si>
-  <si>
-    <t>(1.0546952399955036+0j)</t>
-  </si>
-  <si>
-    <t>(1.095617141750435+0j)</t>
-  </si>
-  <si>
-    <t>(1.1033199667045794+0j)</t>
-  </si>
-  <si>
-    <t>(1.1110900786382336+0j)</t>
-  </si>
-  <si>
-    <t>(1.1185333338781906+0j)</t>
-  </si>
-  <si>
-    <t>(1.125900903615886+0j)</t>
-  </si>
-  <si>
-    <t>(1.132442036272824+0j)</t>
-  </si>
-  <si>
-    <t>(1.1375558675757642+0j)</t>
-  </si>
-  <si>
-    <t>(1.141771994087604+0j)</t>
-  </si>
-  <si>
-    <t>(1.144550987915543+0j)</t>
-  </si>
-  <si>
-    <t>(1.1462559878543315+0j)</t>
-  </si>
-  <si>
-    <t>(1.0954559355215556+0j)</t>
-  </si>
-  <si>
-    <t>(1.1710194493115516+0j)</t>
-  </si>
-  <si>
-    <t>(1.1852429777831823+0j)</t>
-  </si>
-  <si>
-    <t>(1.1991386756786968+0j)</t>
-  </si>
-  <si>
-    <t>(1.212163227517562+0j)</t>
-  </si>
-  <si>
-    <t>(1.224670547100929+0j)</t>
-  </si>
-  <si>
-    <t>(1.2356300181546702+0j)</t>
-  </si>
-  <si>
-    <t>(1.2442228338389187+0j)</t>
-  </si>
-  <si>
-    <t>(1.2511826926193927+0j)</t>
-  </si>
-  <si>
-    <t>(1.255775804648273+0j)</t>
-  </si>
-  <si>
-    <t>(1.258502433116481+0j)</t>
-  </si>
-  <si>
-    <t>(1.1315940668972901+0j)</t>
-  </si>
-  <si>
-    <t>(1.237511854326182+0j)</t>
-  </si>
-  <si>
-    <t>(1.2574387635543924+0j)</t>
-  </si>
-  <si>
-    <t>(1.276688843300664+0j)</t>
-  </si>
-  <si>
-    <t>(1.2945870192666025+0j)</t>
-  </si>
-  <si>
-    <t>(1.311582263410661+0j)</t>
-  </si>
-  <si>
-    <t>(1.3263964119977834+0j)</t>
-  </si>
-  <si>
-    <t>(1.3380196288902373+0j)</t>
-  </si>
-  <si>
-    <t>(1.3473692114947708+0j)</t>
-  </si>
-  <si>
-    <t>(1.3535410603389568+0j)</t>
-  </si>
-  <si>
-    <t>(1.357157876733849+0j)</t>
-  </si>
-  <si>
-    <t>(0.9443039814985562+0j)</t>
-  </si>
-  <si>
-    <t>(0.8886065165990872+0j)</t>
-  </si>
-  <si>
-    <t>(0.8780300758041979+0j)</t>
-  </si>
-  <si>
-    <t>(0.8685930987380437+0j)</t>
-  </si>
-  <si>
-    <t>(0.8603078338389825+0j)</t>
-  </si>
-  <si>
-    <t>(0.8531851776191017+0j)</t>
-  </si>
-  <si>
-    <t>(0.8472347239547715+0j)</t>
-  </si>
-  <si>
-    <t>(0.8424645656141125+0j)</t>
-  </si>
-  <si>
-    <t>(0.8388811796442288+0j)</t>
-  </si>
-  <si>
-    <t>(0.836489509558256+0j)</t>
-  </si>
-  <si>
-    <t>(0.8352928460096194+0j)</t>
-  </si>
-  <si>
-    <t>(1.0125079380038124+0j)</t>
-  </si>
-  <si>
-    <t>(1.0170457504989863+0j)</t>
-  </si>
-  <si>
-    <t>(1.01788350487156+0j)</t>
-  </si>
-  <si>
-    <t>(1.0191984484710297+0j)</t>
-  </si>
-  <si>
-    <t>(1.0207515531427211+0j)</t>
-  </si>
-  <si>
-    <t>(1.0226941440247146+0j)</t>
-  </si>
-  <si>
-    <t>(1.0245659470340358+0j)</t>
-  </si>
-  <si>
-    <t>(1.0259951633509896+0j)</t>
-  </si>
-  <si>
-    <t>(1.0273047778765605+0j)</t>
-  </si>
-  <si>
-    <t>(1.0281597793213135+0j)</t>
-  </si>
-  <si>
-    <t>(1.0287830316826914+0j)</t>
-  </si>
-  <si>
-    <t>(1.0642597970308483+0j)</t>
-  </si>
-  <si>
-    <t>(1.1133556370743245+0j)</t>
-  </si>
-  <si>
-    <t>(1.122598426744316+0j)</t>
-  </si>
-  <si>
-    <t>(1.1318156220827016+0j)</t>
-  </si>
-  <si>
-    <t>(1.1405779934118403+0j)</t>
-  </si>
-  <si>
-    <t>(1.1491602445091378+0j)</t>
-  </si>
-  <si>
-    <t>(1.1567459503366362+0j)</t>
-  </si>
-  <si>
-    <t>(1.162682910743821+0j)</t>
-  </si>
-  <si>
-    <t>(1.167548172078671+0j)</t>
-  </si>
-  <si>
-    <t>(1.1707565411837533+0j)</t>
-  </si>
-  <si>
-    <t>(1.1727031422900196+0j)</t>
-  </si>
-  <si>
-    <t>(1.1079343303553522+0j)</t>
-  </si>
-  <si>
-    <t>(1.194016996253211+0j)</t>
-  </si>
-  <si>
-    <t>(1.2102180530420292+0j)</t>
-  </si>
-  <si>
-    <t>(1.2259704681425063+0j)</t>
-  </si>
-  <si>
-    <t>(1.2406854136652805+0j)</t>
-  </si>
-  <si>
-    <t>(1.2547492018348054+0j)</t>
-  </si>
-  <si>
-    <t>(1.267045777563193+0j)</t>
-  </si>
-  <si>
-    <t>(1.2766902422337887+0j)</t>
-  </si>
-  <si>
-    <t>(1.284479373532984+0j)</t>
-  </si>
-  <si>
-    <t>(1.289620460239439+0j)</t>
-  </si>
-  <si>
-    <t>(1.2926559171759324+0j)</t>
-  </si>
-  <si>
-    <t>(1.1465493230874129+0j)</t>
-  </si>
-  <si>
-    <t>(1.2649410035643762+0j)</t>
-  </si>
-  <si>
-    <t>(1.2872091560894976+0j)</t>
-  </si>
-  <si>
-    <t>(1.3086563608968134+0j)</t>
-  </si>
-  <si>
-    <t>(1.3285532039579524+0j)</t>
-  </si>
-  <si>
-    <t>(1.3473889807105563+0j)</t>
-  </si>
-  <si>
-    <t>(1.3637832214870311+0j)</t>
-  </si>
-  <si>
-    <t>(1.3766475135079592+0j)</t>
-  </si>
-  <si>
-    <t>(1.3869757989336196+0j)</t>
-  </si>
-  <si>
-    <t>(1.3937939026038348+0j)</t>
-  </si>
-  <si>
-    <t>(1.3977754387251082+0j)</t>
+    <t>(0.9883549947385417+0.010907328967771454j)</t>
+  </si>
+  <si>
+    <t>(0.9777877942624654+0.02084956190039673j)</t>
+  </si>
+  <si>
+    <t>(0.968323210237443+0.02964102691627199j)</t>
+  </si>
+  <si>
+    <t>(0.959942373239222+0.03737450310760395j)</t>
+  </si>
+  <si>
+    <t>(0.9526512728290928+0.04415791717730268j)</t>
+  </si>
+  <si>
+    <t>(0.946468421664108+0.050058277374640456j)</t>
+  </si>
+  <si>
+    <t>(0.9414048919646667+0.055090023125539615j)</t>
+  </si>
+  <si>
+    <t>(0.9373951408283193+0.05912827396387856j)</t>
+  </si>
+  <si>
+    <t>(0.9344661663579416+0.062232966903781765j)</t>
+  </si>
+  <si>
+    <t>(0.9325294374253064+0.064305460619386j)</t>
+  </si>
+  <si>
+    <t>(0.9315711749477477+0.06534774429709979j)</t>
+  </si>
+  <si>
+    <t>(0.9882405240178581+0.011161357045589806j)</t>
+  </si>
+  <si>
+    <t>(0.9775074927689242+0.02135782748005043j)</t>
+  </si>
+  <si>
+    <t>(0.9677135231252149+0.03053443703338588j)</t>
+  </si>
+  <si>
+    <t>(0.9589264979337154+0.038703608133376435j)</t>
+  </si>
+  <si>
+    <t>(0.9512240901255863+0.045897096380759325j)</t>
+  </si>
+  <si>
+    <t>(0.9446600823756645+0.05214140487281668j)</t>
+  </si>
+  <si>
+    <t>(0.9392553273015724+0.05744270836245173j)</t>
+  </si>
+  <si>
+    <t>(0.9349368337010431+0.06171836950742454j)</t>
+  </si>
+  <si>
+    <t>(0.9317503043075277+0.0649998626244088j)</t>
+  </si>
+  <si>
+    <t>(0.9296282309311353+0.06719986265923676j)</t>
+  </si>
+  <si>
+    <t>(0.9285719393645677+0.06830847692471247j)</t>
+  </si>
+  <si>
+    <t>(0.9881500717468794+0.011230377465065493j)</t>
+  </si>
+  <si>
+    <t>(0.9773160955890113+0.0214907206969694j)</t>
+  </si>
+  <si>
+    <t>(0.9674098603953558+0.030768454592885984j)</t>
+  </si>
+  <si>
+    <t>(0.9585069706246355+0.03905227996529007j)</t>
+  </si>
+  <si>
+    <t>(0.9506881609028657+0.04634927417226771j)</t>
+  </si>
+  <si>
+    <t>(0.9440075490283981+0.05267173385646579j)</t>
+  </si>
+  <si>
+    <t>(0.938486973575557+0.058022796108055996j)</t>
+  </si>
+  <si>
+    <t>(0.9340664088631768+0.06234051789910005j)</t>
+  </si>
+  <si>
+    <t>(0.9307890568693825+0.06564498699627826j)</t>
+  </si>
+  <si>
+    <t>(0.9286031320606685+0.06786161070935229j)</t>
+  </si>
+  <si>
+    <t>(0.9275130699604409+0.06897829569320844j)</t>
+  </si>
+  <si>
+    <t>(0.9881220702000942+0.011179488873790212j)</t>
+  </si>
+  <si>
+    <t>(0.9772795678572319+0.02138961574081186j)</t>
+  </si>
+  <si>
+    <t>(0.967474011764912+0.030620233096102078j)</t>
+  </si>
+  <si>
+    <t>(0.9587245420684631+0.0388596935271771j)</t>
+  </si>
+  <si>
+    <t>(0.9510594956621011+0.04611283524522002j)</t>
+  </si>
+  <si>
+    <t>(0.944505403838074+0.052389468898985235j)</t>
+  </si>
+  <si>
+    <t>(0.9390782689156614+0.05769162110162029j)</t>
+  </si>
+  <si>
+    <t>(0.9347460213151899+0.061965173966308275j)</t>
+  </si>
+  <si>
+    <t>(0.9315327681813963+0.06522708090932827j)</t>
+  </si>
+  <si>
+    <t>(0.9293953711315149+0.067413259583107j)</t>
+  </si>
+  <si>
+    <t>(0.9283309779034233+0.06851344612289877j)</t>
+  </si>
+  <si>
+    <t>(0.988162139052805+0.011053909247395476j)</t>
+  </si>
+  <si>
+    <t>(0.9773999949543698+0.021149012480090046j)</t>
+  </si>
+  <si>
+    <t>(0.9678734719642501+0.030261882560939365j)</t>
+  </si>
+  <si>
+    <t>(0.9594967612353386+0.03838747444788142j)</t>
+  </si>
+  <si>
+    <t>(0.9522039563779354+0.04553641637148576j)</t>
+  </si>
+  <si>
+    <t>(0.9459730536943896+0.05172056570655262j)</t>
+  </si>
+  <si>
+    <t>(0.940809217265574+0.056941233505827984j)</t>
+  </si>
+  <si>
+    <t>(0.9367191836296554+0.061143591608812775j)</t>
+  </si>
+  <si>
+    <t>(0.9336956403732999+0.06434537124969147j)</t>
+  </si>
+  <si>
+    <t>(0.9316976893938885+0.06648862592800352j)</t>
+  </si>
+  <si>
+    <t>(0.9307070469055392+0.0675660010478606j)</t>
+  </si>
+  <si>
+    <t>(0.9883769053606897+0.01109375039776039j)</t>
+  </si>
+  <si>
+    <t>(0.9777906958707678+0.0212146139129931j)</t>
+  </si>
+  <si>
+    <t>(0.9682088345185417+0.030246715356423853j)</t>
+  </si>
+  <si>
+    <t>(0.959659473582513+0.038241160765777764j)</t>
+  </si>
+  <si>
+    <t>(0.9521854135009074+0.045265005811303105j)</t>
+  </si>
+  <si>
+    <t>(0.9458222101880027+0.051362826898695056j)</t>
+  </si>
+  <si>
+    <t>(0.9405857218821766+0.056544381080203404j)</t>
+  </si>
+  <si>
+    <t>(0.9364142383959075+0.06071165698475245j)</t>
+  </si>
+  <si>
+    <t>(0.9333420729031822+0.0639079183607931j)</t>
+  </si>
+  <si>
+    <t>(0.9313010288937734+0.06604572811488653j)</t>
+  </si>
+  <si>
+    <t>(0.9302867545603628+0.06712148929944137j)</t>
+  </si>
+  <si>
+    <t>(0.9892839027625062+0.010064899041089578j)</t>
+  </si>
+  <si>
+    <t>(0.9795556616648432+0.01920391201925469j)</t>
+  </si>
+  <si>
+    <t>(0.9706635889054619+0.02744956882823377j)</t>
+  </si>
+  <si>
+    <t>(0.9626898023326608+0.03478791943484742j)</t>
+  </si>
+  <si>
+    <t>(0.9557414473923682+0.04120450393709752j)</t>
+  </si>
+  <si>
+    <t>(0.9498934615147974+0.046692319200638634j)</t>
+  </si>
+  <si>
+    <t>(0.9451682373469052+0.05125177565355319j)</t>
+  </si>
+  <si>
+    <t>(0.9414204978752965+0.05489845916651419j)</t>
+  </si>
+  <si>
+    <t>(0.9387206559922717+0.05762651783655987j)</t>
+  </si>
+  <si>
+    <t>(0.9369319648917425+0.0594453936560187j)</t>
+  </si>
+  <si>
+    <t>(0.936048719691182+0.06035447012028843j)</t>
+  </si>
+  <si>
+    <t>(0.9901738242205925+0.009001653105924023j)</t>
+  </si>
+  <si>
+    <t>(0.9812980907805713+0.017122964598556573j)</t>
+  </si>
+  <si>
+    <t>(0.9731349593101933+0.024513978243632526j)</t>
+  </si>
+  <si>
+    <t>(0.9657980570843369+0.031114506826190103j)</t>
+  </si>
+  <si>
+    <t>(0.9594390660986831+0.03684647119184099j)</t>
+  </si>
+  <si>
+    <t>(0.9541621887161126+0.04166082035462119j)</t>
+  </si>
+  <si>
+    <t>(0.949994021733407+0.045550510286487114j)</t>
+  </si>
+  <si>
+    <t>(0.9467131757443679+0.04863406621729671j)</t>
+  </si>
+  <si>
+    <t>(0.9444198508705158+0.050863319169086436j)</t>
+  </si>
+  <si>
+    <t>(0.9429089128329434+0.05234087826170654j)</t>
+  </si>
+  <si>
+    <t>(0.9421702111183409+0.05307162131627639j)</t>
+  </si>
+  <si>
+    <t>(0.9910704902281763+0.007924934661095536j)</t>
+  </si>
+  <si>
+    <t>(0.9830624072832025+0.015016759442495559j)</t>
+  </si>
+  <si>
+    <t>(0.9756781643717868+0.021526633650644108j)</t>
+  </si>
+  <si>
+    <t>(0.9690446462806741+0.027356945136063626j)</t>
+  </si>
+  <si>
+    <t>(0.9633422183133322+0.03237518396212339j)</t>
+  </si>
+  <si>
+    <t>(0.9586963983301914+0.036495421497882485j)</t>
+  </si>
+  <si>
+    <t>(0.9551361814228306+0.039704065373852834j)</t>
+  </si>
+  <si>
+    <t>(0.9523690056570782+0.042214586178755086j)</t>
+  </si>
+  <si>
+    <t>(0.9505201028341085+0.04394065805509975j)</t>
+  </si>
+  <si>
+    <t>(0.949314612622753+0.04507342301706939j)</t>
+  </si>
+  <si>
+    <t>(0.9487351454046169+0.04562413994813041j)</t>
+  </si>
+  <si>
+    <t>(0.9919798560351929+0.006850723910445711j)</t>
+  </si>
+  <si>
+    <t>(0.9848578482158954+0.012918337995723337j)</t>
+  </si>
+  <si>
+    <t>(0.9782966526500745+0.018545922487663884j)</t>
+  </si>
+  <si>
+    <t>(0.9724226084599121+0.023602301760961366j)</t>
+  </si>
+  <si>
+    <t>(0.9674327999188396+0.027905425365553786j)</t>
+  </si>
+  <si>
+    <t>(0.9634680984841314+0.031335525475384526j)</t>
+  </si>
+  <si>
+    <t>(0.9605585751517521+0.03387290529644436j)</t>
+  </si>
+  <si>
+    <t>(0.9583440564317312+0.03581920790938659j)</t>
+  </si>
+  <si>
+    <t>(0.9569712809703752+0.037052841876633186j)</t>
+  </si>
+  <si>
+    <t>(0.9560943039037134+0.03784817982254386j)</t>
+  </si>
+  <si>
+    <t>(0.9556862944242535+0.03822288303658241j)</t>
+  </si>
+  <si>
+    <t>(0.9883900514714018+0.011224219605510254j)</t>
+  </si>
+  <si>
+    <t>(0.9777892063904652+0.021464511729081353j)</t>
+  </si>
+  <si>
+    <t>(0.9681306818232254+0.030646487690376187j)</t>
+  </si>
+  <si>
+    <t>(0.959471840146646+0.03879822370013422j)</t>
+  </si>
+  <si>
+    <t>(0.9518777339485432+0.0459627158018837j)</t>
+  </si>
+  <si>
+    <t>(0.9453939174471714+0.052170721850590004j)</t>
+  </si>
+  <si>
+    <t>(0.9400391472874673+0.05742916749045168j)</t>
+  </si>
+  <si>
+    <t>(0.9357568717473463+0.061660492120344614j)</t>
+  </si>
+  <si>
+    <t>(0.9325850909537807+0.06489679682526499j)</t>
+  </si>
+  <si>
+    <t>(0.9304715141310023+0.06706278563464434j)</t>
+  </si>
+  <si>
+    <t>(0.9294182033574533+0.0681524980552435j)</t>
+  </si>
+  <si>
+    <t>(0.9903111477811204+0.009013514623433916j)</t>
+  </si>
+  <si>
+    <t>(0.9815694365893448+0.017141023867587278j)</t>
+  </si>
+  <si>
+    <t>(0.9735526587983679+0.02450897012022426j)</t>
+  </si>
+  <si>
+    <t>(0.9663620466647713+0.031071676253558046j)</t>
+  </si>
+  <si>
+    <t>(0.9601383944082253+0.03676446894664495j)</t>
+  </si>
+  <si>
+    <t>(0.954979979336233+0.041545164250856886j)</t>
+  </si>
+  <si>
+    <t>(0.9509114355261936+0.045408006422692604j)</t>
+  </si>
+  <si>
+    <t>(0.9477143703492331+0.04846538192393709j)</t>
+  </si>
+  <si>
+    <t>(0.9454852432999578+0.050673641048373276j)</t>
+  </si>
+  <si>
+    <t>(0.944018616879301+0.05213517366984921j)</t>
+  </si>
+  <si>
+    <t>(0.9433025316217146+0.052857243246572254j)</t>
+  </si>
+  <si>
+    <t>(0.992202074841853+0.006916384433471231j)</t>
+  </si>
+  <si>
+    <t>(0.98528041503735+0.013041499675304985j)</t>
+  </si>
+  <si>
+    <t>(0.9788336273236284+0.01869669012503944j)</t>
+  </si>
+  <si>
+    <t>(0.9730243714992699+0.02376357890224859j)</t>
+  </si>
+  <si>
+    <t>(0.9680844348276598+0.028072986883695476j)</t>
+  </si>
+  <si>
+    <t>(0.9641726959195933+0.03151251722502102j)</t>
+  </si>
+  <si>
+    <t>(0.961321903189077+0.03406430646937215j)</t>
+  </si>
+  <si>
+    <t>(0.9591483132791043+0.03602068802634143j)</t>
+  </si>
+  <si>
+    <t>(0.9578116709738347+0.037265720448150755j)</t>
+  </si>
+  <si>
+    <t>(0.9569558325720667+0.03806801111850398j)</t>
+  </si>
+  <si>
+    <t>(0.9565579205863197+0.03844630917932782j)</t>
+  </si>
+  <si>
+    <t>(0.994063411591461+0.00491631848510754j)</t>
+  </si>
+  <si>
+    <t>(0.9889263411760607+0.009131626318365475j)</t>
+  </si>
+  <si>
+    <t>(0.9839912629051886+0.013151225283533803j)</t>
+  </si>
+  <si>
+    <t>(0.9794948062576814+0.016788784633117625j)</t>
+  </si>
+  <si>
+    <t>(0.9757705938691935+0.019776852374255798j)</t>
+  </si>
+  <si>
+    <t>(0.9730436533204856+0.021936992852676855j)</t>
+  </si>
+  <si>
+    <t>(0.9713564002478551+0.023240143541024785j)</t>
+  </si>
+  <si>
+    <t>(0.9701576046520256+0.024148626183904832j)</t>
+  </si>
+  <si>
+    <t>(0.9696736179880864+0.02447837434679961j)</t>
+  </si>
+  <si>
+    <t>(0.9693999273680448+0.02465451796867599j)</t>
+  </si>
+  <si>
+    <t>(0.9693050920138364+0.02470647987734077j)</t>
+  </si>
+  <si>
+    <t>(0.9958945662096443+0.003001759528679526j)</t>
+  </si>
+  <si>
+    <t>(0.9925081760375971+0.005388190394574289j)</t>
+  </si>
+  <si>
+    <t>(0.989035889688331+0.007836096437711255j)</t>
+  </si>
+  <si>
+    <t>(0.9857969033135094+0.010097112215605773j)</t>
+  </si>
+  <si>
+    <t>(0.9832339573557909+0.011812648564461327j)</t>
+  </si>
+  <si>
+    <t>(0.981641883439184+0.01274277312358831j)</t>
+  </si>
+  <si>
+    <t>(0.9810738079848477+0.012848200757737746j)</t>
+  </si>
+  <si>
+    <t>(0.9808102489999035+0.012751688658575792j)</t>
+  </si>
+  <si>
+    <t>(0.9811462278468116+0.012205304564081637j)</t>
+  </si>
+  <si>
+    <t>(0.9814312986345067+0.01178213251831887j)</t>
+  </si>
+  <si>
+    <t>(0.9816272174896994+0.011521868794536625j)</t>
+  </si>
+  <si>
+    <t>(0.9883983498013797+0.01130805101752887j)</t>
+  </si>
+  <si>
+    <t>(0.9777889657034842+0.021619617683034657j)</t>
+  </si>
+  <si>
+    <t>(0.9680921904116817+0.03088181526418575j)</t>
+  </si>
+  <si>
+    <t>(0.9593785362408269+0.039112753008683596j)</t>
+  </si>
+  <si>
+    <t>(0.9517219457550955+0.04634315362302386j)</t>
+  </si>
+  <si>
+    <t>(0.94517141554248+0.052595957853884344j)</t>
+  </si>
+  <si>
+    <t>(0.9397468832089562+0.05787650058844694j)</t>
+  </si>
+  <si>
+    <t>(0.9353989243631234+0.062123230602602324j)</t>
+  </si>
+  <si>
+    <t>(0.9321656624008681+0.06536090245302204j)</t>
+  </si>
+  <si>
+    <t>(0.9300073918365563+0.06752725576710603j)</t>
+  </si>
+  <si>
+    <t>(0.9289298941051495+0.06861629884281147j)</t>
+  </si>
+  <si>
+    <t>(0.9913244646184431+0.008001258033036304j)</t>
+  </si>
+  <si>
+    <t>(0.9835534105595498+0.015156814186148655j)</t>
+  </si>
+  <si>
+    <t>(0.9763882428288626+0.02169148665495009j)</t>
+  </si>
+  <si>
+    <t>(0.9699538295409141+0.027523962893159785j)</t>
+  </si>
+  <si>
+    <t>(0.9644284971537881+0.03253656590179358j)</t>
+  </si>
+  <si>
+    <t>(0.9599358834080576+0.036650842832120493j)</t>
+  </si>
+  <si>
+    <t>(0.9565034877067344+0.03985461755142587j)</t>
+  </si>
+  <si>
+    <t>(0.953838988642106+0.0423555339649081j)</t>
+  </si>
+  <si>
+    <t>(0.9520661253112153+0.04407198652686638j)</t>
+  </si>
+  <si>
+    <t>(0.9509112956843796+0.04519593037008344j)</t>
+  </si>
+  <si>
+    <t>(0.950357018031285+0.045741403029168154j)</t>
+  </si>
+  <si>
+    <t>(0.9942243180531867+0.004955448306272206j)</t>
+  </si>
+  <si>
+    <t>(0.9892435519118831+0.009207122095127218j)</t>
+  </si>
+  <si>
+    <t>(0.9844803150484187+0.013252799464594225j)</t>
+  </si>
+  <si>
+    <t>(0.9801562282821925+0.016909576814389166j)</t>
+  </si>
+  <si>
+    <t>(0.9765913684447107+0.019913524106034725j)</t>
+  </si>
+  <si>
+    <t>(0.9740033470484369+0.022087935228422596j)</t>
+  </si>
+  <si>
+    <t>(0.972432291768249+0.023403777703030062j)</t>
+  </si>
+  <si>
+    <t>(0.9713315769219796+0.02432102863035883j)</t>
+  </si>
+  <si>
+    <t>(0.9709226691615667+0.02465685972739143j)</t>
+  </si>
+  <si>
+    <t>(0.9707010261178374+0.02483635865758855j)</t>
+  </si>
+  <si>
+    <t>(0.9706328219734583+0.024889747121073516j)</t>
+  </si>
+  <si>
+    <t>(0.9970694691309748+0.00212062599170503j)</t>
+  </si>
+  <si>
+    <t>(0.9948103284755454+0.003667676156868105j)</t>
+  </si>
+  <si>
+    <t>(0.9923246908498089+0.005394027934869831j)</t>
+  </si>
+  <si>
+    <t>(0.9899611086855818+0.007022864169356326j)</t>
+  </si>
+  <si>
+    <t>(0.9882075215967943+0.00815420872917884j)</t>
+  </si>
+  <si>
+    <t>(0.9873887594536943+0.008520006358259561j)</t>
+  </si>
+  <si>
+    <t>(0.9875610485959244+0.00807591208628194j)</t>
+  </si>
+  <si>
+    <t>(0.9879175781751652+0.00751754157071945j)</t>
+  </si>
+  <si>
+    <t>(0.9887854234463473+0.0065677825910466486j)</t>
+  </si>
+  <si>
+    <t>(0.9894340271463942+0.005868254639349173j)</t>
+  </si>
+  <si>
+    <t>(0.9898186515817583+0.005463833326396105j)</t>
+  </si>
+  <si>
+    <t>(0.9998483696973509-0.000541625271731658j)</t>
+  </si>
+  <si>
+    <t>(1.0002360846506024-0.0015382830981779817j)</t>
+  </si>
+  <si>
+    <t>(0.9999171721315522-0.002003734852363597j)</t>
+  </si>
+  <si>
+    <t>(0.9993877457226483-0.002297767951408913j)</t>
+  </si>
+  <si>
+    <t>(0.999321026643875-0.0029438052427748075j)</t>
+  </si>
+  <si>
+    <t>(1.0001576912035617-0.004293405390960567j)</t>
+  </si>
+  <si>
+    <t>(1.0019723656000794-0.0064044784074212165j)</t>
+  </si>
+  <si>
+    <t>(1.0036959454262175-0.008361115185898117j)</t>
+  </si>
+  <si>
+    <t>(1.00576589494676-0.010527607900244597j)</t>
+  </si>
+  <si>
+    <t>(1.0072312695968595-0.012059253388026714j)</t>
+  </si>
+  <si>
+    <t>(1.0080405127914709-0.012896977877416664j)</t>
+  </si>
+  <si>
+    <t>(0.9884045378043993+0.011352236999297705j)</t>
+  </si>
+  <si>
+    <t>(0.9777936620283882+0.021694947797192367j)</t>
+  </si>
+  <si>
+    <t>(0.9680938649633481+0.030982489133892552j)</t>
+  </si>
+  <si>
+    <t>(0.9593746982354124+0.03923228473075695j)</t>
+  </si>
+  <si>
+    <t>(0.9517071529018304+0.04647113538642962j)</t>
+  </si>
+  <si>
+    <t>(0.9451378257599897+0.05271837396753376j)</t>
+  </si>
+  <si>
+    <t>(0.9396863258622316+0.05797857366602372j)</t>
+  </si>
+  <si>
+    <t>(0.9353123980623377+0.06220318085992678j)</t>
+  </si>
+  <si>
+    <t>(0.9320510373438425+0.06541223777110046j)</t>
+  </si>
+  <si>
+    <t>(0.929872446619885+0.06755745006252409j)</t>
+  </si>
+  <si>
+    <t>(0.9287837533684089+0.068634520683371j)</t>
+  </si>
+  <si>
+    <t>(0.9923255909340377+0.007023834532926703j)</t>
+  </si>
+  <si>
+    <t>(0.9855112570297156+0.013242375838023913j)</t>
+  </si>
+  <si>
+    <t>(0.9791766531538658+0.01898191895501976j)</t>
+  </si>
+  <si>
+    <t>(0.9734743763316237+0.024122621719606215j)</t>
+  </si>
+  <si>
+    <t>(0.968623802917591+0.02849185313153681j)</t>
+  </si>
+  <si>
+    <t>(0.9647757518529597+0.03197420509953405j)</t>
+  </si>
+  <si>
+    <t>(0.9619611362006479+0.03455092465824802j)</t>
+  </si>
+  <si>
+    <t>(0.9598129668321533+0.03652331350807495j)</t>
+  </si>
+  <si>
+    <t>(0.9584833670286528+0.03777185894072449j)</t>
+  </si>
+  <si>
+    <t>(0.9576310820429694+0.038575045480885875j)</t>
+  </si>
+  <si>
+    <t>(0.9572337813888607+0.03895278924154841j)</t>
+  </si>
+  <si>
+    <t>(0.9962342921225051+0.003103181841131412j)</t>
+  </si>
+  <si>
+    <t>(0.9931762043767367+0.0055879908158081035j)</t>
+  </si>
+  <si>
+    <t>(0.9900614853422705+0.008131414839463691j)</t>
+  </si>
+  <si>
+    <t>(0.9871794904255168+0.010481703437176526j)</t>
+  </si>
+  <si>
+    <t>(0.9849457521113811+0.012278053820266739j)</t>
+  </si>
+  <si>
+    <t>(0.9836401289129141+0.013279159282806072j)</t>
+  </si>
+  <si>
+    <t>(0.9833111935704952+0.013444657158772303j)</t>
+  </si>
+  <si>
+    <t>(0.9832492789154055+0.013396476114370318j)</t>
+  </si>
+  <si>
+    <t>(0.9837393975810992+0.012886015072133748j)</t>
+  </si>
+  <si>
+    <t>(0.9841313107925304+0.012486638047218513j)</t>
+  </si>
+  <si>
+    <t>(0.9843818902337446+0.012238146831622866j)</t>
+  </si>
+  <si>
+    <t>(1.0000694988725984-0.0004906760790307381j)</t>
+  </si>
+  <si>
+    <t>(1.0006773748864475-0.0014322793058635067j)</t>
+  </si>
+  <si>
+    <t>(1.0006252620560898-0.001830437041559775j)</t>
+  </si>
+  <si>
+    <t>(1.0003757764360033-0.002053477631679876j)</t>
+  </si>
+  <si>
+    <t>(1.000572060601468-0.0026314892950884696j)</t>
+  </si>
+  <si>
+    <t>(1.0016388838141759-0.003919531706255868j)</t>
+  </si>
+  <si>
+    <t>(1.0036466332243177-0.0059770154480196375j)</t>
+  </si>
+  <si>
+    <t>(1.005536576659396-0.007888122951545926j)</t>
+  </si>
+  <si>
+    <t>(1.007735912217459-0.010018971148756488j)</t>
+  </si>
+  <si>
+    <t>(1.0092923385304489-0.011526044051440459j)</t>
+  </si>
+  <si>
+    <t>(1.0101486877025108-0.012351217307356213j)</t>
+  </si>
+  <si>
+    <t>(1.0038059648850337-0.0038226722472430607j)</t>
+  </si>
+  <si>
+    <t>(1.007971640518762-0.00794702429145549j)</t>
+  </si>
+  <si>
+    <t>(1.0108334551504252-0.011095956326490644j)</t>
+  </si>
+  <si>
+    <t>(1.0130512189784944-0.013736779354393895j)</t>
+  </si>
+  <si>
+    <t>(1.015515503833061-0.016548945256142467j)</t>
+  </si>
+  <si>
+    <t>(1.018805629741413-0.019989075644051377j)</t>
+  </si>
+  <si>
+    <t>(1.0230164295204347-0.024133019468799508j)</t>
+  </si>
+  <si>
+    <t>(1.0267394028666719-0.027794174388930185j)</t>
+  </si>
+  <si>
+    <t>(1.0305489393879401-0.0314453401135121j)</t>
+  </si>
+  <si>
+    <t>(1.0331991997993282-0.03399225283247302j)</t>
+  </si>
+  <si>
+    <t>(1.034624048472111-0.03535877035015841j)</t>
+  </si>
+  <si>
+    <t>(0.9884106140872974+0.011362217198131987j)</t>
+  </si>
+  <si>
+    <t>(0.977805869636275+0.02170199754555759j)</t>
+  </si>
+  <si>
+    <t>(0.9681350965502911+0.030970599036905157j)</t>
+  </si>
+  <si>
+    <t>(0.9594545853432973+0.03919146794918797j)</t>
+  </si>
+  <si>
+    <t>(0.9518220162984645+0.04639348839672019j)</t>
+  </si>
+  <si>
+    <t>(0.9452764697976697+0.05259537107510319j)</t>
+  </si>
+  <si>
+    <t>(0.9398359168819412+0.057801480270767196j)</t>
+  </si>
+  <si>
+    <t>(0.9354711441520847+0.061974239309562223j)</t>
+  </si>
+  <si>
+    <t>(0.9322111458206198+0.06513080114943884j)</t>
+  </si>
+  <si>
+    <t>(0.93003373693654+0.06723779054512015j)</t>
+  </si>
+  <si>
+    <t>(0.9289453043662482+0.06829391097978893j)</t>
+  </si>
+  <si>
+    <t>(0.9933158463013007+0.006077991078674064j)</t>
+  </si>
+  <si>
+    <t>(0.9874458022106593+0.0113909823772924j)</t>
+  </si>
+  <si>
+    <t>(0.9819229265975523+0.016368891794925435j)</t>
+  </si>
+  <si>
+    <t>(0.9769312262873133+0.020851170263534113j)</t>
+  </si>
+  <si>
+    <t>(0.9727342879146526+0.024608868674258308j)</t>
+  </si>
+  <si>
+    <t>(0.9695117393846208+0.02748921232168695j)</t>
+  </si>
+  <si>
+    <t>(0.9672983892686408+0.02946678004038878j)</t>
+  </si>
+  <si>
+    <t>(0.9656519316475309+0.03093492193829197j)</t>
+  </si>
+  <si>
+    <t>(0.9647538537271819+0.03173640037616998j)</t>
+  </si>
+  <si>
+    <t>(0.9641957492099713+0.032233477501198204j)</t>
+  </si>
+  <si>
+    <t>(0.9639510533850283+0.032451207202717186j)</t>
+  </si>
+  <si>
+    <t>(0.9982282949559106+0.0013468481382855697j)</t>
+  </si>
+  <si>
+    <t>(0.997071948134266+0.002158372558643628j)</t>
+  </si>
+  <si>
+    <t>(0.9955703993781452+0.0032919886088639385j)</t>
+  </si>
+  <si>
+    <t>(0.9940884527477271+0.004424157856879062j)</t>
+  </si>
+  <si>
+    <t>(0.993143338584618+0.005096101088359204j)</t>
+  </si>
+  <si>
+    <t>(0.9930801915837463+0.005002051199219946j)</t>
+  </si>
+  <si>
+    <t>(0.9939569526448073+0.0040902765827128375j)</t>
+  </si>
+  <si>
+    <t>(0.9949010356231094+0.003139405512651834j)</t>
+  </si>
+  <si>
+    <t>(0.9962625175973574+0.0018362951598619906j)</t>
+  </si>
+  <si>
+    <t>(0.9972481625330979+0.0008954209024656175j)</t>
+  </si>
+  <si>
+    <t>(0.9978070435444277+0.0003646414790938821j)</t>
+  </si>
+  <si>
+    <t>(1.0030518999340536-0.0029413046955832542j)</t>
+  </si>
+  <si>
+    <t>(1.0065053078286346-0.006215597805696211j)</t>
+  </si>
+  <si>
+    <t>(1.0088614900847703-0.008592682431774716j)</t>
+  </si>
+  <si>
+    <t>(1.0106991341743727-0.010532877849034788j)</t>
+  </si>
+  <si>
+    <t>(1.0128173102450264-0.012693998902754931j)</t>
+  </si>
+  <si>
+    <t>(1.0157407550354645-0.015515714114650678j)</t>
+  </si>
+  <si>
+    <t>(1.0195543278263113-0.019072262774011438j)</t>
+  </si>
+  <si>
+    <t>(1.0229512427470293-0.022238813412805324j)</t>
+  </si>
+  <si>
+    <t>(1.0264581155204304-0.025466954134294915j)</t>
+  </si>
+  <si>
+    <t>(1.0289054464563363-0.027723623184798506j)</t>
+  </si>
+  <si>
+    <t>(1.0302245348429535-0.028939260097563053j)</t>
+  </si>
+  <si>
+    <t>(1.0077460685122541-0.006877614512603096j)</t>
+  </si>
+  <si>
+    <t>(1.0156727520245858-0.013909944332345107j)</t>
+  </si>
+  <si>
+    <t>(1.0217194824059177-0.019543703271177992j)</t>
+  </si>
+  <si>
+    <t>(1.0266986743504103-0.02435094291071038j)</t>
+  </si>
+  <si>
+    <t>(1.0317068731210743-0.02916026624204945j)</t>
+  </si>
+  <si>
+    <t>(1.0374556930943906-0.034528144691485664j)</t>
+  </si>
+  <si>
+    <t>(1.044059094758706-0.04054785014330152j)</t>
+  </si>
+  <si>
+    <t>(1.049779232995219-0.04578047633276485j)</t>
+  </si>
+  <si>
+    <t>(1.0553223521040698-0.05080099241145473j)</t>
+  </si>
+  <si>
+    <t>(1.0591539519371884-0.05428381000482175j)</t>
+  </si>
+  <si>
+    <t>(1.0611924680227662-0.05613771017166315j)</t>
+  </si>
+  <si>
+    <t>(0.9884180744184305+0.01134233652744067j)</t>
+  </si>
+  <si>
+    <t>(0.9778274523656335+0.02164982828240885j)</t>
+  </si>
+  <si>
+    <t>(0.9682149029458784+0.03086301147833957j)</t>
+  </si>
+  <si>
+    <t>(0.9596127187428262+0.039016286176529795j)</t>
+  </si>
+  <si>
+    <t>(0.952056221390549+0.04614500496983649j)</t>
+  </si>
+  <si>
+    <t>(0.9455725125663282+0.05226940054122641j)</t>
+  </si>
+  <si>
+    <t>(0.9401767918483666+0.057393994361573046j)</t>
+  </si>
+  <si>
+    <t>(0.9358525105139307+0.061490840779413136j)</t>
+  </si>
+  <si>
+    <t>(0.9326201571380601+0.06457547032884188j)</t>
+  </si>
+  <si>
+    <t>(0.930463098163316+0.06663037036112768j)</t>
+  </si>
+  <si>
+    <t>(0.9293851366561867+0.06765825316454548j)</t>
+  </si>
+  <si>
+    <t>(0.9942962207264813+0.005161159412116555j)</t>
+  </si>
+  <si>
+    <t>(0.9893591924093745+0.009597342964226622j)</t>
+  </si>
+  <si>
+    <t>(0.9846310032830851+0.013843559021799975j)</t>
+  </si>
+  <si>
+    <t>(0.9803303860854264+0.017696890665059282j)</t>
+  </si>
+  <si>
+    <t>(0.9767679796547982+0.020871121941511604j)</t>
+  </si>
+  <si>
+    <t>(0.9741536776320067+0.023175890542162833j)</t>
+  </si>
+  <si>
+    <t>(0.9725266099520858+0.024579059748557442j)</t>
+  </si>
+  <si>
+    <t>(0.9713685919102539+0.025564438657705895j)</t>
+  </si>
+  <si>
+    <t>(0.9708913436006122+0.025937332440434235j)</t>
+  </si>
+  <si>
+    <t>(0.970619799462946+0.026141266752159293j)</t>
+  </si>
+  <si>
+    <t>(0.9705237217111855+0.02620580869210545j)</t>
+  </si>
+  <si>
+    <t>(1.0002041685405754-0.0003239332517896197j)</t>
+  </si>
+  <si>
+    <t>(1.0009272445164892-0.0011026086612834797j)</t>
+  </si>
+  <si>
+    <t>(1.00100413509348-0.0012980042305365514j)</t>
+  </si>
+  <si>
+    <t>(1.0008818942155455-0.0013074293596267773j)</t>
+  </si>
+  <si>
+    <t>(1.001184902731939-0.001688058657137361j)</t>
+  </si>
+  <si>
+    <t>(1.0023261903473353-0.002809702570332435j)</t>
+  </si>
+  <si>
+    <t>(1.0043738687971198-0.00473542042632306j)</t>
+  </si>
+  <si>
+    <t>(1.006292763638519-0.0065347354730683985j)</t>
+  </si>
+  <si>
+    <t>(1.0084992821084175-0.008584052020316387j)</t>
+  </si>
+  <si>
+    <t>(1.01005983821885-0.010034114564917035j)</t>
+  </si>
+  <si>
+    <t>(1.0109170774095813-0.01083025622863595j)</t>
+  </si>
+  <si>
+    <t>(1.006009720914352-0.005250688883408083j)</t>
+  </si>
+  <si>
+    <t>(1.0122810153209352-0.010720970362009167j)</t>
+  </si>
+  <si>
+    <t>(1.0170150639923234-0.014950143768979938j)</t>
+  </si>
+  <si>
+    <t>(1.020908468199121-0.018490601942291192j)</t>
+  </si>
+  <si>
+    <t>(1.0249168087789187-0.02212554261146153j)</t>
+  </si>
+  <si>
+    <t>(1.029664739682369-0.02637702791179003j)</t>
+  </si>
+  <si>
+    <t>(1.0352518680145775-0.03133387595216261j)</t>
+  </si>
+  <si>
+    <t>(1.0401272412225284-0.03567194829277663j)</t>
+  </si>
+  <si>
+    <t>(1.0449161385317134-0.039925168901659994j)</t>
+  </si>
+  <si>
+    <t>(1.0482364231651176-0.04288154094180097j)</t>
+  </si>
+  <si>
+    <t>(1.050008748385575-0.044461577993127756j)</t>
+  </si>
+  <si>
+    <t>(1.0116559961656537-0.009736092620796897j)</t>
+  </si>
+  <si>
+    <t>(1.0233143804134495-0.019485802377147768j)</t>
+  </si>
+  <si>
+    <t>(1.032535786795227-0.027431609004747025j)</t>
+  </si>
+  <si>
+    <t>(1.0402757906276463-0.03424820370334401j)</t>
+  </si>
+  <si>
+    <t>(1.047826976348029-0.04090777586003982j)</t>
+  </si>
+  <si>
+    <t>(1.0560276380644165-0.04806237708493716j)</t>
+  </si>
+  <si>
+    <t>(1.0650099538652085-0.05582229216718186j)</t>
+  </si>
+  <si>
+    <t>(1.0727163085628335-0.06251166934152289j)</t>
+  </si>
+  <si>
+    <t>(1.0799801851044084-0.06880240212658419j)</t>
+  </si>
+  <si>
+    <t>(1.084984789997438-0.07315291042793559j)</t>
+  </si>
+  <si>
+    <t>(1.0876325568683127-0.07545861954104234j)</t>
+  </si>
+  <si>
+    <t>(0.9884280565705293+0.011296135241094034j)</t>
+  </si>
+  <si>
+    <t>(0.9778597883510464+0.021545747431492318j)</t>
+  </si>
+  <si>
+    <t>(0.9683322288471908+0.030672944054892532j)</t>
+  </si>
+  <si>
+    <t>(0.9598442434601718+0.03872675721275613j)</t>
+  </si>
+  <si>
+    <t>(0.9524008584460018+0.04575225404775604j)</t>
+  </si>
+  <si>
+    <t>(0.9460132944436963+0.05177274563073339j)</t>
+  </si>
+  <si>
+    <t>(0.9406929949126172+0.056793148791281355j)</t>
+  </si>
+  <si>
+    <t>(0.9364374435954492+0.06079425971985285j)</t>
+  </si>
+  <si>
+    <t>(0.9332564445636515+0.0637908686997741j)</t>
+  </si>
+  <si>
+    <t>(0.9311370110137687+0.0657822315533501j)</t>
+  </si>
+  <si>
+    <t>(0.9300787216060018+0.0667758610587455j)</t>
+  </si>
+  <si>
+    <t>(0.9952674554070218+0.004271241406629748j)</t>
+  </si>
+  <si>
+    <t>(0.9912530540193121+0.007857151423245005j)</t>
+  </si>
+  <si>
+    <t>(0.9873039472670879+0.01139880435434473j)</t>
+  </si>
+  <si>
+    <t>(0.9836765987928534+0.014649635767085441j)</t>
+  </si>
+  <si>
+    <t>(0.9807312689265529+0.01726551516915813j)</t>
+  </si>
+  <si>
+    <t>(0.9787094280164715+0.0190184061057295j)</t>
+  </si>
+  <si>
+    <t>(0.9776549069050291+0.019869439448691815j)</t>
+  </si>
+  <si>
+    <t>(0.9769731575370967+0.020391330869355132j)</t>
+  </si>
+  <si>
+    <t>(0.9769069074463549+0.02035225067399158j)</t>
+  </si>
+  <si>
+    <t>(0.976914916154547+0.02027467579852127j)</t>
+  </si>
+  <si>
+    <t>(0.9769637877580185+0.020192151536679918j)</t>
+  </si>
+  <si>
+    <t>(1.0021606879854854-0.0019176819539238384j)</t>
+  </si>
+  <si>
+    <t>(1.0047402624693471-0.004212027609085768j)</t>
+  </si>
+  <si>
+    <t>(1.0063618869717508-0.005664932365576119j)</t>
+  </si>
+  <si>
+    <t>(1.007560901538576-0.00674877848012219j)</t>
+  </si>
+  <si>
+    <t>(1.0090736332029444-0.008119085991894995j)</t>
+  </si>
+  <si>
+    <t>(1.0113832866400492-0.010209112819392574j)</t>
+  </si>
+  <si>
+    <t>(1.0145688473571046-0.013093151881383113j)</t>
+  </si>
+  <si>
+    <t>(1.017433033579223-0.015693370183514983j)</t>
+  </si>
+  <si>
+    <t>(1.0204596437509186-0.018448143406670253j)</t>
+  </si>
+  <si>
+    <t>(1.022577313739403-0.02037908820304812j)</t>
+  </si>
+  <si>
+    <t>(1.0237235141160481-0.021425770016791926j)</t>
+  </si>
+  <si>
+    <t>(1.0089388663681242-0.00743470453276604j)</t>
+  </si>
+  <si>
+    <t>(1.0179969176432193-0.01497994802125946j)</t>
+  </si>
+  <si>
+    <t>(1.0250756574780804-0.020949544720574507j)</t>
+  </si>
+  <si>
+    <t>(1.030991275672179-0.025987753009376228j)</t>
+  </si>
+  <si>
+    <t>(1.036856326751037-0.031000859984605337j)</t>
+  </si>
+  <si>
+    <t>(1.0433952743451245-0.03659125625811407j)</t>
+  </si>
+  <si>
+    <t>(1.0507227172752338-0.04286208104348601j)</t>
+  </si>
+  <si>
+    <t>(1.0570473480382616-0.048298429888436904j)</t>
+  </si>
+  <si>
+    <t>(1.0630923369382272-0.05351374406395328j)</t>
+  </si>
+  <si>
+    <t>(1.0672673727996012-0.057126336847662634j)</t>
+  </si>
+  <si>
+    <t>(1.06948331953903-0.059048070196579074j)</t>
+  </si>
+  <si>
+    <t>(1.015528326354509-0.012422169188550764j)</t>
+  </si>
+  <si>
+    <t>(1.0308819100231108-0.024722252513102023j)</t>
+  </si>
+  <si>
+    <t>(1.0432587914755371-0.03482849187612946j)</t>
+  </si>
+  <si>
+    <t>(1.0537495404499748-0.043516549931269875j)</t>
+  </si>
+  <si>
+    <t>(1.0638340161794-0.05189756174193871j)</t>
+  </si>
+  <si>
+    <t>(1.0744721919437514-0.060715567042765255j)</t>
+  </si>
+  <si>
+    <t>(1.0858136848250528-0.07009752152971134j)</t>
+  </si>
+  <si>
+    <t>(1.0954901088222513-0.07814369731425731j)</t>
+  </si>
+  <si>
+    <t>(1.1044579861960186-0.08561847226350454j)</t>
+  </si>
+  <si>
+    <t>(1.110624487298292-0.09077738305963327j)</t>
+  </si>
+  <si>
+    <t>(1.113875657096013-0.09350399598105662j)</t>
+  </si>
+  <si>
+    <t>(0.9884414364143412+0.011226543870218635j)</t>
+  </si>
+  <si>
+    <t>(0.9779039087508421+0.021395757054191j)</t>
+  </si>
+  <si>
+    <t>(0.968486060839811+0.030410994021657083j)</t>
+  </si>
+  <si>
+    <t>(0.9601449802767582+0.038338690734443306j)</t>
+  </si>
+  <si>
+    <t>(0.9528483843891009+0.04523605523636987j)</t>
+  </si>
+  <si>
+    <t>(0.9465881780582618+0.051130614229442053j)</t>
+  </si>
+  <si>
+    <t>(0.9413711875589785+0.056027828780166135j)</t>
+  </si>
+  <si>
+    <t>(0.93721006692033+0.05991665760848873j)</t>
+  </si>
+  <si>
+    <t>(0.9341020343365064+0.06281176294234794j)</t>
+  </si>
+  <si>
+    <t>(0.9320359577996403+0.06473001828744546j)</t>
+  </si>
+  <si>
+    <t>(0.9310057184574608+0.06568436645334777j)</t>
+  </si>
+  <si>
+    <t>(0.9962301061673643+0.003406475108204664j)</t>
+  </si>
+  <si>
+    <t>(0.993128622247759+0.006166803797644476j)</t>
+  </si>
+  <si>
+    <t>(0.9899441429630563+0.009028735308849267j)</t>
+  </si>
+  <si>
+    <t>(0.986973606567482+0.011701067790334075j)</t>
+  </si>
+  <si>
+    <t>(0.9846292347528534+0.013781332776952046j)</t>
+  </si>
+  <si>
+    <t>(0.9831852632162122+0.015003830562737902j)</t>
+  </si>
+  <si>
+    <t>(0.9826905651330502+0.01532296453911051j)</t>
+  </si>
+  <si>
+    <t>(0.982473810777634+0.015398850130758637j)</t>
+  </si>
+  <si>
+    <t>(0.9828094305841625+0.014962879993618452j)</t>
+  </si>
+  <si>
+    <t>(0.9830904861772161+0.014614343762328506j)</t>
+  </si>
+  <si>
+    <t>(0.9832808993096867+0.014390300726949698j)</t>
+  </si>
+  <si>
+    <t>(1.0040971923995974-0.003441456803391161j)</t>
+  </si>
+  <si>
+    <t>(1.008510177221594-0.007183995085817656j)</t>
+  </si>
+  <si>
+    <t>(1.0116439950283294-0.009830439520837937j)</t>
+  </si>
+  <si>
+    <t>(1.0141276737720415-0.011929049118397941j)</t>
+  </si>
+  <si>
+    <t>(1.0168137412283553-0.014233310081761107j)</t>
+  </si>
+  <si>
+    <t>(1.0202575796998985-0.017239214854531594j)</t>
+  </si>
+  <si>
+    <t>(1.0245496692313008-0.021032160165250967j)</t>
+  </si>
+  <si>
+    <t>(1.0283312080540186-0.024391131143830815j)</t>
+  </si>
+  <si>
+    <t>(1.0321542824210344-0.027815196610288025j)</t>
+  </si>
+  <si>
+    <t>(1.0348122364750698-0.030201936993270034j)</t>
+  </si>
+  <si>
+    <t>(1.036238516392887-0.03148602849784181j)</t>
+  </si>
+  <si>
+    <t>(1.0118369967751126-0.009506372532767971j)</t>
+  </si>
+  <si>
+    <t>(1.0236488135565747-0.019018367265031918j)</t>
+  </si>
+  <si>
+    <t>(1.0330377784166807-0.026629071631110578j)</t>
+  </si>
+  <si>
+    <t>(1.0409411877563532-0.03307418632421294j)</t>
+  </si>
+  <si>
+    <t>(1.0486289324383786-0.039380847768025036j)</t>
+  </si>
+  <si>
+    <t>(1.0569251357980256-0.046229836150058226j)</t>
+  </si>
+  <si>
+    <t>(1.065959604269541-0.05373834983240419j)</t>
+  </si>
+  <si>
+    <t>(1.0737043676369105-0.0602083286224464j)</t>
+  </si>
+  <si>
+    <t>(1.080979713403991-0.0663301680900365j)</t>
+  </si>
+  <si>
+    <t>(1.0859914681054812-0.07056065048380925j)</t>
+  </si>
+  <si>
+    <t>(1.088641524848957-0.07280407422862574j)</t>
+  </si>
+  <si>
+    <t>(1.0193588591687548-0.014955392257971134j)</t>
+  </si>
+  <si>
+    <t>(1.038367097064387-0.029657973751133455j)</t>
+  </si>
+  <si>
+    <t>(1.053874722330145-0.04179029497642142j)</t>
+  </si>
+  <si>
+    <t>(1.0671001311277206-0.05222761080230578j)</t>
+  </si>
+  <si>
+    <t>(1.0797026392940166-0.06221603488653826j)</t>
+  </si>
+  <si>
+    <t>(1.0927594058600612-0.07258850453645513j)</t>
+  </si>
+  <si>
+    <t>(1.1064368105053672-0.08348834979533495j)</t>
+  </si>
+  <si>
+    <t>(1.1180641154572635-0.09280327756788437j)</t>
+  </si>
+  <si>
+    <t>(1.1287170482344224-0.10138631676093353j)</t>
+  </si>
+  <si>
+    <t>(1.1360327788300804-0.10730150321351332j)</t>
+  </si>
+  <si>
+    <t>(1.1398807040901648-0.11042185748423802j)</t>
+  </si>
+  <si>
+    <t>(0.9884588942498349+0.011136020407129953j)</t>
+  </si>
+  <si>
+    <t>(0.9779605888354639+0.021204862792592708j)</t>
+  </si>
+  <si>
+    <t>(0.9686754628364513+0.030085829332100585j)</t>
+  </si>
+  <si>
+    <t>(0.9605113620832715+0.03786485679472915j)</t>
+  </si>
+  <si>
+    <t>(0.9533924428711908+0.04461311443680542j)</t>
+  </si>
+  <si>
+    <t>(0.9472882461255664+0.050363175286916036j)</t>
+  </si>
+  <si>
+    <t>(0.9422002219077212+0.05512112975633425j)</t>
+  </si>
+  <si>
+    <t>(0.9381571373052631+0.05888373184420306j)</t>
+  </si>
+  <si>
+    <t>(0.9351419547862203+0.06166593462080054j)</t>
+  </si>
+  <si>
+    <t>(0.9331436940301966+0.06350301111785747j)</t>
+  </si>
+  <si>
+    <t>(0.9321492042664361+0.06441383880862683j)</t>
+  </si>
+  <si>
+    <t>(0.9971845908587141+0.0025653477491073538j)</t>
+  </si>
+  <si>
+    <t>(0.9949868388756077+0.004523214747123385j)</t>
+  </si>
+  <si>
+    <t>(0.9925534534437053+0.006728353119375871j)</t>
+  </si>
+  <si>
+    <t>(0.9902243725213835+0.008844160667410403j)</t>
+  </si>
+  <si>
+    <t>(0.9884659269077221+0.010409579761658015j)</t>
+  </si>
+  <si>
+    <t>(0.9875862040784356+0.011121331139222791j)</t>
+  </si>
+  <si>
+    <t>(0.9876394295069848+0.010927111767006123j)</t>
+  </si>
+  <si>
+    <t>(0.987877129212324+0.010572978890451206j)</t>
+  </si>
+  <si>
+    <t>(0.9886060660558352+0.009753927160820594j)</t>
+  </si>
+  <si>
+    <t>(0.989154073964208+0.009144071284628606j)</t>
+  </si>
+  <si>
+    <t>(0.9894828351024497+0.008783577804311122j)</t>
+  </si>
+  <si>
+    <t>(1.006013360571182-0.004901168620120839j)</t>
+  </si>
+  <si>
+    <t>(1.0122367506380394-0.010030304553897567j)</t>
+  </si>
+  <si>
+    <t>(1.0168513902076626-0.013812522645851958j)</t>
+  </si>
+  <si>
+    <t>(1.0205848713410748-0.016872386902859658j)</t>
+  </si>
+  <si>
+    <t>(1.0244097317989196-0.02006073191098884j)</t>
+  </si>
+  <si>
+    <t>(1.0289553073009805-0.023935493375093757j)</t>
+  </si>
+  <si>
+    <t>(1.0343241253572841-0.02859301743979725j)</t>
+  </si>
+  <si>
+    <t>(1.0389965253537934-0.0326730019463178j)</t>
+  </si>
+  <si>
+    <t>(1.0435936457901565-0.03673395351097774j)</t>
+  </si>
+  <si>
+    <t>(1.0467759377292052-0.03955403892076445j)</t>
+  </si>
+  <si>
+    <t>(1.0484738855417992-0.04106379455242533j)</t>
+  </si>
+  <si>
+    <t>(1.0147028516269891-0.01147644827234482j)</t>
+  </si>
+  <si>
+    <t>(1.0292345611826816-0.02285754291292193j)</t>
+  </si>
+  <si>
+    <t>(1.0408988508029824-0.03202017789021399j)</t>
+  </si>
+  <si>
+    <t>(1.050755500551692-0.039790911077353205j)</t>
+  </si>
+  <si>
+    <t>(1.0602320168940038-0.0473155413716215j)</t>
+  </si>
+  <si>
+    <t>(1.070252000994186-0.055351406721714715j)</t>
+  </si>
+  <si>
+    <t>(1.0809606582895317-0.06402950087324465j)</t>
+  </si>
+  <si>
+    <t>(1.0900969113931476-0.07147546457482311j)</t>
+  </si>
+  <si>
+    <t>(1.0985773987393526-0.07845429379866248j)</t>
+  </si>
+  <si>
+    <t>(1.104408226898944-0.08326852167127335j)</t>
+  </si>
+  <si>
+    <t>(1.1074830964668942-0.08581582195240135j)</t>
+  </si>
+  <si>
+    <t>(1.0231453640000305-0.01735172561841907j)</t>
+  </si>
+  <si>
+    <t>(1.0457655873963958-0.034324527449949856j)</t>
+  </si>
+  <si>
+    <t>(1.0643758542543056-0.0483627016198661j)</t>
+  </si>
+  <si>
+    <t>(1.080316008283078-0.06043992146930209j)</t>
+  </si>
+  <si>
+    <t>(1.0954177724838596-0.07193382184499893j)</t>
+  </si>
+  <si>
+    <t>(1.1108714164459912-0.08376353002981243j)</t>
+  </si>
+  <si>
+    <t>(1.1268594859361833-0.09608848576676562j)</t>
+  </si>
+  <si>
+    <t>(1.1404167665984233-0.1065937658626959j)</t>
+  </si>
+  <si>
+    <t>(1.152734671091562-0.11621768524950267j)</t>
+  </si>
+  <si>
+    <t>(1.161186141773888-0.12284280200603577j)</t>
+  </si>
+  <si>
+    <t>(1.1656237563210685-0.12633275477103767j)</t>
+  </si>
+  <si>
+    <t>(0.9884809616220127+0.011026650092610547j)</t>
+  </si>
+  <si>
+    <t>(0.9780304100677735+0.020977293904261382j)</t>
+  </si>
+  <si>
+    <t>(0.9688995778593218+0.029704664776110588j)</t>
+  </si>
+  <si>
+    <t>(0.9609403358609407+0.037315779125494816j)</t>
+  </si>
+  <si>
+    <t>(0.9540276552752118+0.04389712619802319j)</t>
+  </si>
+  <si>
+    <t>(0.9481059837073854+0.049486925360912155j)</t>
+  </si>
+  <si>
+    <t>(0.9431707202795784+0.05409193472990952j)</t>
+  </si>
+  <si>
+    <t>(0.9392675279978719+0.05771648374689362j)</t>
+  </si>
+  <si>
+    <t>(0.9363636352854203+0.06037609338747701j)</t>
+  </si>
+  <si>
+    <t>(0.9344465860249719+0.06212514625960329j)</t>
+  </si>
+  <si>
+    <t>(0.9334949786832012+0.06298886019532766j)</t>
+  </si>
+  <si>
+    <t>(0.998131224263254+0.0017465370704747238j)</t>
+  </si>
+  <si>
+    <t>(0.9968284251177495+0.002923693840576088j)</t>
+  </si>
+  <si>
+    <t>(0.995133343272772+0.0044933309950371805j)</t>
+  </si>
+  <si>
+    <t>(0.9934312579473656+0.0060728662932539625j)</t>
+  </si>
+  <si>
+    <t>(0.9922445954659658+0.007142538279676599j)</t>
+  </si>
+  <si>
+    <t>(0.9919162958512915+0.007361628064072937j)</t>
+  </si>
+  <si>
+    <t>(0.9925062206792769+0.006671159652020999j)</t>
+  </si>
+  <si>
+    <t>(0.9931884358048209+0.005901723192828812j)</t>
+  </si>
+  <si>
+    <t>(0.9943026109365406+0.004712309579529345j)</t>
+  </si>
+  <si>
+    <t>(0.9951118161249968+0.0038500034337860443j)</t>
+  </si>
+  <si>
+    <t>(0.9955759088431678+0.00335771955053376j)</t>
+  </si>
+  <si>
+    <t>(1.0079090740142256-0.006301821634198865j)</t>
+  </si>
+  <si>
+    <t>(1.0159200793976708-0.012760926738525554j)</t>
+  </si>
+  <si>
+    <t>(1.0219852793638262-0.01762634033887164j)</t>
+  </si>
+  <si>
+    <t>(1.026935268704722-0.02159906690919166j)</t>
+  </si>
+  <si>
+    <t>(1.0318660361094205-0.025626492636521156j)</t>
+  </si>
+  <si>
+    <t>(1.037482459913753-0.030327651185286367j)</t>
+  </si>
+  <si>
+    <t>(1.0438996116449206-0.03580966622024627j)</t>
+  </si>
+  <si>
+    <t>(1.0494376830354104-0.04057659734708217j)</t>
+  </si>
+  <si>
+    <t>(1.0547875224772112-0.04524516121230575j)</t>
+  </si>
+  <si>
+    <t>(1.0584790004205082-0.04847833640387591j)</t>
+  </si>
+  <si>
+    <t>(1.0604406265833988-0.05020316376862908j)</t>
+  </si>
+  <si>
+    <t>(1.0175358306923377-0.013353895480896789j)</t>
+  </si>
+  <si>
+    <t>(1.0347532659946166-0.02651522158441402j)</t>
+  </si>
+  <si>
+    <t>(1.0486580416238218-0.03714901778030061j)</t>
+  </si>
+  <si>
+    <t>(1.0604336735601383-0.04617198985332895j)</t>
+  </si>
+  <si>
+    <t>(1.0716654937014907-0.05484646310008763j)</t>
+  </si>
+  <si>
+    <t>(1.0833763748011842-0.06400459295493074j)</t>
+  </si>
+  <si>
+    <t>(1.09572709123393-0.07379090459291489j)</t>
+  </si>
+  <si>
+    <t>(1.1062268743542951-0.08216097753961095j)</t>
+  </si>
+  <si>
+    <t>(1.1158879594703965-0.08995222768651737j)</t>
+  </si>
+  <si>
+    <t>(1.1225207035764648-0.09531950264105161j)</t>
+  </si>
+  <si>
+    <t>(1.1260113536553191-0.09815466899089503j)</t>
+  </si>
+  <si>
+    <t>(1.0268868073804762-0.019624307948363808j)</t>
+  </si>
+  <si>
+    <t>(1.0530753876651169-0.03874786992707672j)</t>
+  </si>
+  <si>
+    <t>(1.0747581835309397-0.054583289010515464j)</t>
+  </si>
+  <si>
+    <t>(1.0933907401759821-0.06820164007400244j)</t>
+  </si>
+  <si>
+    <t>(1.1109707683726722-0.08110902175006506j)</t>
+  </si>
+  <si>
+    <t>(1.1287979195368167-0.09430834524040975j)</t>
+  </si>
+  <si>
+    <t>(1.1470703720458433-0.10797491909481514j)</t>
+  </si>
+  <si>
+    <t>(1.162535817553306-0.11960002856376684j)</t>
+  </si>
+  <si>
+    <t>(1.1764981016383267-0.13020427974820328j)</t>
+  </si>
+  <si>
+    <t>(1.1860714424195424-0.137497688958554j)</t>
+  </si>
+  <si>
+    <t>(1.1910914898848515-0.1413355547716382j)</t>
   </si>
 </sst>
 </file>

--- a/Initial presentation/Codi/PGD/Map_V.xlsx
+++ b/Initial presentation/Codi/PGD/Map_V.xlsx
@@ -26,1819 +26,1819 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
-    <t>(0.9883549947385417+0.010907328967771454j)</t>
-  </si>
-  <si>
-    <t>(0.9777877942624654+0.02084956190039673j)</t>
-  </si>
-  <si>
-    <t>(0.968323210237443+0.02964102691627199j)</t>
-  </si>
-  <si>
-    <t>(0.959942373239222+0.03737450310760395j)</t>
-  </si>
-  <si>
-    <t>(0.9526512728290928+0.04415791717730268j)</t>
-  </si>
-  <si>
-    <t>(0.946468421664108+0.050058277374640456j)</t>
-  </si>
-  <si>
-    <t>(0.9414048919646667+0.055090023125539615j)</t>
-  </si>
-  <si>
-    <t>(0.9373951408283193+0.05912827396387856j)</t>
-  </si>
-  <si>
-    <t>(0.9344661663579416+0.062232966903781765j)</t>
-  </si>
-  <si>
-    <t>(0.9325294374253064+0.064305460619386j)</t>
-  </si>
-  <si>
-    <t>(0.9315711749477477+0.06534774429709979j)</t>
-  </si>
-  <si>
-    <t>(0.9882405240178581+0.011161357045589806j)</t>
-  </si>
-  <si>
-    <t>(0.9775074927689242+0.02135782748005043j)</t>
-  </si>
-  <si>
-    <t>(0.9677135231252149+0.03053443703338588j)</t>
-  </si>
-  <si>
-    <t>(0.9589264979337154+0.038703608133376435j)</t>
-  </si>
-  <si>
-    <t>(0.9512240901255863+0.045897096380759325j)</t>
-  </si>
-  <si>
-    <t>(0.9446600823756645+0.05214140487281668j)</t>
-  </si>
-  <si>
-    <t>(0.9392553273015724+0.05744270836245173j)</t>
-  </si>
-  <si>
-    <t>(0.9349368337010431+0.06171836950742454j)</t>
-  </si>
-  <si>
-    <t>(0.9317503043075277+0.0649998626244088j)</t>
-  </si>
-  <si>
-    <t>(0.9296282309311353+0.06719986265923676j)</t>
-  </si>
-  <si>
-    <t>(0.9285719393645677+0.06830847692471247j)</t>
-  </si>
-  <si>
-    <t>(0.9881500717468794+0.011230377465065493j)</t>
-  </si>
-  <si>
-    <t>(0.9773160955890113+0.0214907206969694j)</t>
-  </si>
-  <si>
-    <t>(0.9674098603953558+0.030768454592885984j)</t>
-  </si>
-  <si>
-    <t>(0.9585069706246355+0.03905227996529007j)</t>
-  </si>
-  <si>
-    <t>(0.9506881609028657+0.04634927417226771j)</t>
-  </si>
-  <si>
-    <t>(0.9440075490283981+0.05267173385646579j)</t>
-  </si>
-  <si>
-    <t>(0.938486973575557+0.058022796108055996j)</t>
-  </si>
-  <si>
-    <t>(0.9340664088631768+0.06234051789910005j)</t>
-  </si>
-  <si>
-    <t>(0.9307890568693825+0.06564498699627826j)</t>
-  </si>
-  <si>
-    <t>(0.9286031320606685+0.06786161070935229j)</t>
-  </si>
-  <si>
-    <t>(0.9275130699604409+0.06897829569320844j)</t>
-  </si>
-  <si>
-    <t>(0.9881220702000942+0.011179488873790212j)</t>
-  </si>
-  <si>
-    <t>(0.9772795678572319+0.02138961574081186j)</t>
-  </si>
-  <si>
-    <t>(0.967474011764912+0.030620233096102078j)</t>
-  </si>
-  <si>
-    <t>(0.9587245420684631+0.0388596935271771j)</t>
-  </si>
-  <si>
-    <t>(0.9510594956621011+0.04611283524522002j)</t>
-  </si>
-  <si>
-    <t>(0.944505403838074+0.052389468898985235j)</t>
-  </si>
-  <si>
-    <t>(0.9390782689156614+0.05769162110162029j)</t>
-  </si>
-  <si>
-    <t>(0.9347460213151899+0.061965173966308275j)</t>
-  </si>
-  <si>
-    <t>(0.9315327681813963+0.06522708090932827j)</t>
-  </si>
-  <si>
-    <t>(0.9293953711315149+0.067413259583107j)</t>
-  </si>
-  <si>
-    <t>(0.9283309779034233+0.06851344612289877j)</t>
-  </si>
-  <si>
-    <t>(0.988162139052805+0.011053909247395476j)</t>
-  </si>
-  <si>
-    <t>(0.9773999949543698+0.021149012480090046j)</t>
-  </si>
-  <si>
-    <t>(0.9678734719642501+0.030261882560939365j)</t>
-  </si>
-  <si>
-    <t>(0.9594967612353386+0.03838747444788142j)</t>
-  </si>
-  <si>
-    <t>(0.9522039563779354+0.04553641637148576j)</t>
-  </si>
-  <si>
-    <t>(0.9459730536943896+0.05172056570655262j)</t>
-  </si>
-  <si>
-    <t>(0.940809217265574+0.056941233505827984j)</t>
-  </si>
-  <si>
-    <t>(0.9367191836296554+0.061143591608812775j)</t>
-  </si>
-  <si>
-    <t>(0.9336956403732999+0.06434537124969147j)</t>
-  </si>
-  <si>
-    <t>(0.9316976893938885+0.06648862592800352j)</t>
-  </si>
-  <si>
-    <t>(0.9307070469055392+0.0675660010478606j)</t>
-  </si>
-  <si>
-    <t>(0.9883769053606897+0.01109375039776039j)</t>
-  </si>
-  <si>
-    <t>(0.9777906958707678+0.0212146139129931j)</t>
-  </si>
-  <si>
-    <t>(0.9682088345185417+0.030246715356423853j)</t>
-  </si>
-  <si>
-    <t>(0.959659473582513+0.038241160765777764j)</t>
-  </si>
-  <si>
-    <t>(0.9521854135009074+0.045265005811303105j)</t>
-  </si>
-  <si>
-    <t>(0.9458222101880027+0.051362826898695056j)</t>
-  </si>
-  <si>
-    <t>(0.9405857218821766+0.056544381080203404j)</t>
-  </si>
-  <si>
-    <t>(0.9364142383959075+0.06071165698475245j)</t>
-  </si>
-  <si>
-    <t>(0.9333420729031822+0.0639079183607931j)</t>
-  </si>
-  <si>
-    <t>(0.9313010288937734+0.06604572811488653j)</t>
-  </si>
-  <si>
-    <t>(0.9302867545603628+0.06712148929944137j)</t>
-  </si>
-  <si>
-    <t>(0.9892839027625062+0.010064899041089578j)</t>
-  </si>
-  <si>
-    <t>(0.9795556616648432+0.01920391201925469j)</t>
-  </si>
-  <si>
-    <t>(0.9706635889054619+0.02744956882823377j)</t>
-  </si>
-  <si>
-    <t>(0.9626898023326608+0.03478791943484742j)</t>
-  </si>
-  <si>
-    <t>(0.9557414473923682+0.04120450393709752j)</t>
-  </si>
-  <si>
-    <t>(0.9498934615147974+0.046692319200638634j)</t>
-  </si>
-  <si>
-    <t>(0.9451682373469052+0.05125177565355319j)</t>
-  </si>
-  <si>
-    <t>(0.9414204978752965+0.05489845916651419j)</t>
-  </si>
-  <si>
-    <t>(0.9387206559922717+0.05762651783655987j)</t>
-  </si>
-  <si>
-    <t>(0.9369319648917425+0.0594453936560187j)</t>
-  </si>
-  <si>
-    <t>(0.936048719691182+0.06035447012028843j)</t>
-  </si>
-  <si>
-    <t>(0.9901738242205925+0.009001653105924023j)</t>
-  </si>
-  <si>
-    <t>(0.9812980907805713+0.017122964598556573j)</t>
-  </si>
-  <si>
-    <t>(0.9731349593101933+0.024513978243632526j)</t>
-  </si>
-  <si>
-    <t>(0.9657980570843369+0.031114506826190103j)</t>
-  </si>
-  <si>
-    <t>(0.9594390660986831+0.03684647119184099j)</t>
-  </si>
-  <si>
-    <t>(0.9541621887161126+0.04166082035462119j)</t>
-  </si>
-  <si>
-    <t>(0.949994021733407+0.045550510286487114j)</t>
-  </si>
-  <si>
-    <t>(0.9467131757443679+0.04863406621729671j)</t>
-  </si>
-  <si>
-    <t>(0.9444198508705158+0.050863319169086436j)</t>
-  </si>
-  <si>
-    <t>(0.9429089128329434+0.05234087826170654j)</t>
-  </si>
-  <si>
-    <t>(0.9421702111183409+0.05307162131627639j)</t>
-  </si>
-  <si>
-    <t>(0.9910704902281763+0.007924934661095536j)</t>
-  </si>
-  <si>
-    <t>(0.9830624072832025+0.015016759442495559j)</t>
-  </si>
-  <si>
-    <t>(0.9756781643717868+0.021526633650644108j)</t>
-  </si>
-  <si>
-    <t>(0.9690446462806741+0.027356945136063626j)</t>
-  </si>
-  <si>
-    <t>(0.9633422183133322+0.03237518396212339j)</t>
-  </si>
-  <si>
-    <t>(0.9586963983301914+0.036495421497882485j)</t>
-  </si>
-  <si>
-    <t>(0.9551361814228306+0.039704065373852834j)</t>
-  </si>
-  <si>
-    <t>(0.9523690056570782+0.042214586178755086j)</t>
-  </si>
-  <si>
-    <t>(0.9505201028341085+0.04394065805509975j)</t>
-  </si>
-  <si>
-    <t>(0.949314612622753+0.04507342301706939j)</t>
-  </si>
-  <si>
-    <t>(0.9487351454046169+0.04562413994813041j)</t>
-  </si>
-  <si>
-    <t>(0.9919798560351929+0.006850723910445711j)</t>
-  </si>
-  <si>
-    <t>(0.9848578482158954+0.012918337995723337j)</t>
-  </si>
-  <si>
-    <t>(0.9782966526500745+0.018545922487663884j)</t>
-  </si>
-  <si>
-    <t>(0.9724226084599121+0.023602301760961366j)</t>
-  </si>
-  <si>
-    <t>(0.9674327999188396+0.027905425365553786j)</t>
-  </si>
-  <si>
-    <t>(0.9634680984841314+0.031335525475384526j)</t>
-  </si>
-  <si>
-    <t>(0.9605585751517521+0.03387290529644436j)</t>
-  </si>
-  <si>
-    <t>(0.9583440564317312+0.03581920790938659j)</t>
-  </si>
-  <si>
-    <t>(0.9569712809703752+0.037052841876633186j)</t>
-  </si>
-  <si>
-    <t>(0.9560943039037134+0.03784817982254386j)</t>
-  </si>
-  <si>
-    <t>(0.9556862944242535+0.03822288303658241j)</t>
-  </si>
-  <si>
-    <t>(0.9883900514714018+0.011224219605510254j)</t>
-  </si>
-  <si>
-    <t>(0.9777892063904652+0.021464511729081353j)</t>
-  </si>
-  <si>
-    <t>(0.9681306818232254+0.030646487690376187j)</t>
-  </si>
-  <si>
-    <t>(0.959471840146646+0.03879822370013422j)</t>
-  </si>
-  <si>
-    <t>(0.9518777339485432+0.0459627158018837j)</t>
-  </si>
-  <si>
-    <t>(0.9453939174471714+0.052170721850590004j)</t>
-  </si>
-  <si>
-    <t>(0.9400391472874673+0.05742916749045168j)</t>
-  </si>
-  <si>
-    <t>(0.9357568717473463+0.061660492120344614j)</t>
-  </si>
-  <si>
-    <t>(0.9325850909537807+0.06489679682526499j)</t>
-  </si>
-  <si>
-    <t>(0.9304715141310023+0.06706278563464434j)</t>
-  </si>
-  <si>
-    <t>(0.9294182033574533+0.0681524980552435j)</t>
-  </si>
-  <si>
-    <t>(0.9903111477811204+0.009013514623433916j)</t>
-  </si>
-  <si>
-    <t>(0.9815694365893448+0.017141023867587278j)</t>
-  </si>
-  <si>
-    <t>(0.9735526587983679+0.02450897012022426j)</t>
-  </si>
-  <si>
-    <t>(0.9663620466647713+0.031071676253558046j)</t>
-  </si>
-  <si>
-    <t>(0.9601383944082253+0.03676446894664495j)</t>
-  </si>
-  <si>
-    <t>(0.954979979336233+0.041545164250856886j)</t>
-  </si>
-  <si>
-    <t>(0.9509114355261936+0.045408006422692604j)</t>
-  </si>
-  <si>
-    <t>(0.9477143703492331+0.04846538192393709j)</t>
-  </si>
-  <si>
-    <t>(0.9454852432999578+0.050673641048373276j)</t>
-  </si>
-  <si>
-    <t>(0.944018616879301+0.05213517366984921j)</t>
-  </si>
-  <si>
-    <t>(0.9433025316217146+0.052857243246572254j)</t>
-  </si>
-  <si>
-    <t>(0.992202074841853+0.006916384433471231j)</t>
-  </si>
-  <si>
-    <t>(0.98528041503735+0.013041499675304985j)</t>
-  </si>
-  <si>
-    <t>(0.9788336273236284+0.01869669012503944j)</t>
-  </si>
-  <si>
-    <t>(0.9730243714992699+0.02376357890224859j)</t>
-  </si>
-  <si>
-    <t>(0.9680844348276598+0.028072986883695476j)</t>
-  </si>
-  <si>
-    <t>(0.9641726959195933+0.03151251722502102j)</t>
-  </si>
-  <si>
-    <t>(0.961321903189077+0.03406430646937215j)</t>
-  </si>
-  <si>
-    <t>(0.9591483132791043+0.03602068802634143j)</t>
-  </si>
-  <si>
-    <t>(0.9578116709738347+0.037265720448150755j)</t>
-  </si>
-  <si>
-    <t>(0.9569558325720667+0.03806801111850398j)</t>
-  </si>
-  <si>
-    <t>(0.9565579205863197+0.03844630917932782j)</t>
-  </si>
-  <si>
-    <t>(0.994063411591461+0.00491631848510754j)</t>
-  </si>
-  <si>
-    <t>(0.9889263411760607+0.009131626318365475j)</t>
-  </si>
-  <si>
-    <t>(0.9839912629051886+0.013151225283533803j)</t>
-  </si>
-  <si>
-    <t>(0.9794948062576814+0.016788784633117625j)</t>
-  </si>
-  <si>
-    <t>(0.9757705938691935+0.019776852374255798j)</t>
-  </si>
-  <si>
-    <t>(0.9730436533204856+0.021936992852676855j)</t>
-  </si>
-  <si>
-    <t>(0.9713564002478551+0.023240143541024785j)</t>
-  </si>
-  <si>
-    <t>(0.9701576046520256+0.024148626183904832j)</t>
-  </si>
-  <si>
-    <t>(0.9696736179880864+0.02447837434679961j)</t>
-  </si>
-  <si>
-    <t>(0.9693999273680448+0.02465451796867599j)</t>
-  </si>
-  <si>
-    <t>(0.9693050920138364+0.02470647987734077j)</t>
-  </si>
-  <si>
-    <t>(0.9958945662096443+0.003001759528679526j)</t>
-  </si>
-  <si>
-    <t>(0.9925081760375971+0.005388190394574289j)</t>
-  </si>
-  <si>
-    <t>(0.989035889688331+0.007836096437711255j)</t>
-  </si>
-  <si>
-    <t>(0.9857969033135094+0.010097112215605773j)</t>
-  </si>
-  <si>
-    <t>(0.9832339573557909+0.011812648564461327j)</t>
-  </si>
-  <si>
-    <t>(0.981641883439184+0.01274277312358831j)</t>
-  </si>
-  <si>
-    <t>(0.9810738079848477+0.012848200757737746j)</t>
-  </si>
-  <si>
-    <t>(0.9808102489999035+0.012751688658575792j)</t>
-  </si>
-  <si>
-    <t>(0.9811462278468116+0.012205304564081637j)</t>
-  </si>
-  <si>
-    <t>(0.9814312986345067+0.01178213251831887j)</t>
-  </si>
-  <si>
-    <t>(0.9816272174896994+0.011521868794536625j)</t>
-  </si>
-  <si>
-    <t>(0.9883983498013797+0.01130805101752887j)</t>
-  </si>
-  <si>
-    <t>(0.9777889657034842+0.021619617683034657j)</t>
-  </si>
-  <si>
-    <t>(0.9680921904116817+0.03088181526418575j)</t>
-  </si>
-  <si>
-    <t>(0.9593785362408269+0.039112753008683596j)</t>
-  </si>
-  <si>
-    <t>(0.9517219457550955+0.04634315362302386j)</t>
-  </si>
-  <si>
-    <t>(0.94517141554248+0.052595957853884344j)</t>
-  </si>
-  <si>
-    <t>(0.9397468832089562+0.05787650058844694j)</t>
-  </si>
-  <si>
-    <t>(0.9353989243631234+0.062123230602602324j)</t>
-  </si>
-  <si>
-    <t>(0.9321656624008681+0.06536090245302204j)</t>
-  </si>
-  <si>
-    <t>(0.9300073918365563+0.06752725576710603j)</t>
-  </si>
-  <si>
-    <t>(0.9289298941051495+0.06861629884281147j)</t>
-  </si>
-  <si>
-    <t>(0.9913244646184431+0.008001258033036304j)</t>
-  </si>
-  <si>
-    <t>(0.9835534105595498+0.015156814186148655j)</t>
-  </si>
-  <si>
-    <t>(0.9763882428288626+0.02169148665495009j)</t>
-  </si>
-  <si>
-    <t>(0.9699538295409141+0.027523962893159785j)</t>
-  </si>
-  <si>
-    <t>(0.9644284971537881+0.03253656590179358j)</t>
-  </si>
-  <si>
-    <t>(0.9599358834080576+0.036650842832120493j)</t>
-  </si>
-  <si>
-    <t>(0.9565034877067344+0.03985461755142587j)</t>
-  </si>
-  <si>
-    <t>(0.953838988642106+0.0423555339649081j)</t>
-  </si>
-  <si>
-    <t>(0.9520661253112153+0.04407198652686638j)</t>
-  </si>
-  <si>
-    <t>(0.9509112956843796+0.04519593037008344j)</t>
-  </si>
-  <si>
-    <t>(0.950357018031285+0.045741403029168154j)</t>
-  </si>
-  <si>
-    <t>(0.9942243180531867+0.004955448306272206j)</t>
-  </si>
-  <si>
-    <t>(0.9892435519118831+0.009207122095127218j)</t>
-  </si>
-  <si>
-    <t>(0.9844803150484187+0.013252799464594225j)</t>
-  </si>
-  <si>
-    <t>(0.9801562282821925+0.016909576814389166j)</t>
-  </si>
-  <si>
-    <t>(0.9765913684447107+0.019913524106034725j)</t>
-  </si>
-  <si>
-    <t>(0.9740033470484369+0.022087935228422596j)</t>
-  </si>
-  <si>
-    <t>(0.972432291768249+0.023403777703030062j)</t>
-  </si>
-  <si>
-    <t>(0.9713315769219796+0.02432102863035883j)</t>
-  </si>
-  <si>
-    <t>(0.9709226691615667+0.02465685972739143j)</t>
-  </si>
-  <si>
-    <t>(0.9707010261178374+0.02483635865758855j)</t>
-  </si>
-  <si>
-    <t>(0.9706328219734583+0.024889747121073516j)</t>
-  </si>
-  <si>
-    <t>(0.9970694691309748+0.00212062599170503j)</t>
-  </si>
-  <si>
-    <t>(0.9948103284755454+0.003667676156868105j)</t>
-  </si>
-  <si>
-    <t>(0.9923246908498089+0.005394027934869831j)</t>
-  </si>
-  <si>
-    <t>(0.9899611086855818+0.007022864169356326j)</t>
-  </si>
-  <si>
-    <t>(0.9882075215967943+0.00815420872917884j)</t>
-  </si>
-  <si>
-    <t>(0.9873887594536943+0.008520006358259561j)</t>
-  </si>
-  <si>
-    <t>(0.9875610485959244+0.00807591208628194j)</t>
-  </si>
-  <si>
-    <t>(0.9879175781751652+0.00751754157071945j)</t>
-  </si>
-  <si>
-    <t>(0.9887854234463473+0.0065677825910466486j)</t>
-  </si>
-  <si>
-    <t>(0.9894340271463942+0.005868254639349173j)</t>
-  </si>
-  <si>
-    <t>(0.9898186515817583+0.005463833326396105j)</t>
-  </si>
-  <si>
-    <t>(0.9998483696973509-0.000541625271731658j)</t>
-  </si>
-  <si>
-    <t>(1.0002360846506024-0.0015382830981779817j)</t>
-  </si>
-  <si>
-    <t>(0.9999171721315522-0.002003734852363597j)</t>
-  </si>
-  <si>
-    <t>(0.9993877457226483-0.002297767951408913j)</t>
-  </si>
-  <si>
-    <t>(0.999321026643875-0.0029438052427748075j)</t>
-  </si>
-  <si>
-    <t>(1.0001576912035617-0.004293405390960567j)</t>
-  </si>
-  <si>
-    <t>(1.0019723656000794-0.0064044784074212165j)</t>
-  </si>
-  <si>
-    <t>(1.0036959454262175-0.008361115185898117j)</t>
-  </si>
-  <si>
-    <t>(1.00576589494676-0.010527607900244597j)</t>
-  </si>
-  <si>
-    <t>(1.0072312695968595-0.012059253388026714j)</t>
-  </si>
-  <si>
-    <t>(1.0080405127914709-0.012896977877416664j)</t>
-  </si>
-  <si>
-    <t>(0.9884045378043993+0.011352236999297705j)</t>
-  </si>
-  <si>
-    <t>(0.9777936620283882+0.021694947797192367j)</t>
-  </si>
-  <si>
-    <t>(0.9680938649633481+0.030982489133892552j)</t>
-  </si>
-  <si>
-    <t>(0.9593746982354124+0.03923228473075695j)</t>
-  </si>
-  <si>
-    <t>(0.9517071529018304+0.04647113538642962j)</t>
-  </si>
-  <si>
-    <t>(0.9451378257599897+0.05271837396753376j)</t>
-  </si>
-  <si>
-    <t>(0.9396863258622316+0.05797857366602372j)</t>
-  </si>
-  <si>
-    <t>(0.9353123980623377+0.06220318085992678j)</t>
-  </si>
-  <si>
-    <t>(0.9320510373438425+0.06541223777110046j)</t>
-  </si>
-  <si>
-    <t>(0.929872446619885+0.06755745006252409j)</t>
-  </si>
-  <si>
-    <t>(0.9287837533684089+0.068634520683371j)</t>
-  </si>
-  <si>
-    <t>(0.9923255909340377+0.007023834532926703j)</t>
-  </si>
-  <si>
-    <t>(0.9855112570297156+0.013242375838023913j)</t>
-  </si>
-  <si>
-    <t>(0.9791766531538658+0.01898191895501976j)</t>
-  </si>
-  <si>
-    <t>(0.9734743763316237+0.024122621719606215j)</t>
-  </si>
-  <si>
-    <t>(0.968623802917591+0.02849185313153681j)</t>
-  </si>
-  <si>
-    <t>(0.9647757518529597+0.03197420509953405j)</t>
-  </si>
-  <si>
-    <t>(0.9619611362006479+0.03455092465824802j)</t>
-  </si>
-  <si>
-    <t>(0.9598129668321533+0.03652331350807495j)</t>
-  </si>
-  <si>
-    <t>(0.9584833670286528+0.03777185894072449j)</t>
-  </si>
-  <si>
-    <t>(0.9576310820429694+0.038575045480885875j)</t>
-  </si>
-  <si>
-    <t>(0.9572337813888607+0.03895278924154841j)</t>
-  </si>
-  <si>
-    <t>(0.9962342921225051+0.003103181841131412j)</t>
-  </si>
-  <si>
-    <t>(0.9931762043767367+0.0055879908158081035j)</t>
-  </si>
-  <si>
-    <t>(0.9900614853422705+0.008131414839463691j)</t>
-  </si>
-  <si>
-    <t>(0.9871794904255168+0.010481703437176526j)</t>
-  </si>
-  <si>
-    <t>(0.9849457521113811+0.012278053820266739j)</t>
-  </si>
-  <si>
-    <t>(0.9836401289129141+0.013279159282806072j)</t>
-  </si>
-  <si>
-    <t>(0.9833111935704952+0.013444657158772303j)</t>
-  </si>
-  <si>
-    <t>(0.9832492789154055+0.013396476114370318j)</t>
-  </si>
-  <si>
-    <t>(0.9837393975810992+0.012886015072133748j)</t>
-  </si>
-  <si>
-    <t>(0.9841313107925304+0.012486638047218513j)</t>
-  </si>
-  <si>
-    <t>(0.9843818902337446+0.012238146831622866j)</t>
-  </si>
-  <si>
-    <t>(1.0000694988725984-0.0004906760790307381j)</t>
-  </si>
-  <si>
-    <t>(1.0006773748864475-0.0014322793058635067j)</t>
-  </si>
-  <si>
-    <t>(1.0006252620560898-0.001830437041559775j)</t>
-  </si>
-  <si>
-    <t>(1.0003757764360033-0.002053477631679876j)</t>
-  </si>
-  <si>
-    <t>(1.000572060601468-0.0026314892950884696j)</t>
-  </si>
-  <si>
-    <t>(1.0016388838141759-0.003919531706255868j)</t>
-  </si>
-  <si>
-    <t>(1.0036466332243177-0.0059770154480196375j)</t>
-  </si>
-  <si>
-    <t>(1.005536576659396-0.007888122951545926j)</t>
-  </si>
-  <si>
-    <t>(1.007735912217459-0.010018971148756488j)</t>
-  </si>
-  <si>
-    <t>(1.0092923385304489-0.011526044051440459j)</t>
-  </si>
-  <si>
-    <t>(1.0101486877025108-0.012351217307356213j)</t>
-  </si>
-  <si>
-    <t>(1.0038059648850337-0.0038226722472430607j)</t>
-  </si>
-  <si>
-    <t>(1.007971640518762-0.00794702429145549j)</t>
-  </si>
-  <si>
-    <t>(1.0108334551504252-0.011095956326490644j)</t>
-  </si>
-  <si>
-    <t>(1.0130512189784944-0.013736779354393895j)</t>
-  </si>
-  <si>
-    <t>(1.015515503833061-0.016548945256142467j)</t>
-  </si>
-  <si>
-    <t>(1.018805629741413-0.019989075644051377j)</t>
-  </si>
-  <si>
-    <t>(1.0230164295204347-0.024133019468799508j)</t>
-  </si>
-  <si>
-    <t>(1.0267394028666719-0.027794174388930185j)</t>
-  </si>
-  <si>
-    <t>(1.0305489393879401-0.0314453401135121j)</t>
-  </si>
-  <si>
-    <t>(1.0331991997993282-0.03399225283247302j)</t>
-  </si>
-  <si>
-    <t>(1.034624048472111-0.03535877035015841j)</t>
-  </si>
-  <si>
-    <t>(0.9884106140872974+0.011362217198131987j)</t>
-  </si>
-  <si>
-    <t>(0.977805869636275+0.02170199754555759j)</t>
-  </si>
-  <si>
-    <t>(0.9681350965502911+0.030970599036905157j)</t>
-  </si>
-  <si>
-    <t>(0.9594545853432973+0.03919146794918797j)</t>
-  </si>
-  <si>
-    <t>(0.9518220162984645+0.04639348839672019j)</t>
-  </si>
-  <si>
-    <t>(0.9452764697976697+0.05259537107510319j)</t>
-  </si>
-  <si>
-    <t>(0.9398359168819412+0.057801480270767196j)</t>
-  </si>
-  <si>
-    <t>(0.9354711441520847+0.061974239309562223j)</t>
-  </si>
-  <si>
-    <t>(0.9322111458206198+0.06513080114943884j)</t>
-  </si>
-  <si>
-    <t>(0.93003373693654+0.06723779054512015j)</t>
-  </si>
-  <si>
-    <t>(0.9289453043662482+0.06829391097978893j)</t>
-  </si>
-  <si>
-    <t>(0.9933158463013007+0.006077991078674064j)</t>
-  </si>
-  <si>
-    <t>(0.9874458022106593+0.0113909823772924j)</t>
-  </si>
-  <si>
-    <t>(0.9819229265975523+0.016368891794925435j)</t>
-  </si>
-  <si>
-    <t>(0.9769312262873133+0.020851170263534113j)</t>
-  </si>
-  <si>
-    <t>(0.9727342879146526+0.024608868674258308j)</t>
-  </si>
-  <si>
-    <t>(0.9695117393846208+0.02748921232168695j)</t>
-  </si>
-  <si>
-    <t>(0.9672983892686408+0.02946678004038878j)</t>
-  </si>
-  <si>
-    <t>(0.9656519316475309+0.03093492193829197j)</t>
-  </si>
-  <si>
-    <t>(0.9647538537271819+0.03173640037616998j)</t>
-  </si>
-  <si>
-    <t>(0.9641957492099713+0.032233477501198204j)</t>
-  </si>
-  <si>
-    <t>(0.9639510533850283+0.032451207202717186j)</t>
-  </si>
-  <si>
-    <t>(0.9982282949559106+0.0013468481382855697j)</t>
-  </si>
-  <si>
-    <t>(0.997071948134266+0.002158372558643628j)</t>
-  </si>
-  <si>
-    <t>(0.9955703993781452+0.0032919886088639385j)</t>
-  </si>
-  <si>
-    <t>(0.9940884527477271+0.004424157856879062j)</t>
-  </si>
-  <si>
-    <t>(0.993143338584618+0.005096101088359204j)</t>
-  </si>
-  <si>
-    <t>(0.9930801915837463+0.005002051199219946j)</t>
-  </si>
-  <si>
-    <t>(0.9939569526448073+0.0040902765827128375j)</t>
-  </si>
-  <si>
-    <t>(0.9949010356231094+0.003139405512651834j)</t>
-  </si>
-  <si>
-    <t>(0.9962625175973574+0.0018362951598619906j)</t>
-  </si>
-  <si>
-    <t>(0.9972481625330979+0.0008954209024656175j)</t>
-  </si>
-  <si>
-    <t>(0.9978070435444277+0.0003646414790938821j)</t>
-  </si>
-  <si>
-    <t>(1.0030518999340536-0.0029413046955832542j)</t>
-  </si>
-  <si>
-    <t>(1.0065053078286346-0.006215597805696211j)</t>
-  </si>
-  <si>
-    <t>(1.0088614900847703-0.008592682431774716j)</t>
-  </si>
-  <si>
-    <t>(1.0106991341743727-0.010532877849034788j)</t>
-  </si>
-  <si>
-    <t>(1.0128173102450264-0.012693998902754931j)</t>
-  </si>
-  <si>
-    <t>(1.0157407550354645-0.015515714114650678j)</t>
-  </si>
-  <si>
-    <t>(1.0195543278263113-0.019072262774011438j)</t>
-  </si>
-  <si>
-    <t>(1.0229512427470293-0.022238813412805324j)</t>
-  </si>
-  <si>
-    <t>(1.0264581155204304-0.025466954134294915j)</t>
-  </si>
-  <si>
-    <t>(1.0289054464563363-0.027723623184798506j)</t>
-  </si>
-  <si>
-    <t>(1.0302245348429535-0.028939260097563053j)</t>
-  </si>
-  <si>
-    <t>(1.0077460685122541-0.006877614512603096j)</t>
-  </si>
-  <si>
-    <t>(1.0156727520245858-0.013909944332345107j)</t>
-  </si>
-  <si>
-    <t>(1.0217194824059177-0.019543703271177992j)</t>
-  </si>
-  <si>
-    <t>(1.0266986743504103-0.02435094291071038j)</t>
-  </si>
-  <si>
-    <t>(1.0317068731210743-0.02916026624204945j)</t>
-  </si>
-  <si>
-    <t>(1.0374556930943906-0.034528144691485664j)</t>
-  </si>
-  <si>
-    <t>(1.044059094758706-0.04054785014330152j)</t>
-  </si>
-  <si>
-    <t>(1.049779232995219-0.04578047633276485j)</t>
-  </si>
-  <si>
-    <t>(1.0553223521040698-0.05080099241145473j)</t>
-  </si>
-  <si>
-    <t>(1.0591539519371884-0.05428381000482175j)</t>
-  </si>
-  <si>
-    <t>(1.0611924680227662-0.05613771017166315j)</t>
-  </si>
-  <si>
-    <t>(0.9884180744184305+0.01134233652744067j)</t>
-  </si>
-  <si>
-    <t>(0.9778274523656335+0.02164982828240885j)</t>
-  </si>
-  <si>
-    <t>(0.9682149029458784+0.03086301147833957j)</t>
-  </si>
-  <si>
-    <t>(0.9596127187428262+0.039016286176529795j)</t>
-  </si>
-  <si>
-    <t>(0.952056221390549+0.04614500496983649j)</t>
-  </si>
-  <si>
-    <t>(0.9455725125663282+0.05226940054122641j)</t>
-  </si>
-  <si>
-    <t>(0.9401767918483666+0.057393994361573046j)</t>
-  </si>
-  <si>
-    <t>(0.9358525105139307+0.061490840779413136j)</t>
-  </si>
-  <si>
-    <t>(0.9326201571380601+0.06457547032884188j)</t>
-  </si>
-  <si>
-    <t>(0.930463098163316+0.06663037036112768j)</t>
-  </si>
-  <si>
-    <t>(0.9293851366561867+0.06765825316454548j)</t>
-  </si>
-  <si>
-    <t>(0.9942962207264813+0.005161159412116555j)</t>
-  </si>
-  <si>
-    <t>(0.9893591924093745+0.009597342964226622j)</t>
-  </si>
-  <si>
-    <t>(0.9846310032830851+0.013843559021799975j)</t>
-  </si>
-  <si>
-    <t>(0.9803303860854264+0.017696890665059282j)</t>
-  </si>
-  <si>
-    <t>(0.9767679796547982+0.020871121941511604j)</t>
-  </si>
-  <si>
-    <t>(0.9741536776320067+0.023175890542162833j)</t>
-  </si>
-  <si>
-    <t>(0.9725266099520858+0.024579059748557442j)</t>
-  </si>
-  <si>
-    <t>(0.9713685919102539+0.025564438657705895j)</t>
-  </si>
-  <si>
-    <t>(0.9708913436006122+0.025937332440434235j)</t>
-  </si>
-  <si>
-    <t>(0.970619799462946+0.026141266752159293j)</t>
-  </si>
-  <si>
-    <t>(0.9705237217111855+0.02620580869210545j)</t>
-  </si>
-  <si>
-    <t>(1.0002041685405754-0.0003239332517896197j)</t>
-  </si>
-  <si>
-    <t>(1.0009272445164892-0.0011026086612834797j)</t>
-  </si>
-  <si>
-    <t>(1.00100413509348-0.0012980042305365514j)</t>
-  </si>
-  <si>
-    <t>(1.0008818942155455-0.0013074293596267773j)</t>
-  </si>
-  <si>
-    <t>(1.001184902731939-0.001688058657137361j)</t>
-  </si>
-  <si>
-    <t>(1.0023261903473353-0.002809702570332435j)</t>
-  </si>
-  <si>
-    <t>(1.0043738687971198-0.00473542042632306j)</t>
-  </si>
-  <si>
-    <t>(1.006292763638519-0.0065347354730683985j)</t>
-  </si>
-  <si>
-    <t>(1.0084992821084175-0.008584052020316387j)</t>
-  </si>
-  <si>
-    <t>(1.01005983821885-0.010034114564917035j)</t>
-  </si>
-  <si>
-    <t>(1.0109170774095813-0.01083025622863595j)</t>
-  </si>
-  <si>
-    <t>(1.006009720914352-0.005250688883408083j)</t>
-  </si>
-  <si>
-    <t>(1.0122810153209352-0.010720970362009167j)</t>
-  </si>
-  <si>
-    <t>(1.0170150639923234-0.014950143768979938j)</t>
-  </si>
-  <si>
-    <t>(1.020908468199121-0.018490601942291192j)</t>
-  </si>
-  <si>
-    <t>(1.0249168087789187-0.02212554261146153j)</t>
-  </si>
-  <si>
-    <t>(1.029664739682369-0.02637702791179003j)</t>
-  </si>
-  <si>
-    <t>(1.0352518680145775-0.03133387595216261j)</t>
-  </si>
-  <si>
-    <t>(1.0401272412225284-0.03567194829277663j)</t>
-  </si>
-  <si>
-    <t>(1.0449161385317134-0.039925168901659994j)</t>
-  </si>
-  <si>
-    <t>(1.0482364231651176-0.04288154094180097j)</t>
-  </si>
-  <si>
-    <t>(1.050008748385575-0.044461577993127756j)</t>
-  </si>
-  <si>
-    <t>(1.0116559961656537-0.009736092620796897j)</t>
-  </si>
-  <si>
-    <t>(1.0233143804134495-0.019485802377147768j)</t>
-  </si>
-  <si>
-    <t>(1.032535786795227-0.027431609004747025j)</t>
-  </si>
-  <si>
-    <t>(1.0402757906276463-0.03424820370334401j)</t>
-  </si>
-  <si>
-    <t>(1.047826976348029-0.04090777586003982j)</t>
-  </si>
-  <si>
-    <t>(1.0560276380644165-0.04806237708493716j)</t>
-  </si>
-  <si>
-    <t>(1.0650099538652085-0.05582229216718186j)</t>
-  </si>
-  <si>
-    <t>(1.0727163085628335-0.06251166934152289j)</t>
-  </si>
-  <si>
-    <t>(1.0799801851044084-0.06880240212658419j)</t>
-  </si>
-  <si>
-    <t>(1.084984789997438-0.07315291042793559j)</t>
-  </si>
-  <si>
-    <t>(1.0876325568683127-0.07545861954104234j)</t>
-  </si>
-  <si>
-    <t>(0.9884280565705293+0.011296135241094034j)</t>
-  </si>
-  <si>
-    <t>(0.9778597883510464+0.021545747431492318j)</t>
-  </si>
-  <si>
-    <t>(0.9683322288471908+0.030672944054892532j)</t>
-  </si>
-  <si>
-    <t>(0.9598442434601718+0.03872675721275613j)</t>
-  </si>
-  <si>
-    <t>(0.9524008584460018+0.04575225404775604j)</t>
-  </si>
-  <si>
-    <t>(0.9460132944436963+0.05177274563073339j)</t>
-  </si>
-  <si>
-    <t>(0.9406929949126172+0.056793148791281355j)</t>
-  </si>
-  <si>
-    <t>(0.9364374435954492+0.06079425971985285j)</t>
-  </si>
-  <si>
-    <t>(0.9332564445636515+0.0637908686997741j)</t>
-  </si>
-  <si>
-    <t>(0.9311370110137687+0.0657822315533501j)</t>
-  </si>
-  <si>
-    <t>(0.9300787216060018+0.0667758610587455j)</t>
-  </si>
-  <si>
-    <t>(0.9952674554070218+0.004271241406629748j)</t>
-  </si>
-  <si>
-    <t>(0.9912530540193121+0.007857151423245005j)</t>
-  </si>
-  <si>
-    <t>(0.9873039472670879+0.01139880435434473j)</t>
-  </si>
-  <si>
-    <t>(0.9836765987928534+0.014649635767085441j)</t>
-  </si>
-  <si>
-    <t>(0.9807312689265529+0.01726551516915813j)</t>
-  </si>
-  <si>
-    <t>(0.9787094280164715+0.0190184061057295j)</t>
-  </si>
-  <si>
-    <t>(0.9776549069050291+0.019869439448691815j)</t>
-  </si>
-  <si>
-    <t>(0.9769731575370967+0.020391330869355132j)</t>
-  </si>
-  <si>
-    <t>(0.9769069074463549+0.02035225067399158j)</t>
-  </si>
-  <si>
-    <t>(0.976914916154547+0.02027467579852127j)</t>
-  </si>
-  <si>
-    <t>(0.9769637877580185+0.020192151536679918j)</t>
-  </si>
-  <si>
-    <t>(1.0021606879854854-0.0019176819539238384j)</t>
-  </si>
-  <si>
-    <t>(1.0047402624693471-0.004212027609085768j)</t>
-  </si>
-  <si>
-    <t>(1.0063618869717508-0.005664932365576119j)</t>
-  </si>
-  <si>
-    <t>(1.007560901538576-0.00674877848012219j)</t>
-  </si>
-  <si>
-    <t>(1.0090736332029444-0.008119085991894995j)</t>
-  </si>
-  <si>
-    <t>(1.0113832866400492-0.010209112819392574j)</t>
-  </si>
-  <si>
-    <t>(1.0145688473571046-0.013093151881383113j)</t>
-  </si>
-  <si>
-    <t>(1.017433033579223-0.015693370183514983j)</t>
-  </si>
-  <si>
-    <t>(1.0204596437509186-0.018448143406670253j)</t>
-  </si>
-  <si>
-    <t>(1.022577313739403-0.02037908820304812j)</t>
-  </si>
-  <si>
-    <t>(1.0237235141160481-0.021425770016791926j)</t>
-  </si>
-  <si>
-    <t>(1.0089388663681242-0.00743470453276604j)</t>
-  </si>
-  <si>
-    <t>(1.0179969176432193-0.01497994802125946j)</t>
-  </si>
-  <si>
-    <t>(1.0250756574780804-0.020949544720574507j)</t>
-  </si>
-  <si>
-    <t>(1.030991275672179-0.025987753009376228j)</t>
-  </si>
-  <si>
-    <t>(1.036856326751037-0.031000859984605337j)</t>
-  </si>
-  <si>
-    <t>(1.0433952743451245-0.03659125625811407j)</t>
-  </si>
-  <si>
-    <t>(1.0507227172752338-0.04286208104348601j)</t>
-  </si>
-  <si>
-    <t>(1.0570473480382616-0.048298429888436904j)</t>
-  </si>
-  <si>
-    <t>(1.0630923369382272-0.05351374406395328j)</t>
-  </si>
-  <si>
-    <t>(1.0672673727996012-0.057126336847662634j)</t>
-  </si>
-  <si>
-    <t>(1.06948331953903-0.059048070196579074j)</t>
-  </si>
-  <si>
-    <t>(1.015528326354509-0.012422169188550764j)</t>
-  </si>
-  <si>
-    <t>(1.0308819100231108-0.024722252513102023j)</t>
-  </si>
-  <si>
-    <t>(1.0432587914755371-0.03482849187612946j)</t>
-  </si>
-  <si>
-    <t>(1.0537495404499748-0.043516549931269875j)</t>
-  </si>
-  <si>
-    <t>(1.0638340161794-0.05189756174193871j)</t>
-  </si>
-  <si>
-    <t>(1.0744721919437514-0.060715567042765255j)</t>
-  </si>
-  <si>
-    <t>(1.0858136848250528-0.07009752152971134j)</t>
-  </si>
-  <si>
-    <t>(1.0954901088222513-0.07814369731425731j)</t>
-  </si>
-  <si>
-    <t>(1.1044579861960186-0.08561847226350454j)</t>
-  </si>
-  <si>
-    <t>(1.110624487298292-0.09077738305963327j)</t>
-  </si>
-  <si>
-    <t>(1.113875657096013-0.09350399598105662j)</t>
-  </si>
-  <si>
-    <t>(0.9884414364143412+0.011226543870218635j)</t>
-  </si>
-  <si>
-    <t>(0.9779039087508421+0.021395757054191j)</t>
-  </si>
-  <si>
-    <t>(0.968486060839811+0.030410994021657083j)</t>
-  </si>
-  <si>
-    <t>(0.9601449802767582+0.038338690734443306j)</t>
-  </si>
-  <si>
-    <t>(0.9528483843891009+0.04523605523636987j)</t>
-  </si>
-  <si>
-    <t>(0.9465881780582618+0.051130614229442053j)</t>
-  </si>
-  <si>
-    <t>(0.9413711875589785+0.056027828780166135j)</t>
-  </si>
-  <si>
-    <t>(0.93721006692033+0.05991665760848873j)</t>
-  </si>
-  <si>
-    <t>(0.9341020343365064+0.06281176294234794j)</t>
-  </si>
-  <si>
-    <t>(0.9320359577996403+0.06473001828744546j)</t>
-  </si>
-  <si>
-    <t>(0.9310057184574608+0.06568436645334777j)</t>
-  </si>
-  <si>
-    <t>(0.9962301061673643+0.003406475108204664j)</t>
-  </si>
-  <si>
-    <t>(0.993128622247759+0.006166803797644476j)</t>
-  </si>
-  <si>
-    <t>(0.9899441429630563+0.009028735308849267j)</t>
-  </si>
-  <si>
-    <t>(0.986973606567482+0.011701067790334075j)</t>
-  </si>
-  <si>
-    <t>(0.9846292347528534+0.013781332776952046j)</t>
-  </si>
-  <si>
-    <t>(0.9831852632162122+0.015003830562737902j)</t>
-  </si>
-  <si>
-    <t>(0.9826905651330502+0.01532296453911051j)</t>
-  </si>
-  <si>
-    <t>(0.982473810777634+0.015398850130758637j)</t>
-  </si>
-  <si>
-    <t>(0.9828094305841625+0.014962879993618452j)</t>
-  </si>
-  <si>
-    <t>(0.9830904861772161+0.014614343762328506j)</t>
-  </si>
-  <si>
-    <t>(0.9832808993096867+0.014390300726949698j)</t>
-  </si>
-  <si>
-    <t>(1.0040971923995974-0.003441456803391161j)</t>
-  </si>
-  <si>
-    <t>(1.008510177221594-0.007183995085817656j)</t>
-  </si>
-  <si>
-    <t>(1.0116439950283294-0.009830439520837937j)</t>
-  </si>
-  <si>
-    <t>(1.0141276737720415-0.011929049118397941j)</t>
-  </si>
-  <si>
-    <t>(1.0168137412283553-0.014233310081761107j)</t>
-  </si>
-  <si>
-    <t>(1.0202575796998985-0.017239214854531594j)</t>
-  </si>
-  <si>
-    <t>(1.0245496692313008-0.021032160165250967j)</t>
-  </si>
-  <si>
-    <t>(1.0283312080540186-0.024391131143830815j)</t>
-  </si>
-  <si>
-    <t>(1.0321542824210344-0.027815196610288025j)</t>
-  </si>
-  <si>
-    <t>(1.0348122364750698-0.030201936993270034j)</t>
-  </si>
-  <si>
-    <t>(1.036238516392887-0.03148602849784181j)</t>
-  </si>
-  <si>
-    <t>(1.0118369967751126-0.009506372532767971j)</t>
-  </si>
-  <si>
-    <t>(1.0236488135565747-0.019018367265031918j)</t>
-  </si>
-  <si>
-    <t>(1.0330377784166807-0.026629071631110578j)</t>
-  </si>
-  <si>
-    <t>(1.0409411877563532-0.03307418632421294j)</t>
-  </si>
-  <si>
-    <t>(1.0486289324383786-0.039380847768025036j)</t>
-  </si>
-  <si>
-    <t>(1.0569251357980256-0.046229836150058226j)</t>
-  </si>
-  <si>
-    <t>(1.065959604269541-0.05373834983240419j)</t>
-  </si>
-  <si>
-    <t>(1.0737043676369105-0.0602083286224464j)</t>
-  </si>
-  <si>
-    <t>(1.080979713403991-0.0663301680900365j)</t>
-  </si>
-  <si>
-    <t>(1.0859914681054812-0.07056065048380925j)</t>
-  </si>
-  <si>
-    <t>(1.088641524848957-0.07280407422862574j)</t>
-  </si>
-  <si>
-    <t>(1.0193588591687548-0.014955392257971134j)</t>
-  </si>
-  <si>
-    <t>(1.038367097064387-0.029657973751133455j)</t>
-  </si>
-  <si>
-    <t>(1.053874722330145-0.04179029497642142j)</t>
-  </si>
-  <si>
-    <t>(1.0671001311277206-0.05222761080230578j)</t>
-  </si>
-  <si>
-    <t>(1.0797026392940166-0.06221603488653826j)</t>
-  </si>
-  <si>
-    <t>(1.0927594058600612-0.07258850453645513j)</t>
-  </si>
-  <si>
-    <t>(1.1064368105053672-0.08348834979533495j)</t>
-  </si>
-  <si>
-    <t>(1.1180641154572635-0.09280327756788437j)</t>
-  </si>
-  <si>
-    <t>(1.1287170482344224-0.10138631676093353j)</t>
-  </si>
-  <si>
-    <t>(1.1360327788300804-0.10730150321351332j)</t>
-  </si>
-  <si>
-    <t>(1.1398807040901648-0.11042185748423802j)</t>
-  </si>
-  <si>
-    <t>(0.9884588942498349+0.011136020407129953j)</t>
-  </si>
-  <si>
-    <t>(0.9779605888354639+0.021204862792592708j)</t>
-  </si>
-  <si>
-    <t>(0.9686754628364513+0.030085829332100585j)</t>
-  </si>
-  <si>
-    <t>(0.9605113620832715+0.03786485679472915j)</t>
-  </si>
-  <si>
-    <t>(0.9533924428711908+0.04461311443680542j)</t>
-  </si>
-  <si>
-    <t>(0.9472882461255664+0.050363175286916036j)</t>
-  </si>
-  <si>
-    <t>(0.9422002219077212+0.05512112975633425j)</t>
-  </si>
-  <si>
-    <t>(0.9381571373052631+0.05888373184420306j)</t>
-  </si>
-  <si>
-    <t>(0.9351419547862203+0.06166593462080054j)</t>
-  </si>
-  <si>
-    <t>(0.9331436940301966+0.06350301111785747j)</t>
-  </si>
-  <si>
-    <t>(0.9321492042664361+0.06441383880862683j)</t>
-  </si>
-  <si>
-    <t>(0.9971845908587141+0.0025653477491073538j)</t>
-  </si>
-  <si>
-    <t>(0.9949868388756077+0.004523214747123385j)</t>
-  </si>
-  <si>
-    <t>(0.9925534534437053+0.006728353119375871j)</t>
-  </si>
-  <si>
-    <t>(0.9902243725213835+0.008844160667410403j)</t>
-  </si>
-  <si>
-    <t>(0.9884659269077221+0.010409579761658015j)</t>
-  </si>
-  <si>
-    <t>(0.9875862040784356+0.011121331139222791j)</t>
-  </si>
-  <si>
-    <t>(0.9876394295069848+0.010927111767006123j)</t>
-  </si>
-  <si>
-    <t>(0.987877129212324+0.010572978890451206j)</t>
-  </si>
-  <si>
-    <t>(0.9886060660558352+0.009753927160820594j)</t>
-  </si>
-  <si>
-    <t>(0.989154073964208+0.009144071284628606j)</t>
-  </si>
-  <si>
-    <t>(0.9894828351024497+0.008783577804311122j)</t>
-  </si>
-  <si>
-    <t>(1.006013360571182-0.004901168620120839j)</t>
-  </si>
-  <si>
-    <t>(1.0122367506380394-0.010030304553897567j)</t>
-  </si>
-  <si>
-    <t>(1.0168513902076626-0.013812522645851958j)</t>
-  </si>
-  <si>
-    <t>(1.0205848713410748-0.016872386902859658j)</t>
-  </si>
-  <si>
-    <t>(1.0244097317989196-0.02006073191098884j)</t>
-  </si>
-  <si>
-    <t>(1.0289553073009805-0.023935493375093757j)</t>
-  </si>
-  <si>
-    <t>(1.0343241253572841-0.02859301743979725j)</t>
-  </si>
-  <si>
-    <t>(1.0389965253537934-0.0326730019463178j)</t>
-  </si>
-  <si>
-    <t>(1.0435936457901565-0.03673395351097774j)</t>
-  </si>
-  <si>
-    <t>(1.0467759377292052-0.03955403892076445j)</t>
-  </si>
-  <si>
-    <t>(1.0484738855417992-0.04106379455242533j)</t>
-  </si>
-  <si>
-    <t>(1.0147028516269891-0.01147644827234482j)</t>
-  </si>
-  <si>
-    <t>(1.0292345611826816-0.02285754291292193j)</t>
-  </si>
-  <si>
-    <t>(1.0408988508029824-0.03202017789021399j)</t>
-  </si>
-  <si>
-    <t>(1.050755500551692-0.039790911077353205j)</t>
-  </si>
-  <si>
-    <t>(1.0602320168940038-0.0473155413716215j)</t>
-  </si>
-  <si>
-    <t>(1.070252000994186-0.055351406721714715j)</t>
-  </si>
-  <si>
-    <t>(1.0809606582895317-0.06402950087324465j)</t>
-  </si>
-  <si>
-    <t>(1.0900969113931476-0.07147546457482311j)</t>
-  </si>
-  <si>
-    <t>(1.0985773987393526-0.07845429379866248j)</t>
-  </si>
-  <si>
-    <t>(1.104408226898944-0.08326852167127335j)</t>
-  </si>
-  <si>
-    <t>(1.1074830964668942-0.08581582195240135j)</t>
-  </si>
-  <si>
-    <t>(1.0231453640000305-0.01735172561841907j)</t>
-  </si>
-  <si>
-    <t>(1.0457655873963958-0.034324527449949856j)</t>
-  </si>
-  <si>
-    <t>(1.0643758542543056-0.0483627016198661j)</t>
-  </si>
-  <si>
-    <t>(1.080316008283078-0.06043992146930209j)</t>
-  </si>
-  <si>
-    <t>(1.0954177724838596-0.07193382184499893j)</t>
-  </si>
-  <si>
-    <t>(1.1108714164459912-0.08376353002981243j)</t>
-  </si>
-  <si>
-    <t>(1.1268594859361833-0.09608848576676562j)</t>
-  </si>
-  <si>
-    <t>(1.1404167665984233-0.1065937658626959j)</t>
-  </si>
-  <si>
-    <t>(1.152734671091562-0.11621768524950267j)</t>
-  </si>
-  <si>
-    <t>(1.161186141773888-0.12284280200603577j)</t>
-  </si>
-  <si>
-    <t>(1.1656237563210685-0.12633275477103767j)</t>
-  </si>
-  <si>
-    <t>(0.9884809616220127+0.011026650092610547j)</t>
-  </si>
-  <si>
-    <t>(0.9780304100677735+0.020977293904261382j)</t>
-  </si>
-  <si>
-    <t>(0.9688995778593218+0.029704664776110588j)</t>
-  </si>
-  <si>
-    <t>(0.9609403358609407+0.037315779125494816j)</t>
-  </si>
-  <si>
-    <t>(0.9540276552752118+0.04389712619802319j)</t>
-  </si>
-  <si>
-    <t>(0.9481059837073854+0.049486925360912155j)</t>
-  </si>
-  <si>
-    <t>(0.9431707202795784+0.05409193472990952j)</t>
-  </si>
-  <si>
-    <t>(0.9392675279978719+0.05771648374689362j)</t>
-  </si>
-  <si>
-    <t>(0.9363636352854203+0.06037609338747701j)</t>
-  </si>
-  <si>
-    <t>(0.9344465860249719+0.06212514625960329j)</t>
-  </si>
-  <si>
-    <t>(0.9334949786832012+0.06298886019532766j)</t>
-  </si>
-  <si>
-    <t>(0.998131224263254+0.0017465370704747238j)</t>
-  </si>
-  <si>
-    <t>(0.9968284251177495+0.002923693840576088j)</t>
-  </si>
-  <si>
-    <t>(0.995133343272772+0.0044933309950371805j)</t>
-  </si>
-  <si>
-    <t>(0.9934312579473656+0.0060728662932539625j)</t>
-  </si>
-  <si>
-    <t>(0.9922445954659658+0.007142538279676599j)</t>
-  </si>
-  <si>
-    <t>(0.9919162958512915+0.007361628064072937j)</t>
-  </si>
-  <si>
-    <t>(0.9925062206792769+0.006671159652020999j)</t>
-  </si>
-  <si>
-    <t>(0.9931884358048209+0.005901723192828812j)</t>
-  </si>
-  <si>
-    <t>(0.9943026109365406+0.004712309579529345j)</t>
-  </si>
-  <si>
-    <t>(0.9951118161249968+0.0038500034337860443j)</t>
-  </si>
-  <si>
-    <t>(0.9955759088431678+0.00335771955053376j)</t>
-  </si>
-  <si>
-    <t>(1.0079090740142256-0.006301821634198865j)</t>
-  </si>
-  <si>
-    <t>(1.0159200793976708-0.012760926738525554j)</t>
-  </si>
-  <si>
-    <t>(1.0219852793638262-0.01762634033887164j)</t>
-  </si>
-  <si>
-    <t>(1.026935268704722-0.02159906690919166j)</t>
-  </si>
-  <si>
-    <t>(1.0318660361094205-0.025626492636521156j)</t>
-  </si>
-  <si>
-    <t>(1.037482459913753-0.030327651185286367j)</t>
-  </si>
-  <si>
-    <t>(1.0438996116449206-0.03580966622024627j)</t>
-  </si>
-  <si>
-    <t>(1.0494376830354104-0.04057659734708217j)</t>
-  </si>
-  <si>
-    <t>(1.0547875224772112-0.04524516121230575j)</t>
-  </si>
-  <si>
-    <t>(1.0584790004205082-0.04847833640387591j)</t>
-  </si>
-  <si>
-    <t>(1.0604406265833988-0.05020316376862908j)</t>
-  </si>
-  <si>
-    <t>(1.0175358306923377-0.013353895480896789j)</t>
-  </si>
-  <si>
-    <t>(1.0347532659946166-0.02651522158441402j)</t>
-  </si>
-  <si>
-    <t>(1.0486580416238218-0.03714901778030061j)</t>
-  </si>
-  <si>
-    <t>(1.0604336735601383-0.04617198985332895j)</t>
-  </si>
-  <si>
-    <t>(1.0716654937014907-0.05484646310008763j)</t>
-  </si>
-  <si>
-    <t>(1.0833763748011842-0.06400459295493074j)</t>
-  </si>
-  <si>
-    <t>(1.09572709123393-0.07379090459291489j)</t>
-  </si>
-  <si>
-    <t>(1.1062268743542951-0.08216097753961095j)</t>
-  </si>
-  <si>
-    <t>(1.1158879594703965-0.08995222768651737j)</t>
-  </si>
-  <si>
-    <t>(1.1225207035764648-0.09531950264105161j)</t>
-  </si>
-  <si>
-    <t>(1.1260113536553191-0.09815466899089503j)</t>
-  </si>
-  <si>
-    <t>(1.0268868073804762-0.019624307948363808j)</t>
-  </si>
-  <si>
-    <t>(1.0530753876651169-0.03874786992707672j)</t>
-  </si>
-  <si>
-    <t>(1.0747581835309397-0.054583289010515464j)</t>
-  </si>
-  <si>
-    <t>(1.0933907401759821-0.06820164007400244j)</t>
-  </si>
-  <si>
-    <t>(1.1109707683726722-0.08110902175006506j)</t>
-  </si>
-  <si>
-    <t>(1.1287979195368167-0.09430834524040975j)</t>
-  </si>
-  <si>
-    <t>(1.1470703720458433-0.10797491909481514j)</t>
-  </si>
-  <si>
-    <t>(1.162535817553306-0.11960002856376684j)</t>
-  </si>
-  <si>
-    <t>(1.1764981016383267-0.13020427974820328j)</t>
-  </si>
-  <si>
-    <t>(1.1860714424195424-0.137497688958554j)</t>
-  </si>
-  <si>
-    <t>(1.1910914898848515-0.1413355547716382j)</t>
+    <t>(0.9891764323854504+0.011926427244400455j)</t>
+  </si>
+  <si>
+    <t>(0.9792364200077551+0.022808755738637294j)</t>
+  </si>
+  <si>
+    <t>(0.9702018139533026+0.03263445684633375j)</t>
+  </si>
+  <si>
+    <t>(0.9621557002015938+0.041424885573505786j)</t>
+  </si>
+  <si>
+    <t>(0.9550072770091643+0.04911598197153899j)</t>
+  </si>
+  <si>
+    <t>(0.9487212932626701+0.05567980906928265j)</t>
+  </si>
+  <si>
+    <t>(0.9434525670842727+0.06116302132442473j)</t>
+  </si>
+  <si>
+    <t>(0.9393278627538799+0.06559207721415035j)</t>
+  </si>
+  <si>
+    <t>(0.9362238077189604+0.06891889518689157j)</t>
+  </si>
+  <si>
+    <t>(0.9342084448751843+0.07115413105551233j)</t>
+  </si>
+  <si>
+    <t>(0.9331197128803622+0.07225386125287932j)</t>
+  </si>
+  <si>
+    <t>(0.989494675856775+0.012195142057121676j)</t>
+  </si>
+  <si>
+    <t>(0.9798676616013744+0.023319981487156395j)</t>
+  </si>
+  <si>
+    <t>(0.9711395387430296+0.033368987152105525j)</t>
+  </si>
+  <si>
+    <t>(0.9633329453748711+0.04230147757585472j)</t>
+  </si>
+  <si>
+    <t>(0.9564592939381493+0.05017509202792078j)</t>
+  </si>
+  <si>
+    <t>(0.9505316995814119+0.05701855302262459j)</t>
+  </si>
+  <si>
+    <t>(0.9455705314699849+0.06273743893377519j)</t>
+  </si>
+  <si>
+    <t>(0.9415921594987687+0.06724637906036739j)</t>
+  </si>
+  <si>
+    <t>(0.9386000250995542+0.07063320348999631j)</t>
+  </si>
+  <si>
+    <t>(0.9366037378629952+0.07285007353873524j)</t>
+  </si>
+  <si>
+    <t>(0.9356011123544814+0.07401906374668857j)</t>
+  </si>
+  <si>
+    <t>(0.9894410479911829+0.012414170853382499j)</t>
+  </si>
+  <si>
+    <t>(0.97978494747901+0.02376374885846325j)</t>
+  </si>
+  <si>
+    <t>(0.9710520475489838+0.03404256938080088j)</t>
+  </si>
+  <si>
+    <t>(0.9632224178024098+0.04315334961839231j)</t>
+  </si>
+  <si>
+    <t>(0.9563795905008545+0.05124907538367166j)</t>
+  </si>
+  <si>
+    <t>(0.9505713503378993+0.05840374009278364j)</t>
+  </si>
+  <si>
+    <t>(0.9457193850217648+0.06439390762870847j)</t>
+  </si>
+  <si>
+    <t>(0.9417560104364694+0.06902582215365718j)</t>
+  </si>
+  <si>
+    <t>(0.9387780329160501+0.07250838658734897j)</t>
+  </si>
+  <si>
+    <t>(0.9367493605857686+0.07473521090106486j)</t>
+  </si>
+  <si>
+    <t>(0.9357897465571081+0.0759850791408813j)</t>
+  </si>
+  <si>
+    <t>(0.9891651574776096+0.01250937654793323j)</t>
+  </si>
+  <si>
+    <t>(0.9792738163666067+0.023984919446551164j)</t>
+  </si>
+  <si>
+    <t>(0.9703471041462479+0.034415946768536106j)</t>
+  </si>
+  <si>
+    <t>(0.9623336487133441+0.043654531517762j)</t>
+  </si>
+  <si>
+    <t>(0.9553712625549728+0.05192983012387156j)</t>
+  </si>
+  <si>
+    <t>(0.94953427370745+0.05935266887809642j)</t>
+  </si>
+  <si>
+    <t>(0.9446679831335313+0.06558325886202282j)</t>
+  </si>
+  <si>
+    <t>(0.9406374329567857+0.07032602708994924j)</t>
+  </si>
+  <si>
+    <t>(0.9376122053455807+0.07389714899120634j)</t>
+  </si>
+  <si>
+    <t>(0.9355187582316223+0.07613400006058986j)</t>
+  </si>
+  <si>
+    <t>(0.9345748986750452+0.07746024571936526j)</t>
+  </si>
+  <si>
+    <t>(0.9887657448237969+0.012474079329906556j)</t>
+  </si>
+  <si>
+    <t>(0.9785248441258831+0.023964223170394695j)</t>
+  </si>
+  <si>
+    <t>(0.9692996354872077+0.03445314104670713j)</t>
+  </si>
+  <si>
+    <t>(0.9610145720001039+0.04374738078368225j)</t>
+  </si>
+  <si>
+    <t>(0.9538496652482722+0.05213850978462919j)</t>
+  </si>
+  <si>
+    <t>(0.947900320064136+0.05976807099583059j)</t>
+  </si>
+  <si>
+    <t>(0.9429500909100398+0.06619067354126854j)</t>
+  </si>
+  <si>
+    <t>(0.9388076571751603+0.0710154027895638j)</t>
+  </si>
+  <si>
+    <t>(0.9357018322923231+0.07465452043860539j)</t>
+  </si>
+  <si>
+    <t>(0.9335269696247034+0.07689186488555055j)</t>
+  </si>
+  <si>
+    <t>(0.9325833482686103+0.07828529012091819j)</t>
+  </si>
+  <si>
+    <t>(0.9893415066672337+0.01197900286593526j)</t>
+  </si>
+  <si>
+    <t>(0.9795573342945197+0.02289340852383673j)</t>
+  </si>
+  <si>
+    <t>(0.9706688288793829+0.03273609854400134j)</t>
+  </si>
+  <si>
+    <t>(0.9627422189613121+0.04151518479780729j)</t>
+  </si>
+  <si>
+    <t>(0.9557150321695113+0.04920128865931882j)</t>
+  </si>
+  <si>
+    <t>(0.9495650536036683+0.055781988194284295j)</t>
+  </si>
+  <si>
+    <t>(0.9444111790738087+0.061274377221038595j)</t>
+  </si>
+  <si>
+    <t>(0.9403518078021861+0.06568518332546666j)</t>
+  </si>
+  <si>
+    <t>(0.9372970030506598+0.06899638848690091j)</t>
+  </si>
+  <si>
+    <t>(0.9353001758216932+0.07120943601662387j)</t>
+  </si>
+  <si>
+    <t>(0.934240000552252+0.07231188280621496j)</t>
+  </si>
+  <si>
+    <t>(0.9904308075091913+0.010895980797638753j)</t>
+  </si>
+  <si>
+    <t>(0.9816878049301724+0.02081503482830746j)</t>
+  </si>
+  <si>
+    <t>(0.9737866413277837+0.029753994750614646j)</t>
+  </si>
+  <si>
+    <t>(0.9667185030858537+0.037707776790358395j)</t>
+  </si>
+  <si>
+    <t>(0.9605365292165983+0.04467824434813473j)</t>
+  </si>
+  <si>
+    <t>(0.9552734000135333+0.050666624402903766j)</t>
+  </si>
+  <si>
+    <t>(0.950879447391537+0.05566181473000942j)</t>
+  </si>
+  <si>
+    <t>(0.9473088097120842+0.059651844594740475j)</t>
+  </si>
+  <si>
+    <t>(0.9446270470286219+0.0626460091250549j)</t>
+  </si>
+  <si>
+    <t>(0.9428089034772883+0.06463705931627119j)</t>
+  </si>
+  <si>
+    <t>(0.9419385450779842+0.06564114906863196j)</t>
+  </si>
+  <si>
+    <t>(0.9913967766697066+0.009809097173551835j)</t>
+  </si>
+  <si>
+    <t>(0.983580086708992+0.01874054582740233j)</t>
+  </si>
+  <si>
+    <t>(0.9765605541599485+0.026792092811037976j)</t>
+  </si>
+  <si>
+    <t>(0.9702610831268293+0.03394649181744457j)</t>
+  </si>
+  <si>
+    <t>(0.9648399343321645+0.040228303545507986j)</t>
+  </si>
+  <si>
+    <t>(0.9603802061751098+0.045648750750497555j)</t>
+  </si>
+  <si>
+    <t>(0.9566765148340315+0.05017090298049605j)</t>
+  </si>
+  <si>
+    <t>(0.953548033447896+0.05376354432536086j)</t>
+  </si>
+  <si>
+    <t>(0.9512044679577916+0.05645960497352554j)</t>
+  </si>
+  <si>
+    <t>(0.9495463788818611+0.05824212071979876j)</t>
+  </si>
+  <si>
+    <t>(0.94885059162008+0.059154877124924725j)</t>
+  </si>
+  <si>
+    <t>(0.9922919329741011+0.008706480741696172j)</t>
+  </si>
+  <si>
+    <t>(0.9853340850905807+0.016642759640748808j)</t>
+  </si>
+  <si>
+    <t>(0.9791327967541261+0.02380578477045089j)</t>
+  </si>
+  <si>
+    <t>(0.9735472564602936+0.030166785131495743j)</t>
+  </si>
+  <si>
+    <t>(0.9688344383483887+0.03576805620750597j)</t>
+  </si>
+  <si>
+    <t>(0.9651251092681045+0.04062880654552912j)</t>
+  </si>
+  <si>
+    <t>(0.9620669367146629+0.044687270975085826j)</t>
+  </si>
+  <si>
+    <t>(0.959350792878607+0.04789204663711835j)</t>
+  </si>
+  <si>
+    <t>(0.9573229383840588+0.05029805201392808j)</t>
+  </si>
+  <si>
+    <t>(0.9558130847336728+0.05187757855419627j)</t>
+  </si>
+  <si>
+    <t>(0.9552816784493958+0.052702482229302225j)</t>
+  </si>
+  <si>
+    <t>(0.9931473052580516+0.007590810826405202j)</t>
+  </si>
+  <si>
+    <t>(0.9870095853262774+0.014524343327067342j)</t>
+  </si>
+  <si>
+    <t>(0.9815894557606412+0.020795728387820248j)</t>
+  </si>
+  <si>
+    <t>(0.976685847614602+0.026364897857181387j)</t>
+  </si>
+  <si>
+    <t>(0.9726496265504511+0.03128916993296419j)</t>
+  </si>
+  <si>
+    <t>(0.9696571174881797+0.03559472956176993j)</t>
+  </si>
+  <si>
+    <t>(0.9672158795352797+0.03919494966697299j)</t>
+  </si>
+  <si>
+    <t>(0.9648938494951839+0.04201696392950556j)</t>
+  </si>
+  <si>
+    <t>(0.9631678824131957+0.04413735491973381j)</t>
+  </si>
+  <si>
+    <t>(0.9617995898478345+0.04551660987583063j)</t>
+  </si>
+  <si>
+    <t>(0.9614257230095056+0.04625600176671564j)</t>
+  </si>
+  <si>
+    <t>(0.989463054393753+0.012047999328274833j)</t>
+  </si>
+  <si>
+    <t>(0.9797956769418692+0.02301568730204912j)</t>
+  </si>
+  <si>
+    <t>(0.9710185926877523+0.032899544999766085j)</t>
+  </si>
+  <si>
+    <t>(0.9631840260153556+0.04169577656054198j)</t>
+  </si>
+  <si>
+    <t>(0.9562524088875468+0.04940337726573306j)</t>
+  </si>
+  <si>
+    <t>(0.9502121601430469+0.05602265551114621j)</t>
+  </si>
+  <si>
+    <t>(0.9451518252712046+0.06154433847597743j)</t>
+  </si>
+  <si>
+    <t>(0.9411451932026093+0.06595668164721961j)</t>
+  </si>
+  <si>
+    <t>(0.9381304712014404+0.06926785703217091j)</t>
+  </si>
+  <si>
+    <t>(0.9361481297063673+0.07147037736323254j)</t>
+  </si>
+  <si>
+    <t>(0.9351120591887199+0.07258041191331882j)</t>
+  </si>
+  <si>
+    <t>(0.9914114184043891+0.009624685783868377j)</t>
+  </si>
+  <si>
+    <t>(0.983591973693904+0.018363013344058498j)</t>
+  </si>
+  <si>
+    <t>(0.9765525985229615+0.026214371375594882j)</t>
+  </si>
+  <si>
+    <t>(0.9702515538442361+0.03320853216804537j)</t>
+  </si>
+  <si>
+    <t>(0.9647870027857143+0.039293190084057704j)</t>
+  </si>
+  <si>
+    <t>(0.9602128393057396+0.04444276134585112j)</t>
+  </si>
+  <si>
+    <t>(0.9564060321174085+0.04872782434864388j)</t>
+  </si>
+  <si>
+    <t>(0.9532560664028458+0.05220858712454439j)</t>
+  </si>
+  <si>
+    <t>(0.9508941514077035+0.0548173291479644j)</t>
+  </si>
+  <si>
+    <t>(0.9492590256951612+0.05658675300941242j)</t>
+  </si>
+  <si>
+    <t>(0.9485250773749649+0.05742888881525386j)</t>
+  </si>
+  <si>
+    <t>(0.9934205428144682+0.007324020740303297j)</t>
+  </si>
+  <si>
+    <t>(0.9874999113053735+0.013949917175699418j)</t>
+  </si>
+  <si>
+    <t>(0.9822404910389384+0.01987900091732215j)</t>
+  </si>
+  <si>
+    <t>(0.9775050440855706+0.025169444045611774j)</t>
+  </si>
+  <si>
+    <t>(0.9735352748726577+0.029724463017237298j)</t>
+  </si>
+  <si>
+    <t>(0.9704536397541559+0.03349596952671848j)</t>
+  </si>
+  <si>
+    <t>(0.9679209552227338+0.036622771219930066j)</t>
+  </si>
+  <si>
+    <t>(0.9656390738135755+0.03922663632241917j)</t>
+  </si>
+  <si>
+    <t>(0.9639379348577491+0.04117458364289765j)</t>
+  </si>
+  <si>
+    <t>(0.9626529890422144+0.04253374826816657j)</t>
+  </si>
+  <si>
+    <t>(0.9622252600489697+0.043126649646553286j)</t>
+  </si>
+  <si>
+    <t>(0.995454968969984+0.00514919556820463j)</t>
+  </si>
+  <si>
+    <t>(0.9914510647508966+0.009781588143467785j)</t>
+  </si>
+  <si>
+    <t>(0.9879834434947972+0.013899720864377935j)</t>
+  </si>
+  <si>
+    <t>(0.9848195210740075+0.017584895287450233j)</t>
+  </si>
+  <si>
+    <t>(0.982347422539685+0.020703526943084354j)</t>
+  </si>
+  <si>
+    <t>(0.9807596706893668+0.023188904072233278j)</t>
+  </si>
+  <si>
+    <t>(0.9795005249375099+0.02523583135616292j)</t>
+  </si>
+  <si>
+    <t>(0.9780845534334093+0.02701672511546486j)</t>
+  </si>
+  <si>
+    <t>(0.9770419170560677+0.028344863317740086j)</t>
+  </si>
+  <si>
+    <t>(0.9761052123548782+0.02931577983084708j)</t>
+  </si>
+  <si>
+    <t>(0.9759826913851375+0.02967815926218894j)</t>
+  </si>
+  <si>
+    <t>(0.9974924261637943+0.0030896175415847937j)</t>
+  </si>
+  <si>
+    <t>(0.9954028600906011+0.005836730764370241j)</t>
+  </si>
+  <si>
+    <t>(0.9937204694847657+0.008244682657134987j)</t>
+  </si>
+  <si>
+    <t>(0.9921185125586843+0.010413175433625807j)</t>
+  </si>
+  <si>
+    <t>(0.9911323588541742+0.012179120070527585j)</t>
+  </si>
+  <si>
+    <t>(0.9910250076946802+0.013460871421574462j)</t>
+  </si>
+  <si>
+    <t>(0.991026387583522+0.014498112311501285j)</t>
+  </si>
+  <si>
+    <t>(0.9904664040698024+0.015504045774005278j)</t>
+  </si>
+  <si>
+    <t>(0.9900741924110935+0.016248812230981513j)</t>
+  </si>
+  <si>
+    <t>(0.9894811495146525+0.016850904214807425j)</t>
+  </si>
+  <si>
+    <t>(0.9896598428327961+0.016999476022079085j)</t>
+  </si>
+  <si>
+    <t>(0.9895467000524262+0.012121813169094943j)</t>
+  </si>
+  <si>
+    <t>(0.9799615557291417+0.02315218453998677j)</t>
+  </si>
+  <si>
+    <t>(0.9712647178127363+0.03308974579086247j)</t>
+  </si>
+  <si>
+    <t>(0.9634967176968359+0.0419202173125216j)</t>
+  </si>
+  <si>
+    <t>(0.9566368115794736+0.04966527969978953j)</t>
+  </si>
+  <si>
+    <t>(0.9506822405487323+0.05633545574868213j)</t>
+  </si>
+  <si>
+    <t>(0.9456956972410857+0.06189836615990612j)</t>
+  </si>
+  <si>
+    <t>(0.9417294931636928+0.0663253012417105j)</t>
+  </si>
+  <si>
+    <t>(0.938745781136946+0.06964685677557668j)</t>
+  </si>
+  <si>
+    <t>(0.9367735412495537+0.07184707590293983j)</t>
+  </si>
+  <si>
+    <t>(0.9357573609293897+0.07296771469898783j)</t>
+  </si>
+  <si>
+    <t>(0.9924280724437267+0.00838742014857238j)</t>
+  </si>
+  <si>
+    <t>(0.9855639869517453+0.015976286230873132j)</t>
+  </si>
+  <si>
+    <t>(0.9794141967979324+0.022768576880216655j)</t>
+  </si>
+  <si>
+    <t>(0.9739028984149358+0.028827954370537767j)</t>
+  </si>
+  <si>
+    <t>(0.9691759954290633+0.03404964318989629j)</t>
+  </si>
+  <si>
+    <t>(0.9653099501471868+0.03838204002387358j)</t>
+  </si>
+  <si>
+    <t>(0.9621057753818409+0.04197520029831102j)</t>
+  </si>
+  <si>
+    <t>(0.9593864584025988+0.04495967232016965j)</t>
+  </si>
+  <si>
+    <t>(0.9573516612821593+0.04719278609748757j)</t>
+  </si>
+  <si>
+    <t>(0.9559032668072951+0.048746196437659775j)</t>
+  </si>
+  <si>
+    <t>(0.9553088921891499+0.049430480347663286j)</t>
+  </si>
+  <si>
+    <t>(0.9954914819332771+0.004956239051730879j)</t>
+  </si>
+  <si>
+    <t>(0.9915047205702249+0.009386226106781411j)</t>
+  </si>
+  <si>
+    <t>(0.9880352501763339+0.013294562717443541j)</t>
+  </si>
+  <si>
+    <t>(0.9848836611918589+0.01681042211622422j)</t>
+  </si>
+  <si>
+    <t>(0.9823819139736509+0.019722627074405693j)</t>
+  </si>
+  <si>
+    <t>(0.9806949529270809+0.021927186370310263j)</t>
+  </si>
+  <si>
+    <t>(0.9793452207778325+0.0237283416774393j)</t>
+  </si>
+  <si>
+    <t>(0.9779147590330475+0.025391771841974838j)</t>
+  </si>
+  <si>
+    <t>(0.9768589318812312+0.02662829515709263j)</t>
+  </si>
+  <si>
+    <t>(0.9759471818387849+0.027584119699490317j)</t>
+  </si>
+  <si>
+    <t>(0.9757893005033542+0.027873610778841585j)</t>
+  </si>
+  <si>
+    <t>(0.9986274189236399+0.0018111183068954045j)</t>
+  </si>
+  <si>
+    <t>(0.9975741651763342+0.0033478621051205967j)</t>
+  </si>
+  <si>
+    <t>(0.9968274749094672+0.004617027514449364j)</t>
+  </si>
+  <si>
+    <t>(0.9960619134174026+0.005801924672728705j)</t>
+  </si>
+  <si>
+    <t>(0.9958058559764225+0.006603874134032619j)</t>
+  </si>
+  <si>
+    <t>(0.9963175359563227+0.006875733425817543j)</t>
+  </si>
+  <si>
+    <t>(0.9968350367943412+0.007049820718449241j)</t>
+  </si>
+  <si>
+    <t>(0.9966968422961057+0.007504684799339139j)</t>
+  </si>
+  <si>
+    <t>(0.9966211997034319+0.007829602961085478j)</t>
+  </si>
+  <si>
+    <t>(0.9962444464839505+0.008233307225791346j)</t>
+  </si>
+  <si>
+    <t>(0.9965241725927081+0.008166439896261403j)</t>
+  </si>
+  <si>
+    <t>(1.0017748075719815-0.0010874404104380198j)</t>
+  </si>
+  <si>
+    <t>(1.0036560556008705-0.0022158112881146114j)</t>
+  </si>
+  <si>
+    <t>(1.0056250392141586-0.0033762650786755416j)</t>
+  </si>
+  <si>
+    <t>(1.007230499421793-0.004340900892917303j)</t>
+  </si>
+  <si>
+    <t>(1.0092023070708347-0.0054795774968790754j)</t>
+  </si>
+  <si>
+    <t>(1.0118942035699303-0.00697461348431433j)</t>
+  </si>
+  <si>
+    <t>(1.0142601983515123-0.008287661476230225j)</t>
+  </si>
+  <si>
+    <t>(1.0153974453207386-0.008946016884382712j)</t>
+  </si>
+  <si>
+    <t>(1.0162881305181215-0.009460731907589117j)</t>
+  </si>
+  <si>
+    <t>(1.0164373094683683-0.00957064499196933j)</t>
+  </si>
+  <si>
+    <t>(1.0171486166046864-0.009961386245248914j)</t>
+  </si>
+  <si>
+    <t>(0.9895986761573119+0.012192976428198376j)</t>
+  </si>
+  <si>
+    <t>(0.9800665704925806+0.023287653389237904j)</t>
+  </si>
+  <si>
+    <t>(0.971423380085633+0.03328364727575313j)</t>
+  </si>
+  <si>
+    <t>(0.9636998191097734+0.0421576097708378j)</t>
+  </si>
+  <si>
+    <t>(0.9568908432067252+0.04994884613606902j)</t>
+  </si>
+  <si>
+    <t>(0.9510011251023616+0.05667585242392693j)</t>
+  </si>
+  <si>
+    <t>(0.9460711494374137+0.062286303246055975j)</t>
+  </si>
+  <si>
+    <t>(0.9421343524843319+0.06673612109094557j)</t>
+  </si>
+  <si>
+    <t>(0.9391734750800732+0.07007478864008522j)</t>
+  </si>
+  <si>
+    <t>(0.9372072355742874+0.07227843394293315j)</t>
+  </si>
+  <si>
+    <t>(0.9362072158559359+0.07341140414064186j)</t>
+  </si>
+  <si>
+    <t>(0.9934728758676272+0.007187064454369423j)</t>
+  </si>
+  <si>
+    <t>(0.9875886061454657+0.013660695418882788j)</t>
+  </si>
+  <si>
+    <t>(0.9823494441956566+0.01942540366489519j)</t>
+  </si>
+  <si>
+    <t>(0.977644679598157+0.024577676778754356j)</t>
+  </si>
+  <si>
+    <t>(0.9736702093118063+0.028961968661722258j)</t>
+  </si>
+  <si>
+    <t>(0.9705261737343361+0.03250148677846975j)</t>
+  </si>
+  <si>
+    <t>(0.9679357055965724+0.03542329479860252j)</t>
+  </si>
+  <si>
+    <t>(0.9656540110999775+0.03792612913320296j)</t>
+  </si>
+  <si>
+    <t>(0.9639513486821412+0.03979469939949614j)</t>
+  </si>
+  <si>
+    <t>(0.9626921887389981+0.04113842571016124j)</t>
+  </si>
+  <si>
+    <t>(0.9622395531443624+0.04166954800318738j)</t>
+  </si>
+  <si>
+    <t>(0.9975931484166025+0.0026998100603570032j)</t>
+  </si>
+  <si>
+    <t>(0.9955632776780369+0.0050376621766206045j)</t>
+  </si>
+  <si>
+    <t>(0.9939003707685168+0.007021243123995583j)</t>
+  </si>
+  <si>
+    <t>(0.9923415274442252+0.008846625961521524j)</t>
+  </si>
+  <si>
+    <t>(0.9913143126087224+0.010194835171391399j)</t>
+  </si>
+  <si>
+    <t>(0.9910285828095936+0.010909216252360451j)</t>
+  </si>
+  <si>
+    <t>(0.9908654552493483+0.01144986841046866j)</t>
+  </si>
+  <si>
+    <t>(0.9902859315459768+0.012217998789673666j)</t>
+  </si>
+  <si>
+    <t>(0.9898743626376669+0.012777308986751243j)</t>
+  </si>
+  <si>
+    <t>(0.9893339256183364+0.013348457760756353j)</t>
+  </si>
+  <si>
+    <t>(0.9894458233768046+0.013349823243146408j)</t>
+  </si>
+  <si>
+    <t>(1.0017914318130257-0.0013323527637989494j)</t>
+  </si>
+  <si>
+    <t>(1.003670259379475-0.002707727246688421j)</t>
+  </si>
+  <si>
+    <t>(1.0056187040361395-0.00411592690592231j)</t>
+  </si>
+  <si>
+    <t>(1.0072182367323428-0.005278721333978337j)</t>
+  </si>
+  <si>
+    <t>(1.0091443624853889-0.006649673601635552j)</t>
+  </si>
+  <si>
+    <t>(1.0117239487967038-0.008451226985005469j)</t>
+  </si>
+  <si>
+    <t>(1.0139881393611476-0.010030305738785144j)</t>
+  </si>
+  <si>
+    <t>(1.0151010126343734-0.010817503777015687j)</t>
+  </si>
+  <si>
+    <t>(1.0159710017760863-0.011431881558220934j)</t>
+  </si>
+  <si>
+    <t>(1.0161397658403457-0.011560110053506625j)</t>
+  </si>
+  <si>
+    <t>(1.016813427384359-0.012027713257685844j)</t>
+  </si>
+  <si>
+    <t>(1.0059812690967518-0.0049883636681128515j)</t>
+  </si>
+  <si>
+    <t>(1.0117461527679634-0.00972962654485098j)</t>
+  </si>
+  <si>
+    <t>(1.017272905321411-0.014211122411731943j)</t>
+  </si>
+  <si>
+    <t>(1.021987639049715-0.018086574159972557j)</t>
+  </si>
+  <si>
+    <t>(1.0268219236671803-0.02191970953774205j)</t>
+  </si>
+  <si>
+    <t>(1.0322230551994191-0.02598690898922766j)</t>
+  </si>
+  <si>
+    <t>(1.0368727611670814-0.029474656233466325j)</t>
+  </si>
+  <si>
+    <t>(1.0396419575050337-0.031672839805120624j)</t>
+  </si>
+  <si>
+    <t>(1.041764518064126-0.033351999800209066j)</t>
+  </si>
+  <si>
+    <t>(1.042623608725738-0.03412094484775731j)</t>
+  </si>
+  <si>
+    <t>(1.043847007560309-0.03500875431157785j)</t>
+  </si>
+  <si>
+    <t>(0.9896248278075768+0.012256907080498416j)</t>
+  </si>
+  <si>
+    <t>(0.9801217593787661+0.02341258548199044j)</t>
+  </si>
+  <si>
+    <t>(0.9715101858358448+0.03346668706697843j)</t>
+  </si>
+  <si>
+    <t>(0.9638125366716449+0.04238815136962528j)</t>
+  </si>
+  <si>
+    <t>(0.9570370263618996+0.050229422707459004j)</t>
+  </si>
+  <si>
+    <t>(0.9511946705719573+0.057014981983332325j)</t>
+  </si>
+  <si>
+    <t>(0.9463067242479709+0.06267554073338658j)</t>
+  </si>
+  <si>
+    <t>(0.9423899149270324+0.06715324991767627j)</t>
+  </si>
+  <si>
+    <t>(0.9394448558324991+0.07051321456125093j)</t>
+  </si>
+  <si>
+    <t>(0.9374810418312418+0.07272424147878033j)</t>
+  </si>
+  <si>
+    <t>(0.9364939973986891+0.07387039959307594j)</t>
+  </si>
+  <si>
+    <t>(0.9945390427212659+0.006024373001823251j)</t>
+  </si>
+  <si>
+    <t>(0.9896527046920711+0.011417842736684398j)</t>
+  </si>
+  <si>
+    <t>(0.9853393609885218+0.016187348470450072j)</t>
+  </si>
+  <si>
+    <t>(0.9814527963020556+0.02046111693502806j)</t>
+  </si>
+  <si>
+    <t>(0.9782407874061497+0.024034484891587892j)</t>
+  </si>
+  <si>
+    <t>(0.9758280640798891+0.02680630137868203j)</t>
+  </si>
+  <si>
+    <t>(0.9738585147829116+0.029078092747677205j)</t>
+  </si>
+  <si>
+    <t>(0.9720187656748603+0.031114515704574342j)</t>
+  </si>
+  <si>
+    <t>(0.9706512608644465+0.03263007236297961j)</t>
+  </si>
+  <si>
+    <t>(0.9695827589084498+0.03377068872933908j)</t>
+  </si>
+  <si>
+    <t>(0.9692731462236711+0.03415354988344694j)</t>
+  </si>
+  <si>
+    <t>(0.9997129687733417+0.000547383021617768j)</t>
+  </si>
+  <si>
+    <t>(0.9996517712137348+0.0008897590905136277j)</t>
+  </si>
+  <si>
+    <t>(0.999802057469956+0.0010377610607157702j)</t>
+  </si>
+  <si>
+    <t>(0.9998366379795381+0.001250611659756678j)</t>
+  </si>
+  <si>
+    <t>(1.0002829145625338+0.0011076920337783351j)</t>
+  </si>
+  <si>
+    <t>(1.0013975413711131+0.00040270872290367984j)</t>
+  </si>
+  <si>
+    <t>(1.0024185501591774-0.0002571474303019077j)</t>
+  </si>
+  <si>
+    <t>(1.0026855863709112-0.00034277191007508914j)</t>
+  </si>
+  <si>
+    <t>(1.0029143379910441-0.00042922047937586096j)</t>
+  </si>
+  <si>
+    <t>(1.0027419174701784-0.00022557565336112464j)</t>
+  </si>
+  <si>
+    <t>(1.0031221735162723-0.0004983272892196969j)</t>
+  </si>
+  <si>
+    <t>(1.0049353475976777-0.00430301826044204j)</t>
+  </si>
+  <si>
+    <t>(1.0097181099665387-0.00842853060005544j)</t>
+  </si>
+  <si>
+    <t>(1.0143280595540543-0.012363449709093479j)</t>
+  </si>
+  <si>
+    <t>(1.0182538720206442-0.0157408423573016j)</t>
+  </si>
+  <si>
+    <t>(1.0223233814390205-0.019159665470523904j)</t>
+  </si>
+  <si>
+    <t>(1.0269342429800092-0.02291294174099289j)</t>
+  </si>
+  <si>
+    <t>(1.0309112061944896-0.026141537145847674j)</t>
+  </si>
+  <si>
+    <t>(1.0332464909156023-0.028098385893204354j)</t>
+  </si>
+  <si>
+    <t>(1.035039402847304-0.02959703459343632j)</t>
+  </si>
+  <si>
+    <t>(1.0357389054679667-0.0302269333525354j)</t>
+  </si>
+  <si>
+    <t>(1.0367973869056748-0.03107074338430705j)</t>
+  </si>
+  <si>
+    <t>(1.0101062700768755-0.008652130335417146j)</t>
+  </si>
+  <si>
+    <t>(1.0196647688575564-0.016782452840898115j)</t>
+  </si>
+  <si>
+    <t>(1.028654851245608-0.024375483207021993j)</t>
+  </si>
+  <si>
+    <t>(1.0363822676648418-0.030974942108299666j)</t>
+  </si>
+  <si>
+    <t>(1.0439853831267956-0.03732647755613188j)</t>
+  </si>
+  <si>
+    <t>(1.0520069419376328-0.04379450960969113j)</t>
+  </si>
+  <si>
+    <t>(1.0588610655605903-0.04931039714989875j)</t>
+  </si>
+  <si>
+    <t>(1.0631994060495702-0.05294511665151245j)</t>
+  </si>
+  <si>
+    <t>(1.0665048924689275-0.05571000234706768j)</t>
+  </si>
+  <si>
+    <t>(1.0680433995374288-0.05709432579075492j)</t>
+  </si>
+  <si>
+    <t>(1.0697589033451504-0.05844417515541516j)</t>
+  </si>
+  <si>
+    <t>(0.9896302557844292+0.01231094077743277j)</t>
+  </si>
+  <si>
+    <t>(0.9801368306489527+0.023521312355919723j)</t>
+  </si>
+  <si>
+    <t>(0.9715389614396256+0.03363001822946801j)</t>
+  </si>
+  <si>
+    <t>(0.9638520557279937+0.042599561848340996j)</t>
+  </si>
+  <si>
+    <t>(0.957095644945236+0.05049154513584415j)</t>
+  </si>
+  <si>
+    <t>(0.951286219275494+0.05733466765389527j)</t>
+  </si>
+  <si>
+    <t>(0.9464282613209737+0.0630454548436332j)</t>
+  </si>
+  <si>
+    <t>(0.9425236039084702+0.06755383186035573j)</t>
+  </si>
+  <si>
+    <t>(0.939588509471887+0.07093753680294086j)</t>
+  </si>
+  <si>
+    <t>(0.9376241289332613+0.07315865599975403j)</t>
+  </si>
+  <si>
+    <t>(0.9366473927970808+0.07431828056748778j)</t>
+  </si>
+  <si>
+    <t>(0.9956209832344595+0.004898820702783944j)</t>
+  </si>
+  <si>
+    <t>(0.9917454722687339+0.009246773065371444j)</t>
+  </si>
+  <si>
+    <t>(0.9883683190558269+0.013053104306121473j)</t>
+  </si>
+  <si>
+    <t>(0.9853073989768896+0.01647671638660911j)</t>
+  </si>
+  <si>
+    <t>(0.9828639643881986+0.019265416232608534j)</t>
+  </si>
+  <si>
+    <t>(0.9811880864971539+0.021294504977326358j)</t>
+  </si>
+  <si>
+    <t>(0.9798434945360187+0.02293745936391629j)</t>
+  </si>
+  <si>
+    <t>(0.9784478283300134+0.024522592652519926j)</t>
+  </si>
+  <si>
+    <t>(0.9774168596333402+0.02569659081268158j)</t>
+  </si>
+  <si>
+    <t>(0.976539545400913+0.026640624218504258j)</t>
+  </si>
+  <si>
+    <t>(0.9763735142565584+0.026880102568768594j)</t>
+  </si>
+  <si>
+    <t>(1.001841475318725-0.001508738089867843j)</t>
+  </si>
+  <si>
+    <t>(1.0037523446708483-0.0030725626463420116j)</t>
+  </si>
+  <si>
+    <t>(1.0057150656152392-0.004677975037841228j)</t>
+  </si>
+  <si>
+    <t>(1.0073377377034654-0.006006007975280909j)</t>
+  </si>
+  <si>
+    <t>(1.0092509775884677-0.007573222455812506j)</t>
+  </si>
+  <si>
+    <t>(1.0117597113462762-0.009632751512998111j)</t>
+  </si>
+  <si>
+    <t>(1.0139579908623726-0.011438279837197321j)</t>
+  </si>
+  <si>
+    <t>(1.015064435894424-0.012339703607514985j)</t>
+  </si>
+  <si>
+    <t>(1.0159275291753787-0.01304320320144822j)</t>
+  </si>
+  <si>
+    <t>(1.0161188379215498-0.013191378585960124j)</t>
+  </si>
+  <si>
+    <t>(1.0167650777821813-0.01372550060713477j)</t>
+  </si>
+  <si>
+    <t>(1.0080516688321404-0.007119754752758553j)</t>
+  </si>
+  <si>
+    <t>(1.015704390794575-0.013851866372666579j)</t>
+  </si>
+  <si>
+    <t>(1.0229377510172204-0.020180626219095124j)</t>
+  </si>
+  <si>
+    <t>(1.0291482763009776-0.025655863571340462j)</t>
+  </si>
+  <si>
+    <t>(1.0353200591827256-0.031013187494712824j)</t>
+  </si>
+  <si>
+    <t>(1.0419231214074036-0.03661188378792456j)</t>
+  </si>
+  <si>
+    <t>(1.047577206417597-0.04139968121997534j)</t>
+  </si>
+  <si>
+    <t>(1.051105710162209-0.044463302068829924j)</t>
+  </si>
+  <si>
+    <t>(1.0537985475465192-0.04679852008513843j)</t>
+  </si>
+  <si>
+    <t>(1.0550141695337336-0.04790392022546583j)</t>
+  </si>
+  <si>
+    <t>(1.0564480759506862-0.049102697245561926j)</t>
+  </si>
+  <si>
+    <t>(1.014148576009237-0.012110268865863878j)</t>
+  </si>
+  <si>
+    <t>(1.027411578407468-0.02343683147989476j)</t>
+  </si>
+  <si>
+    <t>(1.039773000245485-0.033961928100725944j)</t>
+  </si>
+  <si>
+    <t>(1.0504206628856474-0.043126467539583456j)</t>
+  </si>
+  <si>
+    <t>(1.0607032571167-0.05184706565251772j)</t>
+  </si>
+  <si>
+    <t>(1.0712601992255983-0.06057072957873628j)</t>
+  </si>
+  <si>
+    <t>(1.0802431816241809-0.06799090863572795j)</t>
+  </si>
+  <si>
+    <t>(1.0860915976166508-0.07297528954924504j)</t>
+  </si>
+  <si>
+    <t>(1.090534074056654-0.07675981441237575j)</t>
+  </si>
+  <si>
+    <t>(1.0927237098259535-0.07872301397586265j)</t>
+  </si>
+  <si>
+    <t>(1.0949123787211898-0.08050549418941093j)</t>
+  </si>
+  <si>
+    <t>(0.9896192599960353+0.012353655495360482j)</t>
+  </si>
+  <si>
+    <t>(0.9801200077732296+0.023610671507811015j)</t>
+  </si>
+  <si>
+    <t>(0.9715214707166981+0.03376854657093187j)</t>
+  </si>
+  <si>
+    <t>(0.963833084080277+0.04278453647576604j)</t>
+  </si>
+  <si>
+    <t>(0.9570841258610124+0.0507258536083482j)</t>
+  </si>
+  <si>
+    <t>(0.9512958564984528+0.0576238417872858j)</t>
+  </si>
+  <si>
+    <t>(0.9464580335111975+0.06338340791391633j)</t>
+  </si>
+  <si>
+    <t>(0.9425591245371922+0.06792372193905652j)</t>
+  </si>
+  <si>
+    <t>(0.9396292001005194+0.07133242592569784j)</t>
+  </si>
+  <si>
+    <t>(0.937661815844469+0.07356547469792257j)</t>
+  </si>
+  <si>
+    <t>(0.9366931813230289+0.0747384656312664j)</t>
+  </si>
+  <si>
+    <t>(0.9967141920811375+0.003809164410866182j)</t>
+  </si>
+  <si>
+    <t>(0.9938582101658573+0.007145092926329297j)</t>
+  </si>
+  <si>
+    <t>(0.9914237613217761+0.01001922039560663j)</t>
+  </si>
+  <si>
+    <t>(0.9891925576898647+0.012620105168799502j)</t>
+  </si>
+  <si>
+    <t>(0.9875206898135492+0.014649538680405557j)</t>
+  </si>
+  <si>
+    <t>(0.9865841945219297+0.015960054154113487j)</t>
+  </si>
+  <si>
+    <t>(0.9858660791689053+0.01699465940358313j)</t>
+  </si>
+  <si>
+    <t>(0.9849148987275667+0.018143132178946458j)</t>
+  </si>
+  <si>
+    <t>(0.9842205406220967+0.018986654211844405j)</t>
+  </si>
+  <si>
+    <t>(0.9835342346033042+0.019740416847599522j)</t>
+  </si>
+  <si>
+    <t>(0.9835117699186403+0.019841235421853516j)</t>
+  </si>
+  <si>
+    <t>(1.0039715883485132-0.0034760328839808638j)</t>
+  </si>
+  <si>
+    <t>(1.007851715431509-0.006863919583194243j)</t>
+  </si>
+  <si>
+    <t>(1.0116207113516709-0.010147324866318322j)</t>
+  </si>
+  <si>
+    <t>(1.0148218154174407-0.012950621836646204j)</t>
+  </si>
+  <si>
+    <t>(1.0181915764267986-0.01588104579264893j)</t>
+  </si>
+  <si>
+    <t>(1.022084350548199-0.019235986527330835j)</t>
+  </si>
+  <si>
+    <t>(1.0254499411148879-0.0221372282746155j)</t>
+  </si>
+  <si>
+    <t>(1.027386724273527-0.02381988787347491j)</t>
+  </si>
+  <si>
+    <t>(1.0288767787322854-0.02511432105164185j)</t>
+  </si>
+  <si>
+    <t>(1.0294268624119034-0.025600038778601873j)</t>
+  </si>
+  <si>
+    <t>(1.030336057400251-0.02638396707822897j)</t>
+  </si>
+  <si>
+    <t>(1.0111356751042724-0.009798757996217695j)</t>
+  </si>
+  <si>
+    <t>(1.0216209974358872-0.019009608139962695j)</t>
+  </si>
+  <si>
+    <t>(1.0314373598718294-0.02761432097072998j)</t>
+  </si>
+  <si>
+    <t>(1.0398900047795636-0.03508431347403747j)</t>
+  </si>
+  <si>
+    <t>(1.0481222472164604-0.04228382128973459j)</t>
+  </si>
+  <si>
+    <t>(1.0566776229836932-0.049634455132572614j)</t>
+  </si>
+  <si>
+    <t>(1.063972790093743-0.05590221277183819j)</t>
+  </si>
+  <si>
+    <t>(1.0686656034695443-0.060017591187326615j)</t>
+  </si>
+  <si>
+    <t>(1.072235688103788-0.0631477059810497j)</t>
+  </si>
+  <si>
+    <t>(1.0739532417899216-0.0647057880085898j)</t>
+  </si>
+  <si>
+    <t>(1.0757532075734892-0.06624100531559798j)</t>
+  </si>
+  <si>
+    <t>(1.018109306008625-0.015388395433347723j)</t>
+  </si>
+  <si>
+    <t>(1.034990513298987-0.029743339408917227j)</t>
+  </si>
+  <si>
+    <t>(1.0506352767485176-0.0430450332962486j)</t>
+  </si>
+  <si>
+    <t>(1.0641159629926933-0.05463779923771495j)</t>
+  </si>
+  <si>
+    <t>(1.0769939506800081-0.06559922530088834j)</t>
+  </si>
+  <si>
+    <t>(1.0900060619741294-0.07645397601271467j)</t>
+  </si>
+  <si>
+    <t>(1.1010469188154601-0.08567249523277962j)</t>
+  </si>
+  <si>
+    <t>(1.1083504646525832-0.09193250729593526j)</t>
+  </si>
+  <si>
+    <t>(1.1138872810972573-0.09668045096307644j)</t>
+  </si>
+  <si>
+    <t>(1.116702009216901-0.0991915684207828j)</t>
+  </si>
+  <si>
+    <t>(1.1193461410512726-0.10138167730250397j)</t>
+  </si>
+  <si>
+    <t>(0.9895954052699087+0.012384422455346843j)</t>
+  </si>
+  <si>
+    <t>(0.9800781304085001+0.023679114214054157j)</t>
+  </si>
+  <si>
+    <t>(0.9714675268824622+0.03387961138668341j)</t>
+  </si>
+  <si>
+    <t>(0.9637679372802516+0.042939023365735414j)</t>
+  </si>
+  <si>
+    <t>(0.9570170987081003+0.05092699814357801j)</t>
+  </si>
+  <si>
+    <t>(0.9512404626584298+0.05787611400568105j)</t>
+  </si>
+  <si>
+    <t>(0.9464147825668913+0.06368202615743018j)</t>
+  </si>
+  <si>
+    <t>(0.9425164598222182+0.06825453450747188j)</t>
+  </si>
+  <si>
+    <t>(0.9395878324230356+0.0716886941767129j)</t>
+  </si>
+  <si>
+    <t>(0.9376155016600795+0.073934895490894j)</t>
+  </si>
+  <si>
+    <t>(0.93665315734053+0.07512090856737061j)</t>
+  </si>
+  <si>
+    <t>(0.997815075911446+0.0027537950104836203j)</t>
+  </si>
+  <si>
+    <t>(0.9959839992671065+0.005109673270582628j)</t>
+  </si>
+  <si>
+    <t>(0.9944957239614937+0.007081146616061725j)</t>
+  </si>
+  <si>
+    <t>(0.9930956608392231+0.008885466387294334j)</t>
+  </si>
+  <si>
+    <t>(0.9921959117027846+0.010179849828954557j)</t>
+  </si>
+  <si>
+    <t>(0.9919989999313877+0.010794807431841674j)</t>
+  </si>
+  <si>
+    <t>(0.9919069214224472+0.011240580765245532j)</t>
+  </si>
+  <si>
+    <t>(0.9913992840530454+0.011966326653533746j)</t>
+  </si>
+  <si>
+    <t>(0.9910406014649455+0.012489926094574215j)</t>
+  </si>
+  <si>
+    <t>(0.9905445758328486+0.013059427290401101j)</t>
+  </si>
+  <si>
+    <t>(0.9906652195908142+0.013026083897195779j)</t>
+  </si>
+  <si>
+    <t>(1.0060980289067523-0.005361499368912537j)</t>
+  </si>
+  <si>
+    <t>(1.011940044163119-0.010497960645627323j)</t>
+  </si>
+  <si>
+    <t>(1.0175052418586281-0.015390197803813599j)</t>
+  </si>
+  <si>
+    <t>(1.0222720481574454-0.019608720700456977j)</t>
+  </si>
+  <si>
+    <t>(1.0270851439885809-0.023846570422768408j)</t>
+  </si>
+  <si>
+    <t>(1.0323492280565854-0.028443011277150206j)</t>
+  </si>
+  <si>
+    <t>(1.0368700383068188-0.032394479418306754j)</t>
+  </si>
+  <si>
+    <t>(1.039626800121839-0.034826921816212074j)</t>
+  </si>
+  <si>
+    <t>(1.041735505592474-0.03668854284503381j)</t>
+  </si>
+  <si>
+    <t>(1.04263898251394-0.03749881481276138j)</t>
+  </si>
+  <si>
+    <t>(1.04380766911396-0.03852206257592559j)</t>
+  </si>
+  <si>
+    <t>(1.014184499335947-0.012353900493574136j)</t>
+  </si>
+  <si>
+    <t>(1.027463270385915-0.023928956900130673j)</t>
+  </si>
+  <si>
+    <t>(1.039821277905793-0.03470440014975814j)</t>
+  </si>
+  <si>
+    <t>(1.0504734769470778-0.044077517899050386j)</t>
+  </si>
+  <si>
+    <t>(1.0607246283491458-0.05303380670992866j)</t>
+  </si>
+  <si>
+    <t>(1.071192602471945-0.06205360672722128j)</t>
+  </si>
+  <si>
+    <t>(1.0800932203736726-0.0697313067827565j)</t>
+  </si>
+  <si>
+    <t>(1.085922176912606-0.07484994631328003j)</t>
+  </si>
+  <si>
+    <t>(1.0903474851220725-0.07873827349369777j)</t>
+  </si>
+  <si>
+    <t>(1.0925533504842697-0.08072897659493616j)</t>
+  </si>
+  <si>
+    <t>(1.094710215792421-0.08258435379646982j)</t>
+  </si>
+  <si>
+    <t>(1.0219908103385782-0.018507500491987884j)</t>
+  </si>
+  <si>
+    <t>(1.0424076132382145-0.03574325241870565j)</t>
+  </si>
+  <si>
+    <t>(1.0612523168902168-0.05168544993028044j)</t>
+  </si>
+  <si>
+    <t>(1.0774842779082618-0.06558726376359146j)</t>
+  </si>
+  <si>
+    <t>(1.0928790484501263-0.07867814005989787j)</t>
+  </si>
+  <si>
+    <t>(1.1082712301868924-0.09155593875788032j)</t>
+  </si>
+  <si>
+    <t>(1.1213037281746148-0.10248110819868635j)</t>
+  </si>
+  <si>
+    <t>(1.1300115370099242-0.10995289251572826j)</t>
+  </si>
+  <si>
+    <t>(1.1366032742000924-0.1156158347594605j)</t>
+  </si>
+  <si>
+    <t>(1.1400191940201516-0.1186482682590463j)</t>
+  </si>
+  <si>
+    <t>(1.1431023515435774-0.1212244976176846j)</t>
+  </si>
+  <si>
+    <t>(0.9895616253070563+0.012403113743805209j)</t>
+  </si>
+  <si>
+    <t>(0.980016840272375+0.023726121575939573j)</t>
+  </si>
+  <si>
+    <t>(0.9713852414835487+0.03396211808844833j)</t>
+  </si>
+  <si>
+    <t>(0.9636668215757981+0.04306108450423774j)</t>
+  </si>
+  <si>
+    <t>(0.956906709368144+0.05109224914193365j)</t>
+  </si>
+  <si>
+    <t>(0.9511340654974993+0.058088156394473685j)</t>
+  </si>
+  <si>
+    <t>(0.9463140976971364+0.06393738975531484j)</t>
+  </si>
+  <si>
+    <t>(0.9424122518310258+0.06854167639229254j)</t>
+  </si>
+  <si>
+    <t>(0.9394818324899468+0.0720012084395332j)</t>
+  </si>
+  <si>
+    <t>(0.9375030385489023+0.07426135160582685j)</t>
+  </si>
+  <si>
+    <t>(0.936545506877076+0.0754598890651333j)</t>
+  </si>
+  <si>
+    <t>(0.9989207809999205+0.001730950401186148j)</t>
+  </si>
+  <si>
+    <t>(0.9981173644049288+0.003137075101803135j)</t>
+  </si>
+  <si>
+    <t>(0.9975763482543495+0.004233866671515532j)</t>
+  </si>
+  <si>
+    <t>(0.9970067928963692+0.005266364726660864j)</t>
+  </si>
+  <si>
+    <t>(0.99687782822249+0.005848583641307125j)</t>
+  </si>
+  <si>
+    <t>(0.9974189009641957+0.005789720513818675j)</t>
+  </si>
+  <si>
+    <t>(0.9979509164111215+0.005665086420938791j)</t>
+  </si>
+  <si>
+    <t>(0.9978848519303057+0.005981253804724982j)</t>
+  </si>
+  <si>
+    <t>(0.997860141154087+0.006194886185746483j)</t>
+  </si>
+  <si>
+    <t>(0.9975532520197171+0.00658579333077453j)</t>
+  </si>
+  <si>
+    <t>(0.9978162100203998+0.006422529354585223j)</t>
+  </si>
+  <si>
+    <t>(1.0082168663149493-0.007171553110601103j)</t>
+  </si>
+  <si>
+    <t>(1.0160100638030545-0.013987178924836165j)</t>
+  </si>
+  <si>
+    <t>(1.0233585801049776-0.020424790273313415j)</t>
+  </si>
+  <si>
+    <t>(1.0296762172062026-0.026003573732089204j)</t>
+  </si>
+  <si>
+    <t>(1.0359175774418772-0.031497869359086605j)</t>
+  </si>
+  <si>
+    <t>(1.0425384212008433-0.0372866159344939j)</t>
+  </si>
+  <si>
+    <t>(1.0482009303368427-0.04224685581275827j)</t>
+  </si>
+  <si>
+    <t>(1.051766482250779-0.045400433676963114j)</t>
+  </si>
+  <si>
+    <t>(1.054484941987633-0.04780763367563557j)</t>
+  </si>
+  <si>
+    <t>(1.0557361775187242-0.048930636011662657j)</t>
+  </si>
+  <si>
+    <t>(1.0571606159909417-0.050183682789864056j)</t>
+  </si>
+  <si>
+    <t>(1.0171965163865397-0.014797092576951958j)</t>
+  </si>
+  <si>
+    <t>(1.033228829017347-0.028633194422839278j)</t>
+  </si>
+  <si>
+    <t>(1.0480870392024624-0.04148489359271075j)</t>
+  </si>
+  <si>
+    <t>(1.0608968882090177-0.05267917179207408j)</t>
+  </si>
+  <si>
+    <t>(1.0731262311699523-0.06331601750812607j)</t>
+  </si>
+  <si>
+    <t>(1.085467842986036-0.07393121102416707j)</t>
+  </si>
+  <si>
+    <t>(1.0959391484306433-0.08295656518593432j)</t>
+  </si>
+  <si>
+    <t>(1.1028770684958977-0.08903540968314927j)</t>
+  </si>
+  <si>
+    <t>(1.108136403997035-0.09364942149594932j)</t>
+  </si>
+  <si>
+    <t>(1.1108175863530445-0.096054976083169j)</t>
+  </si>
+  <si>
+    <t>(1.1133224934109158-0.09821610439096018j)</t>
+  </si>
+  <si>
+    <t>(1.0257960317035522-0.02148496055849994j)</t>
+  </si>
+  <si>
+    <t>(1.049669826599398-0.041470618310410615j)</t>
+  </si>
+  <si>
+    <t>(1.071635775411354-0.05993305489134923j)</t>
+  </si>
+  <si>
+    <t>(1.0905426005784316-0.07603907400645253j)</t>
+  </si>
+  <si>
+    <t>(1.1083808512125535-0.09116166098023133j)</t>
+  </si>
+  <si>
+    <t>(1.1260830151945005-0.10596782249652477j)</t>
+  </si>
+  <si>
+    <t>(1.1410455231317578-0.11851945904026305j)</t>
+  </si>
+  <si>
+    <t>(1.1511105671807074-0.12714732007585228j)</t>
+  </si>
+  <si>
+    <t>(1.158720834961206-0.13368309103070533j)</t>
+  </si>
+  <si>
+    <t>(1.1627160032621893-0.1372137120206494j)</t>
+  </si>
+  <si>
+    <t>(1.1662229624391955-0.1401573585009224j)</t>
+  </si>
+  <si>
+    <t>(0.9895203286200382+0.012409913412846078j)</t>
+  </si>
+  <si>
+    <t>(0.9799407771778283+0.023751825219096953j)</t>
+  </si>
+  <si>
+    <t>(0.9712812961893504+0.03401597229324291j)</t>
+  </si>
+  <si>
+    <t>(0.9635381595202557+0.04315014856228957j)</t>
+  </si>
+  <si>
+    <t>(0.9567629947251808+0.05122058296534185j)</t>
+  </si>
+  <si>
+    <t>(0.9509882668165645+0.05825863967466054j)</t>
+  </si>
+  <si>
+    <t>(0.9461688823521331+0.06414783903260521j)</t>
+  </si>
+  <si>
+    <t>(0.9422602874814889+0.068783046711647j)</t>
+  </si>
+  <si>
+    <t>(0.9393256463562621+0.07226750838502549j)</t>
+  </si>
+  <si>
+    <t>(0.9373392334546796+0.07454207574488236j)</t>
+  </si>
+  <si>
+    <t>(0.9363853167220694+0.07575254744873175j)</t>
+  </si>
+  <si>
+    <t>(1.0000290430712506+0.0007388403980111168j)</t>
+  </si>
+  <si>
+    <t>(1.0002539805653676+0.0012237993081240157j)</t>
+  </si>
+  <si>
+    <t>(1.0006594515239622+0.0014722700498192606j)</t>
+  </si>
+  <si>
+    <t>(1.0009181846428157+0.001756233813571842j)</t>
+  </si>
+  <si>
+    <t>(1.0015572241835853+0.001647807781037377j)</t>
+  </si>
+  <si>
+    <t>(1.0028333078317193+0.0009355498823331012j)</t>
+  </si>
+  <si>
+    <t>(1.0039863328027805+0.00025781040858507926j)</t>
+  </si>
+  <si>
+    <t>(1.0043590963255706+0.00017673977352411027j)</t>
+  </si>
+  <si>
+    <t>(1.0046660765075337+8.974496201460811e-05j)</t>
+  </si>
+  <si>
+    <t>(1.004546869297149+0.0003073735449986335j)</t>
+  </si>
+  <si>
+    <t>(1.004951095829287+1.8165649782506067e-05j)</t>
+  </si>
+  <si>
+    <t>(1.0103251790264052-0.00891201262709001j)</t>
+  </si>
+  <si>
+    <t>(1.0200564271693837-0.017342889104722155j)</t>
+  </si>
+  <si>
+    <t>(1.0291733853784701-0.025267561052148457j)</t>
+  </si>
+  <si>
+    <t>(1.0370255228425396-0.03215620544054771j)</t>
+  </si>
+  <si>
+    <t>(1.0446788220939354-0.03886027958312406j)</t>
+  </si>
+  <si>
+    <t>(1.0526406704451288-0.04579636071845608j)</t>
+  </si>
+  <si>
+    <t>(1.059430437984288-0.05172752271513974j)</t>
+  </si>
+  <si>
+    <t>(1.0637930947935108-0.05557609780465317j)</t>
+  </si>
+  <si>
+    <t>(1.067112072855431-0.05850917695325918j)</t>
+  </si>
+  <si>
+    <t>(1.06870530489829-0.05993412764943089j)</t>
+  </si>
+  <si>
+    <t>(1.0703815931321785-0.06140831304145375j)</t>
+  </si>
+  <si>
+    <t>(1.0201709375057577-0.017138605105447693j)</t>
+  </si>
+  <si>
+    <t>(1.0389168046427795-0.03314234482641032j)</t>
+  </si>
+  <si>
+    <t>(1.0562342315721895-0.0479850013030877j)</t>
+  </si>
+  <si>
+    <t>(1.0711608585265338-0.060926682737511534j)</t>
+  </si>
+  <si>
+    <t>(1.0853288324607824-0.0731756351904487j)</t>
+  </si>
+  <si>
+    <t>(1.0995062087321645-0.08532006167769624j)</t>
+  </si>
+  <si>
+    <t>(1.1115145586931288-0.09563730511271072j)</t>
+  </si>
+  <si>
+    <t>(1.1195353642916315-0.10263787521073231j)</t>
+  </si>
+  <si>
+    <t>(1.1256084346887452-0.10794853565456507j)</t>
+  </si>
+  <si>
+    <t>(1.1287525777797587-0.11075309215945105j)</t>
+  </si>
+  <si>
+    <t>(1.131597018826334-0.11320713389835049j)</t>
+  </si>
+  <si>
+    <t>(1.0295281450229778-0.024335313854070107j)</t>
+  </si>
+  <si>
+    <t>(1.0567843513491197-0.04695383417503432j)</t>
+  </si>
+  <si>
+    <t>(1.081797417451727-0.06782933377498096j)</t>
+  </si>
+  <si>
+    <t>(1.1033077183831321-0.08604649299392754j)</t>
+  </si>
+  <si>
+    <t>(1.1235211194168029-0.10311422753103425j)</t>
+  </si>
+  <si>
+    <t>(1.1434679021327583-0.11976500557301667j)</t>
+  </si>
+  <si>
+    <t>(1.1603030962422178-0.13387232870000845j)</t>
+  </si>
+  <si>
+    <t>(1.1716818723479-0.14360721131298207j)</t>
+  </si>
+  <si>
+    <t>(1.1802770538878724-0.15097871773127608j)</t>
+  </si>
+  <si>
+    <t>(1.184831291413024-0.15498720712376332j)</t>
+  </si>
+  <si>
+    <t>(1.1887479557104892-0.15828184768478237j)</t>
   </si>
 </sst>
 </file>
